--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD011BBA-C9DA-4ED7-BA17-07995A5C4714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2097210-80EA-4F26-9D65-2C2745EBE0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>[SensorData][][][updateTime dsc][1,15]</t>
   </si>
   <si>
-    <t>[SensorData][][{_and: [{updateTime: {_gt: "2020-09-27 04:00:00"}},{updateTime: {_lt: "2020-10-01 03:00:00"}}]}]</t>
-  </si>
-  <si>
     <t>query</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>{SensorData(cond:"{Siid: {_invalid: 999999}}")  {Siid type value}}</t>
+  </si>
+  <si>
+    <t>[SensorData][][{_and: [{updateTime: {_gt: "2020-11-27 04:00:00"}},{updateTime: {_lt: "2020-12-01 03:00:00"}}]}]</t>
   </si>
 </sst>
 </file>
@@ -517,9 +517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -613,7 +613,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -783,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -817,13 +817,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D2" s="3">
         <v>200</v>
@@ -837,13 +837,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D3" s="3">
         <v>200</v>
@@ -852,18 +852,18 @@
         <v>101301</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D4" s="3">
         <v>200</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>200</v>
@@ -897,13 +897,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3">
         <v>200</v>
@@ -912,7 +912,7 @@
         <v>101302</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2097210-80EA-4F26-9D65-2C2745EBE0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6172F5-6B2C-4DD5-B6B4-59CCFAA12A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>description</t>
   </si>
@@ -88,12 +88,6 @@
     <t>iems-api-engine-restful-test-7</t>
   </si>
   <si>
-    <t>[SensorData][type,Siid][{Siid: {_in: [34268,35768,33432,33173,36483]}}][][]</t>
-  </si>
-  <si>
-    <t>[SensorData][type,Siid][{Siid: {_nin: [34268,35768,33432,33173,36483]}}][][]</t>
-  </si>
-  <si>
     <t>iems-api-engine-restful-test-8</t>
   </si>
   <si>
@@ -158,6 +152,24 @@
   </si>
   <si>
     <t>[SensorData][][{_and: [{updateTime: {_gt: "2020-11-27 04:00:00"}},{updateTime: {_lt: "2020-12-01 03:00:00"}}]}]</t>
+  </si>
+  <si>
+    <t>iems-api-engine-graphql-test-6</t>
+  </si>
+  <si>
+    <t>{SensorData(cond:"{Siid: {_in: [5040, 5045, 34155]}}") {Siid type value}}</t>
+  </si>
+  <si>
+    <t>iems-api-engine-graphql-test-7</t>
+  </si>
+  <si>
+    <t>{SensorData(cond:"{Siid: {_nin: [5040, 5045, 34155]}}") {Siid type value}}</t>
+  </si>
+  <si>
+    <t>[SensorData][type,Siid][{Siid: {_in: [5040, 5045, 34155]}}][][]</t>
+  </si>
+  <si>
+    <t>[SensorData][type,Siid][{Siid: {_nin: [5040, 5045, 34155]}}][][]</t>
   </si>
 </sst>
 </file>
@@ -519,7 +531,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -613,7 +625,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -637,7 +649,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -685,7 +697,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -702,14 +714,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
@@ -726,7 +738,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -750,14 +762,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
@@ -781,10 +793,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -803,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -817,13 +829,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3">
         <v>200</v>
@@ -837,13 +849,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D3" s="3">
         <v>200</v>
@@ -852,18 +864,18 @@
         <v>101301</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3">
         <v>200</v>
@@ -877,13 +889,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D5" s="3">
         <v>200</v>
@@ -897,13 +909,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="3">
         <v>200</v>
@@ -912,7 +924,47 @@
         <v>101302</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3">
+        <v>200</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0044p8f\Downloads\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6172F5-6B2C-4DD5-B6B4-59CCFAA12A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721E002C-2028-4468-AAC9-D92037B1EA55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>description</t>
   </si>
@@ -170,6 +170,59 @@
   </si>
   <si>
     <t>[SensorData][type,Siid][{Siid: {_nin: [5040, 5045, 34155]}}][][]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	AnalogNotExist {
+	  Analog_id
+	  Siid
+	  aliasName
+	  description
+	  deviceId
+	  generate_SensorData {
+		  Siid
+		  modelId
+		  type
+		  updateTime
+		  value
+	  }
+	}
+}    </t>
+  </si>
+  <si>
+    <t>Field 'AnalogNotExist' in type 'Query' is undefined</t>
+  </si>
+  <si>
+    <t>iEMS-ApiEngine-Test-3-1</t>
+  </si>
+  <si>
+    <t>iEMS-ApiEngine-Test-3-2</t>
+  </si>
+  <si>
+    <t>{
+	Analog(cond:"{Siid: {_eq: 999999}}") {
+	  Analog_id
+	  Siid
+	  aliasName
+	  description
+	  deviceId
+	}
+}</t>
+  </si>
+  <si>
+    <t>iEMS-ApiEngine-Test-3-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	Analog(cond:"{Siid: {_invalid: 999999}}") {
+	  Analog_id
+	  Siid
+	  aliasName
+	  description
+	  deviceId
+	}
+} 
+    </t>
   </si>
 </sst>
 </file>
@@ -239,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -247,6 +300,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,17 +585,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="1"/>
-    <col min="4" max="4" width="36.6328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6328125" style="1"/>
+    <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1"/>
+    <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -793,21 +849,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6328125" style="6" customWidth="1"/>
-    <col min="4" max="6" width="12.6328125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="6" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -827,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -847,7 +903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -867,7 +923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -887,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -907,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -927,7 +983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -947,7 +1003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -965,6 +1021,66 @@
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3">
+        <v>200</v>
+      </c>
+      <c r="E11" s="3">
+        <v>101302</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0044p8f\Downloads\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721E002C-2028-4468-AAC9-D92037B1EA55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FF4CFE-8C8B-44D4-809E-3B67A0183B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -172,24 +172,6 @@
     <t>[SensorData][type,Siid][{Siid: {_nin: [5040, 5045, 34155]}}][][]</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-	AnalogNotExist {
-	  Analog_id
-	  Siid
-	  aliasName
-	  description
-	  deviceId
-	  generate_SensorData {
-		  Siid
-		  modelId
-		  type
-		  updateTime
-		  value
-	  }
-	}
-}    </t>
-  </si>
-  <si>
     <t>Field 'AnalogNotExist' in type 'Query' is undefined</t>
   </si>
   <si>
@@ -199,29 +181,16 @@
     <t>iEMS-ApiEngine-Test-3-2</t>
   </si>
   <si>
-    <t>{
-	Analog(cond:"{Siid: {_eq: 999999}}") {
-	  Analog_id
-	  Siid
-	  aliasName
-	  description
-	  deviceId
-	}
-}</t>
-  </si>
-  <si>
     <t>iEMS-ApiEngine-Test-3-3</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-	Analog(cond:"{Siid: {_invalid: 999999}}") {
-	  Analog_id
-	  Siid
-	  aliasName
-	  description
-	  deviceId
-	}
-} 
+    <t xml:space="preserve">{AnalogNotExist {Analog_id Siid aliasName description deviceId generate_SensorData {Siid modelId type updateTime value} }}    </t>
+  </si>
+  <si>
+    <t>{Analog(cond:"{Siid: {_eq: 999999}}") {Analog_id Siid aliasName description deviceId}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Analog(cond:"{Siid: {_invalid: 999999}}") {Analog_id Siid aliasName description deviceId}} 
     </t>
   </si>
 </sst>
@@ -590,12 +559,12 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1"/>
-    <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6640625" style="1"/>
+    <col min="1" max="2" width="30.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="1"/>
+    <col min="4" max="4" width="36.6328125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.6328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -851,19 +820,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="6" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="2" width="30.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6328125" style="6" customWidth="1"/>
+    <col min="4" max="6" width="12.6328125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -883,7 +852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -903,7 +872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -923,7 +892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -943,7 +912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -963,7 +932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -983,7 +952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -1003,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1023,15 +992,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3">
         <v>200</v>
@@ -1040,18 +1009,18 @@
         <v>101301</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="124.2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3">
         <v>200</v>
@@ -1063,9 +1032,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>38</v>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FF4CFE-8C8B-44D4-809E-3B67A0183B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FB5C18-ADC9-4E66-A69B-E3A45A728C15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32811" yWindow="-129" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
   <si>
     <t>description</t>
   </si>
@@ -192,6 +192,75 @@
   <si>
     <t xml:space="preserve">{Analog(cond:"{Siid: {_invalid: 999999}}") {Analog_id Siid aliasName description deviceId}} 
     </t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_TRAINCONFIG</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_TRAINRESULT</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_PREDICTCONFIG</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_OPTIMALIZERESULT</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_OPTIMALIZECONFIG</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_SIMULATION</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_TOPOLOGY</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_OPTIMIZE_TARGET_TYPE</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_DASHBOARDCONFIG</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_METADATA</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_SECTIONALIZEDLINEARIZATION</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_PREDICTRESULT</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_TRAINCONFIG(cond:"",order:"id DESC") { createTime id optimize_target_type_id simu_id train_cfg_ANN_YN train_cfg_LR_YN train_cfg_RFR_YN train_cfg_SVR_YN train_cfg_SmpEndTime train_cfg_SmpStTime train_cfg_Tree_YN train_cfg_aDa_YN train_cfg_obj_PT train_cfg_obligate1 train_cfg_obligate2 train_cfg_obligate3 train_cfg_obligate4 train_cfg_obligate5 train_cfg_obligate6 train_cfg_predict train_cfg_sample_PT train_cfg_time train_cfg_timetrg_YN}}</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_TRAINRESULT(cond:"",order:"id ASC") { variables train_result_obligate4 train_result_obligate5 train_result_obligate2 train_result_obligate3 optimize_target_type_id simu_id train_result_obligate1 config_id train_result_obligate6 id runid }}</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_PREDICTCONFIG(cond:"",order:"id ASC") { predict_train_model createTime predict_train_obj_wgt_defval predict_cfg_obligate6 predict_cfg_obligate5 predict_cfg_obligate4 predict_cfg_obligate3 predict_cfg_obligate2 predict_cfg_obligate1 optimize_target_type_id simu_id predict_cfg_period predict_cfg_day predict_cfg_time id } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_PREDICTRESULT(cond:"",order:"config_id ASC") { Predict_result_time Predict_result_aDa Predict_result_ANN optimize_target_type_id Predict_result_SP5 Predict_result_Tree Predict_result_LR Predict_result_SVR runid id createTime variables predict_train_obj_wgt_defval Predict_result_obligate2 Predict_result_obligate1 Predict_result_RFR Predict_result_obligate6 simu_id Predict_result_obligate5 Predict_result_obligate4 Predict_result_obligate3 config_id Predict_result_AVG } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_OPTIMALIZECONFIG(cond:"",order:"id ASC") { isActive optimize_target_type_id optimalizeType opt_cfg_opt_starttime id opt_cfg_user_def opt_pred_model opt_cfg_obligate3 rollTasksId opt_cfg_obligate2 opt_cfg_obligate5 createTime opt_cfg_obligate4 opt_cfg_obligate6 opt_cfg_emi_frac opt_name dash_cfg_id simu_id opt_cfg_opt_day opt_cfg_opt_frequency isRTCOP opt_cfg_cost_frac opt_methods rollType opt_cfg_obligate1 } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_SIMULATION(cond:"",order:"id ASC") { updatatime historymap chartsetting createtime rtcountmap hiscountmap isTraining obligate1 obligate2 channels defcountmap user_id ispredict name id obligate5 obligate6 treefile obligate3 obligate4 } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_TOPOLOGY(cond:"",order:"id ASC") { create_time topo_name simu_id obligate1 obligate2 topo_xml update_time update_user parent_id id obligate5 obligate6 obligate3 obligate4 } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_OPTIMIZE_TARGET_TYPE(cond:"",order:"id ASC") { obligate1 obligate2 optimize_topo_selection optimize_type optimize_name id obligate5 optimize_data_type obligate3 obligate4 } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_DASHBOARDCONFIG(cond:"",order:"id ASC") { dashparam name id simu_id optimize_target_type_id } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_METADATA(cond:"",order:"id ASC") { obligate1 obligate2 name id obligate5 params category obligate3 obligate4 } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_SECTIONALIZEDLINEARIZATION(cond:"",order:"id ASC") { tensor_index_counts target obligate1 obligate2 device_name model_name param id obligate5 obligate3 obligate4 tensor_data } }</t>
   </si>
 </sst>
 </file>
@@ -554,20 +623,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="1"/>
-    <col min="4" max="4" width="36.6328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6328125" style="1"/>
+    <col min="1" max="2" width="30.61328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.61328125" style="1"/>
+    <col min="4" max="4" width="36.61328125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.61328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -593,7 +662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -617,7 +686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -641,7 +710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -665,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -689,7 +758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -713,7 +782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -737,7 +806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -761,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -785,7 +854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -818,21 +887,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6328125" style="6" customWidth="1"/>
-    <col min="4" max="6" width="12.6328125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="41.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.61328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.61328125" style="6" customWidth="1"/>
+    <col min="4" max="6" width="12.61328125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -852,7 +922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -872,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -892,7 +962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -912,7 +982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -932,7 +1002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -952,7 +1022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -972,7 +1042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -992,7 +1062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1012,7 +1082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
@@ -1032,7 +1102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -1050,6 +1120,246 @@
       </c>
       <c r="F11" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3">
+        <v>200</v>
+      </c>
+      <c r="E16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="3">
+        <v>200</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FB5C18-ADC9-4E66-A69B-E3A45A728C15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDCDF77-DD46-4837-A6D9-E79CEA830A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-129" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
+    <sheet name="queryPostgresqlData" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="133">
   <si>
     <t>description</t>
   </si>
@@ -261,13 +262,787 @@
   </si>
   <si>
     <t>{CIMSOURCE_SECTIONALIZEDLINEARIZATION(cond:"",order:"id ASC") { tensor_index_counts target obligate1 obligate2 device_name model_name param id obligate5 obligate3 obligate4 tensor_data } }</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-1</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Building-&gt;Floor-&gt;Room
+楼宇信息 楼层信息 区域信息</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Floor(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      hasPart_Room(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-2</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Building-&gt;Floor
+根据指定楼宇获取楼层列表</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-3</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Floor-&gt;Room
+根据指定楼层获取空间列表</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Equipment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据楼层获得所有设备信息</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        equipment
+        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+        {
+          _isPartOf
+          sourceId
+          description
+          type
+          id
+          name
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Equipment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据指定楼层获取设备列表</t>
+    </r>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Room-&gt;Equipment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Room-&gt;EquipmentLocation-&gt;Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据空间id查询设备列表</t>
+    </r>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Equipment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+模糊查询设备(需要添加condition)</t>
+    </r>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-8</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+查询Mode Sensor 及mode option（涵盖模式枚举信息）</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-9</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+获取会议室当前模式及各需求点位信息</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-10</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+获取会议室模式sensor及模式option</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Room-&gt;Equipment-&gt;Sensor-&gt;Mode_Sensor-&gt;Mode_Option
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Room-&gt;EquipmentLocation-&gt;Equipment-&gt;Point-&gt;Sensor-&gt;Mode_Sensor-&gt;Mode_Option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据device id获取mode sensor</t>
+    </r>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-12</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+获取当前会议室/工位占用传感器数据</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-13</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+获取当前会议室/工位占用传感器数据 增加时间条件</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-14</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+获取楼层占用传感器使用情况数据</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-15</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-16</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-17</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Equipment-&gt;Room_Controller-&gt;Temperature_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+查询室内温度</t>
+    </r>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-18</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-19</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;PM25_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;PointLocation-&gt;PM25_Sensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+获取PM2.5浓度</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"{id:{_eq:\"d68ea3cf6be94281a785338afaa9205d\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Floor(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"e8130762852a48cfafb5546e4e8a7413\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"e8130762852a48cfafb5546e4e8a7413\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        equipment
+        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+        {
+          _isPartOf
+          sourceId
+          description
+          type
+          id
+          name
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Room(cond:"{id:{_eq:\"96042959aad644d5b993d1373461bdd0\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      equipment
+      isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        equipment
+        isEquipmentLocationOf_Equipment(cond:"{name:{_like:\"SS_Mock_B1.F2.RM13.CT2%\"}}", authInfo:"", order:"")
+        {
+          _isPartOf
+          sourceId
+          description
+          type
+          id
+          name
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    subClassOf_Location(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      id
+      _isPartOf
+      type
+      isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        id
+        location
+        point
+        isPointLocationOf_Power_Sensor(cond:"", authInfo:"", order:"")
+        {
+          sourceId
+          sourceSystem
+          name
+          description
+          id
+          _isPointOf
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;Power_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Location-&gt;PointLocation-&gt;Power_Sensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+获取能耗值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;Temperature_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floorr-&gt;Location-&gt;PointLocation-&gt;Temperature_Sensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+获取温度值</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    subClassOf_Location(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      id
+      _isPartOf
+      type
+      isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        id
+        location
+        point
+        isPointLocationOf_Temperature_Sensor(cond:"", authInfo:"", order:"")
+        {
+          sourceId
+          sourceSystem
+          name
+          description
+          id
+          _isPointOf
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;Humidity_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Floor-&gt;Location-&gt;PointLocation-&gt;Humidity_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取湿度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;CO2_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Location-&gt;PointLocation-&gt;CO2_Sensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+获取CO2浓度</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    subClassOf_Location(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      id
+      _isPartOf
+      type
+      isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        id
+        location
+        point
+        isPointLocationOf_Humidity_Sensor(cond:"", authInfo:"", order:"")
+        {
+          sourceId
+          sourceSystem
+          name
+          description
+          id
+          _isPointOf
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    subClassOf_Location(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      id
+      _isPartOf
+      type
+      isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        id
+        location
+        point
+        isPointLocationOf_CO2_Sensor(cond:"", authInfo:"", order:"")
+        {
+          sourceId
+          sourceSystem
+          name
+          description
+          id
+          _isPointOf
+          type
+        }
+      }
+    }
+  }
+}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +1059,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -330,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -340,6 +1128,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,20 +1426,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.61328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.61328125" style="1"/>
-    <col min="4" max="4" width="36.61328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.61328125" style="1"/>
+    <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1"/>
+    <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -662,7 +1465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -686,7 +1489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -710,7 +1513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -734,7 +1537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -758,7 +1561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -782,7 +1585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -806,7 +1609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -830,7 +1633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -854,7 +1657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -889,20 +1692,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.61328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.61328125" style="6" customWidth="1"/>
-    <col min="4" max="6" width="12.61328125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.84375" style="1"/>
+    <col min="1" max="1" width="41.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="6" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -922,7 +1725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -942,7 +1745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -962,7 +1765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -982,7 +1785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1002,7 +1805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1022,7 +1825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -1042,7 +1845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1062,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1082,7 +1885,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
@@ -1102,7 +1905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -1122,7 +1925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1142,7 +1945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -1162,7 +1965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -1182,7 +1985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -1202,7 +2005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -1222,7 +2025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1242,7 +2045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1262,7 +2065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1282,7 +2085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1302,7 +2105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1322,7 +2125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1342,7 +2145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1367,4 +2170,469 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95BF81D-F35A-4340-837F-62C66C86E4D8}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="12">
+        <v>200</v>
+      </c>
+      <c r="F2" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="12">
+        <v>200</v>
+      </c>
+      <c r="F3" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="12">
+        <v>200</v>
+      </c>
+      <c r="F4" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="12">
+        <v>200</v>
+      </c>
+      <c r="F5" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="12">
+        <v>200</v>
+      </c>
+      <c r="F6" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="12">
+        <v>200</v>
+      </c>
+      <c r="F7" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="12">
+        <v>200</v>
+      </c>
+      <c r="F8" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12">
+        <v>200</v>
+      </c>
+      <c r="F9" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12">
+        <v>200</v>
+      </c>
+      <c r="F10" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12">
+        <v>200</v>
+      </c>
+      <c r="F11" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDCDF77-DD46-4837-A6D9-E79CEA830A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69547F5B-F779-43F5-8460-43ABE2F682CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
-    <sheet name="queryPostgresqlData" sheetId="4" r:id="rId3"/>
+    <sheet name="queryPostgresqlData-backup" sheetId="4" r:id="rId3"/>
+    <sheet name="queryPostgresqlData" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">queryPostgresqlData!$A$1:$H$22</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="226">
   <si>
     <t>description</t>
   </si>
@@ -1033,6 +1037,3843 @@
           type
         }
       }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>获取楼宇同步数据列表</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+  }
+}</t>
+  </si>
+  <si>
+    <t>通过楼宇获取楼层列表</t>
+  </si>
+  <si>
+    <t>根据楼层获取区域同步数据</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"{sourceId:{_eq:\"1\"}}", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    hasPart_Floor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      id
+      _isPartOf
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{sourceId:{_eq:\"1\"}}", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      id
+      _isPartOf
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>通过区域code获取设备列表
+Room-&gt;EquipmentLocation-&gt;Equipment-&gt;Point-&gt;Sensor</t>
+  </si>
+  <si>
+    <t>{
+  Room(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+    {
+      equipment
+      location
+      isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        name
+        description
+        id
+        _isPartOf
+        type
+        hasPoint_Point(cond:"", authInfo:"", order:"")
+        {
+          sourceId
+          sourceSystem
+          name
+          description
+          id
+          _isPointOf
+          type
+          hasSubClass_Sensor(cond:"", authInfo:"", order:"")
+          {
+            sourceId
+            sourceSystem
+            name
+            description
+            id
+            _isPointOf
+            type
+          }
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>通过楼层获取设备列表
+Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment-&gt;Point-&gt;Sensor</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      id
+      _isPartOf
+      type
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        equipment
+        location
+        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+        {
+          sourceId
+          name
+          description
+          id
+          _isPartOf
+          type
+          hasPoint_Point(cond:"", authInfo:"", order:"")
+          {
+            sourceId
+            sourceSystem
+            name
+            description
+            id
+            _isPointOf
+            type
+            hasSubClass_Sensor(cond:"", authInfo:"", order:"")
+            {
+              sourceId
+              sourceSystem
+              name
+              description
+              id
+              _isPointOf
+              type
+            }
+          }
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>获取会议室模式</t>
+  </si>
+  <si>
+    <t>获取设备实时数据</t>
+  </si>
+  <si>
+    <t>获取实时/时间段内指定占用传感器数据
+Equipment(device_id in [])-&gt;Point-&gt;Sensor-&gt;SensorData(ctime)</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>获取每小时温度传感器数值</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{device_id: {_in: [\"\"]}}", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    hasPoint_Point(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      sourceSystem
+      name
+      description
+      id
+      _isPointOf
+      type
+      hasSubClass_Sensor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        sourceSystem
+        name
+        description
+        id
+        _isPointOf
+        type
+        has_SensorData(cond:"{captureTime:{_gte:\"2022-03-20 03:48:28\", _lte:\"2022-04-20 03:48:28\"}}", authInfo:"", order:"")
+        {
+          ctime
+          sourceSystem
+          id
+          value
+          sensorId
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{type: {_eq: \"CO2_Sensor\"}}", authInfo:"", order:"")
+  {
+    sourceId
+    sourceSystem
+    name
+    description
+    id
+    _isPointOf
+    type
+    has_SensorData(cond:"{captureTime:{_gte:\"2022-04-20 02:48:29\", _lte:\"2022-04-20 03:48:28\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      sourceSystem
+      id
+      value
+      sensorId
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>获取每小时CO2传感器数值</t>
+  </si>
+  <si>
+    <t>获取每小时PM2.5传感器数值</t>
+  </si>
+  <si>
+    <t>获取每小时TVOC传感器数值</t>
+  </si>
+  <si>
+    <t>获取每小时湿度传感器数值</t>
+  </si>
+  <si>
+    <t>获取设备能耗信息</t>
+  </si>
+  <si>
+    <t>反控风速</t>
+  </si>
+  <si>
+    <t>反控窗帘</t>
+  </si>
+  <si>
+    <t>反控温度</t>
+  </si>
+  <si>
+    <t>反控会议模式</t>
+  </si>
+  <si>
+    <t>反控空调模式</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   SensorData_Update(input:
+   [
+        {
+          id:"System1:GmsDevice_1_7210_8388610.Present_Value",
+          value: 31
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{id: {_in: [\"f8eb01cf1100479da83b904a49d8e487\"]}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasSubClass_Sensor(cond:"", authInfo:"", order:"")
+      {
+        name
+        description
+        id
+        type
+        has_SensorData(cond:"{captureTime:{_gte:\"2022-04-20T21:17:18\",_lte:\"2022-04-20T21:27:18\"}}", authInfo:"", order:"")
+        {
+          captureTime
+          id
+          value
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>获取设备时间段内指定占用传感器数据
+Equipment(id in [])-&gt;Point-&gt;Sensor-&gt;SensorData(captureTime)</t>
+  </si>
+  <si>
+    <t>反控灯具
+id=sensor.id</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"{id:{_eq:\"8aaf79c07e11448ba0ebd027f82a4089\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPart_Floor(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "code": 100000,
+  "message": "Successfully",
+  "data": {
+    "Building": [
+      {
+        "name": "SS_Mock_B1",
+        "description": "Smart Space Mock up data Building 1",
+        "id": "8aaf79c07e11448ba0ebd027f82a4089",
+        "type": "Building",
+        "hasPart_Floor": [
+          {
+            "name": "SS_Mock_B1.F1",
+            "description": "Building 1 Floor 1",
+            "id": "30ab9d5c322843bf9ce6c19cb4d31032",
+            "type": "Floor"
+          }
+        ]
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "code": 100000,
+  "message": "Successfully",
+  "data": {
+    "Building": [
+      {
+        "name": "SS_Mock_B1",
+        "description": "Smart Space Mock up data Building 1",
+        "id": "8aaf79c07e11448ba0ebd027f82a4089",
+        "type": "Building"
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"30ab9d5c322843bf9ce6c19cb4d31032\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "code": 100000,
+  "message": "Successfully",
+  "data": {
+    "Floor": [
+      {
+        "name": "SS_Mock_B1.F1",
+        "description": "Building 1 Floor 1",
+        "id": "30ab9d5c322843bf9ce6c19cb4d31032",
+        "type": "Floor",
+        "hasPart_Room": [
+          {
+            "name": "SS_Mock_B1.F1.RM1",
+            "description": "Building 1 Floor 1 Room 1",
+            "id": "916d3aea61bb46f59936d24415889a6a",
+            "type": "Room"
+          }
+        ]
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>获取楼宇同步数据列表
+Building</t>
+  </si>
+  <si>
+    <t>{
+  Room(cond:"{id:{_eq:\"916d3aea61bb46f59936d24415889a6a\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+    {
+      equipment
+      location
+      isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+      {
+        name
+        description
+        id
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "code": 100000,
+  "message": "Successfully",
+  "data": {
+    "Room": [
+      {
+        "name": "SS_Mock_B1.F1.RM1",
+        "description": "Building 1 Floor 1 Room 1",
+        "id": "916d3aea61bb46f59936d24415889a6a",
+        "type": "Room",
+        "isLocationOf_EquipmentLocation": [
+          {
+            "equipment": "f8eb01cf1100479da83b904a49d8e487",
+            "location": "916d3aea61bb46f59936d24415889a6a",
+            "isEquipmentLocationOf_Equipment": {
+              "name": "fixture_id_2",
+              "description": "Building 1 Floor 1 Room 1 Lighting Fixture",
+              "id": "f8eb01cf1100479da83b904a49d8e487",
+              "type": "Lighting"
+            }
+          },
+          {
+            "equipment": "b7110bb902f74fc68e546ac0d5b4be16",
+            "location": "916d3aea61bb46f59936d24415889a6a",
+            "isEquipmentLocationOf_Equipment": {
+              "name": "DDC-H-10F-5",
+              "description": "Room_Controller_Unit",
+              "id": "b7110bb902f74fc68e546ac0d5b4be16",
+              "type": "Room_Controller_Unit"
+            }
+          }
+        ]
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"30ab9d5c322843bf9ce6c19cb4d31032\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        equipment
+        location
+        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+        {
+          name
+          description
+          id
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "code": 100000,
+  "message": "Successfully",
+  "data": {
+    "Floor": [
+      {
+        "name": "SS_Mock_B1.F1",
+        "description": "Building 1 Floor 1",
+        "id": "30ab9d5c322843bf9ce6c19cb4d31032",
+        "type": "Floor",
+        "hasPart_Room": [
+          {
+            "name": "SS_Mock_B1.F1.RM1",
+            "description": "Building 1 Floor 1 Room 1",
+            "id": "916d3aea61bb46f59936d24415889a6a",
+            "type": "Room",
+            "isLocationOf_EquipmentLocation": [
+              {
+                "equipment": "f8eb01cf1100479da83b904a49d8e487",
+                "location": "916d3aea61bb46f59936d24415889a6a",
+                "isEquipmentLocationOf_Equipment": {
+                  "name": "fixture_id_2",
+                  "description": "Building 1 Floor 1 Room 1 Lighting Fixture",
+                  "id": "f8eb01cf1100479da83b904a49d8e487",
+                  "type": "Lighting"
+                }
+              },
+              {
+                "equipment": "b7110bb902f74fc68e546ac0d5b4be16",
+                "location": "916d3aea61bb46f59936d24415889a6a",
+                "isEquipmentLocationOf_Equipment": {
+                  "name": "DDC-H-10F-5",
+                  "description": "Room_Controller_Unit",
+                  "id": "b7110bb902f74fc68e546ac0d5b4be16",
+                  "type": "Room_Controller_Unit"
+                }
+              }
+            ]
+          }
+        ]
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>通过楼宇获取楼层列表
+Building(id=)-&gt;Floor</t>
+  </si>
+  <si>
+    <t>根据楼层获取区域同步数据
+Floor(id=)-&gt;Room</t>
+  </si>
+  <si>
+    <t>通过区域code获取设备列表
+Room(id=)-&gt;EquipmentLocation-&gt;Equipment</t>
+  </si>
+  <si>
+    <t>通过楼层获取设备列表
+Floor(id=)-&gt;Room-&gt;EquipmentLocation-&gt;Equipment</t>
+  </si>
+  <si>
+    <t>{
+  "code": 100000,
+  "message": "Successfully",
+  "data": {
+    "Equipment": [
+      {
+        "name": "fixture_id_2",
+        "description": "Building 1 Floor 1 Room 1 Lighting Fixture",
+        "id": "f8eb01cf1100479da83b904a49d8e487",
+        "type": "Lighting",
+        "hasPoint_Point": [
+          {
+            "name": "temperature_sensor_2",
+            "description": "Sensor48c775",
+            "id": "0a5a5de6697f4d11b7971185fc2d8b88",
+            "type": "Temperature_Sensor",
+            "hasSubClass_Sensor": {
+              "name": "temperature_sensor_2",
+              "description": "Sensor48c775",
+              "id": "0a5a5de6697f4d11b7971185fc2d8b88",
+              "type": "Temperature_Sensor",
+              "has_SensorData": [
+                {
+                  "captureTime": "2022-04-20T21:25:47",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:39",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:32",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:54",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:39",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:29",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:09",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:39",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:49",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:42",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:34",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:28",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:04",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:02",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:24",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:14",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:59",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:49",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:49",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:59",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:52",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:43",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:18",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:33",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:23",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:13",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:19",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:19",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:59",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:27:10",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:09",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                }
+              ]
+            }
+          },
+          {
+            "name": "power_sensor_2",
+            "description": "Sensor48c775",
+            "id": "ab9fb0bed4894ae3887d6068053f4248",
+            "type": "Power_Sensor",
+            "hasSubClass_Sensor": {
+              "name": "power_sensor_2",
+              "description": "Sensor48c775",
+              "id": "ab9fb0bed4894ae3887d6068053f4248",
+              "type": "Power_Sensor",
+              "has_SensorData": [
+                {
+                  "captureTime": "2022-04-20T21:25:39",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:42",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:34",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:47",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:04",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:54",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:19",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:19",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:09",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:29",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:49",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:59",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:09",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:32",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:39",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:49",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:43",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:02",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:33",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:39",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:52",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:28",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:49",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:59",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:59",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:24",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:14",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:27:10",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:13",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:18",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:23",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                }
+              ]
+            }
+          },
+          {
+            "name": "luminance_2",
+            "description": "Sensor48c775",
+            "id": "fd2da1c21690473b9b55e35a26fd59e8",
+            "type": "Luminance_Sensor",
+            "hasSubClass_Sensor": {
+              "name": "luminance_2",
+              "description": "Sensor48c775",
+              "id": "fd2da1c21690473b9b55e35a26fd59e8",
+              "type": "Luminance_Sensor",
+              "has_SensorData": [
+                {
+                  "captureTime": "2022-04-20T21:17:18",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:19",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:33",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:27:10",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:04",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:39",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:49",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:34",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:42",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:49",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:19",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:49",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:52",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:39",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:43",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:39",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:59",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:47",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:32",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:59",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:24",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:02",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:09",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:09",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:29",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:14",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:59",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:54",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:28",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:13",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:23",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                }
+              ]
+            }
+          }
+        ]
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{id: {_in: [\"f8eb01cf1100479da83b904a49d8e487\"]}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasSubClass_Sensor(cond:"", authInfo:"", order:"")
+      {
+        name
+        description
+        id
+        type
+        has_SensorData(cond:"{captureTime:{_gte:\"2022-04-21T17:40:18\",_lte:\"2022-04-21T17:50:18\"}}", authInfo:"", order:"")
+        {
+          captureTime
+          id
+          value
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "code": 100000,
+  "message": "Successfully",
+  "data": {
+    "Equipment": [
+      {
+        "name": "fixture_id_2",
+        "description": "Building 1 Floor 1 Room 1 Lighting Fixture",
+        "id": "f8eb01cf1100479da83b904a49d8e487",
+        "type": "Lighting",
+        "hasPoint_Point": [
+          {
+            "name": "temperature_sensor_2",
+            "description": "Sensor48c775",
+            "id": "0a5a5de6697f4d11b7971185fc2d8b88",
+            "type": "Temperature_Sensor",
+            "hasSubClass_Sensor": {
+              "name": "temperature_sensor_2",
+              "description": "Sensor48c775",
+              "id": "0a5a5de6697f4d11b7971185fc2d8b88",
+              "type": "Temperature_Sensor",
+              "has_SensorData": [
+                {
+                  "captureTime": "2022-04-21T17:40:31",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:23",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:53",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:32",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:22",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:01",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:54",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:45:04",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:23",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:03",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:02",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:11",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:52",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:22",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:12",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:33",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:13",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:52",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:51",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:43",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:40:51",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:42",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:40:41",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:33",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:42",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:13",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:03",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:40:21",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:32",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:43",
+                  "id": "2",
+                  "value": 83.4,
+                  "type": "Temperature_Sensor"
+                }
+              ]
+            }
+          },
+          {
+            "name": "power_sensor_2",
+            "description": "Sensor48c775",
+            "id": "ab9fb0bed4894ae3887d6068053f4248",
+            "type": "Power_Sensor",
+            "hasSubClass_Sensor": {
+              "name": "power_sensor_2",
+              "description": "Sensor48c775",
+              "id": "ab9fb0bed4894ae3887d6068053f4248",
+              "type": "Power_Sensor",
+              "has_SensorData": [
+                {
+                  "captureTime": "2022-04-21T17:42:42",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:33",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:51",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:40:51",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:43",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:13",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:22",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:45:04",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:40:41",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:33",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:01",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:13",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:43",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:03",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:40:21",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:23",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:52",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:54",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:53",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:22",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:32",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:40:31",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:42",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:03",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:11",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:52",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:23",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:32",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:02",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:12",
+                  "id": "2",
+                  "value": 25.48,
+                  "type": "Power_Sensor"
+                }
+              ]
+            }
+          },
+          {
+            "name": "luminance_2",
+            "description": "Sensor48c775",
+            "id": "fd2da1c21690473b9b55e35a26fd59e8",
+            "type": "Luminance_Sensor",
+            "hasSubClass_Sensor": {
+              "name": "luminance_2",
+              "description": "Sensor48c775",
+              "id": "fd2da1c21690473b9b55e35a26fd59e8",
+              "type": "Luminance_Sensor",
+              "has_SensorData": [
+                {
+                  "captureTime": "2022-04-21T17:42:22",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:32",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:23",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:40:31",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:45:04",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:54",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:52",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:01",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:32",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:11",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:03",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:23",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:12",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:52",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:13",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:03",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:33",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:02",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:22",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:42",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:40:51",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:43",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:42:51",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:40:21",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:41:42",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:13",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:44:33",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:40:41",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:53",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-21T17:43:43",
+                  "id": "2",
+                  "value": 75,
+                  "type": "Luminance_Sensor"
+                }
+              ]
+            }
+          }
+        ]
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{type: {_eq: \"Temperature_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    has_SensorData(cond:"{captureTime:{_gte:\"2022-04-18T15:11:05\", _lte:\"2022-04-18T16:11:05\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{type: {_eq: \"CO2_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    has_SensorData(cond:"{captureTime:{_gte:\"2022-04-18T15:11:05\", _lte:\"2022-04-18T16:11:05\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{type: {_eq: \"PM25_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    has_SensorData(cond:"{captureTime:{_gte:\"2022-04-18T15:11:05\", _lte:\"2022-04-18T16:11:05\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{type: {_eq: \"TVOC_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    has_SensorData(cond:"{captureTime:{_gte:\"2022-04-18T15:11:05\", _lte:\"2022-04-18T16:11:05\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{type: {_eq: \"Humidity_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    has_SensorData(cond:"{captureTime:{_gte:\"2022-04-18T15:11:05\", _lte:\"2022-04-18T16:11:05\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{type: {_eq: \"Power_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    has_SensorData(cond:"{captureTime:{_gte:\"2022-04-18T15:11:05\", _lte:\"2022-04-18T16:11:05\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "code": 100000,
+  "message": "Successfully",
+  "data": {
+    "Sensor": [
+      {
+        "name": "desigocc_BACDev_power_sensor",
+        "description": "Power_Sensor",
+        "id": "3603ef0967a24a73bc2ef3e8607861e2",
+        "type": "Power_Sensor",
+        "has_SensorData": [
+          {
+            "captureTime": "2022-04-18T15:46:28",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:11:05",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 35,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:58:09",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 35,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:55:53",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:32:32",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:09:45",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:30:02",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:05:29",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:25:46",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:38:12",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:44:43",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 45,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:10:55",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:33:02",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:54:48",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:16:31",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:26:41",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 45,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:46:33",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:39:22",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:24:36",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 35,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:12:15",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:42:17",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:48:58",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:05:19",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:43:48",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:42:22",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:43:33",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:57:55",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 5,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:02:34",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:02:29",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:59:59",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:39:17",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:12:00",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:44:38",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 35,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:52:53",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:29:07",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 35,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:19:31",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:28:12",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 45,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:06:45",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:35:32",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:11:20",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 5,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:38:27",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:42:43",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:21:36",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 35,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:24:41",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:12:10",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:38:17",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:19:26",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:30:12",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:51:58",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:52:48",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:25:41",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:49:03",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:55:58",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:11:10",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:10:00",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:51:48",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:43:43",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:32:57",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:09:50",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:23:41",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 45,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:31:07",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 35,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:10:50",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:42:27",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:56:23",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 5,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:43:53",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:37:12",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 45,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:18:02",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:24:56",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:12:20",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:11:00",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:08:45",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 45,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:36:27",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:57:08",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 95,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:24:46",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:16:41",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:37:17",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:16:01",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:22:01",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:16:46",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:23:46",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:56:03",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 45,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:11:15",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:30:17",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:30:22",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:04:24",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 45,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:07:00",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:09:10",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 95,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:25:51",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:27:17",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:50:48",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:56:38",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 35,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:35:27",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:40:12",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 45,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:59:41",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 35,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:50:24",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 5,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:21:56",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:18:12",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:53:43",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 45,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:43:58",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:01:39",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 95,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:19:01",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:00:54",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 5,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:57:50",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:16:51",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:19:46",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:47:48",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:30:27",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:32:17",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:15:46",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:49:53",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:25:26",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:58:05",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:31:22",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:11:30",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:11:55",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:43:23",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:04:39",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 95,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:22:41",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:14:30",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:42:32",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 45,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:29:27",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:17:51",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:03:24",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:29:17",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:36:17",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:44:53",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:05:40",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 35,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:50:43",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 45,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:33:17",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:45:48",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:22:46",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:41:27",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:15:41",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:01:19",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:14:25",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:03:29",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:56:29",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:29:12",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:40:23",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:25:01",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:58:24",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:49:58",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:34:17",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:22:51",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:06:55",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 5,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:19:41",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:46:48",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:18:46",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:33:12",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:15:36",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 35,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:38:32",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:06:40",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 35,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:07:25",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 65,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:52:28",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:55:03",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 25,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:14:46",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:03:19",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:42:02",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:36:02",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:53:04",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 45,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:20:46",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 55,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:39:12",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 85,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T16:07:30",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 75,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:59:19",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 15,
+            "type": "Power_Sensor"
+          },
+          {
+            "captureTime": "2022-04-18T15:14:05",
+            "id": "System1:GmsDevice_1_7210_0.Present_Value",
+            "value": 35,
+            "type": "Power_Sensor"</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasSubClass_Sensor(cond:"{type: {_eq: \"Power_Sensor\"}}", authInfo:"", order:"")
+      {
+        name
+        description
+        id
+        type
+        has_SensorData(cond:"{captureTime:{_gte:\"2022-04-20T21:17:18\",_lte:\"2022-04-20T21:27:18\"}}", authInfo:"", order:"")
+        {
+          captureTime
+          id
+          value
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "code": 100000,
+  "message": "Successfully",
+  "data": {
+    "Equipment": [
+      {
+        "name": "fixture_id_2",
+        "description": "Building 1 Floor 1 Room 1 Lighting Fixture",
+        "id": "f8eb01cf1100479da83b904a49d8e487",
+        "type": "Lighting",
+        "hasPoint_Point": [
+          {
+            "name": "temperature_sensor_2",
+            "description": "Sensor48c775",
+            "id": "0a5a5de6697f4d11b7971185fc2d8b88",
+            "type": "Temperature_Sensor",
+            "hasSubClass_Sensor": {
+              "name": "temperature_sensor_2",
+              "description": "Sensor48c775",
+              "id": "0a5a5de6697f4d11b7971185fc2d8b88",
+              "type": "Temperature_Sensor",
+              "has_SensorData": [
+                {
+                  "captureTime": "2022-04-20T21:25:47",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:39",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:32",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:54",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:39",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:29",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:09",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:39",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:49",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:42",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:34",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:28",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:04",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:02",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:24",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:14",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:59",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:49",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:49",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:59",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:52",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:43",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:18",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:33",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:23",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:13",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:19",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:19",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:59",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:27:10",
+                  "id": "2",
+                  "value": 85.2,
+                  "type": "Temperature_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:09",
+                  "id": "2",
+                  "value": 87,
+                  "type": "Temperature_Sensor"
+                }
+              ]
+            }
+          },
+          {
+            "name": "power_sensor_2",
+            "description": "Sensor48c775",
+            "id": "ab9fb0bed4894ae3887d6068053f4248",
+            "type": "Power_Sensor",
+            "hasSubClass_Sensor": {
+              "name": "power_sensor_2",
+              "description": "Sensor48c775",
+              "id": "ab9fb0bed4894ae3887d6068053f4248",
+              "type": "Power_Sensor",
+              "has_SensorData": [
+                {
+                  "captureTime": "2022-04-20T21:25:39",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:42",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:34",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:47",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:04",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:54",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:19",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:19",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:29",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:09",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:49",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:59",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:09",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:32",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:39",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:49",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:43",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:02",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:33",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:39",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:52",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:28",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:49",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:59",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:59",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:24",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:14",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:27:10",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:13",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:18",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:23",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Power_Sensor"
+                }
+              ]
+            }
+          },
+          {
+            "name": "luminance_2",
+            "description": "Sensor48c775",
+            "id": "fd2da1c21690473b9b55e35a26fd59e8",
+            "type": "Luminance_Sensor",
+            "hasSubClass_Sensor": {
+              "name": "luminance_2",
+              "description": "Sensor48c775",
+              "id": "fd2da1c21690473b9b55e35a26fd59e8",
+              "type": "Luminance_Sensor",
+              "has_SensorData": [
+                {
+                  "captureTime": "2022-04-20T21:17:18",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:33",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:19",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:27:10",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:04",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:39",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:49",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:34",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:42",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:49",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:19",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:49",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:52",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:39",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:43",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:39",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:59",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:47",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:32",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:59",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:24",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:02",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:09",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:26:29",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:18:09",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:20:14",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:25:59",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:54",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:17:28",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:13",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                },
+                {
+                  "captureTime": "2022-04-20T21:19:23",
+                  "id": "2",
+                  "value": 0,
+                  "type": "Luminance_Sensor"
+                }
+              ]
+            }
+          }
+        ]
+      },
+      {
+        "name": "DDC-H-10F-5",
+        "description": "Room_Controller_Unit",
+        "id": "b7110bb902f74fc68e546ac0d5b4be16",
+        "type": "Room_Controller_Unit",
+        "hasPoint_Point": [
+          {
+            "name": "desigocc_Test_Sensor",
+            "description": "Temperature_Sensor",
+            "id": "28cc5496c7274090a1329852fe219439",
+            "type": "Temperature_Sensor",
+            "hasSubClass_Sensor": null
+          }
+        ]
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>获取每小时温度传感器数值
+Sensor(type='Temperature_Sensor')-&gt;SensorData(captureTime)</t>
+  </si>
+  <si>
+    <t>获取每小时CO2传感器数值
+Sensor(type='CO2_Sensor')-&gt;SensorData(captureTime)</t>
+  </si>
+  <si>
+    <t>获取每小时PM2.5传感器数值
+Sensor(type='PM25_Sensor')-&gt;SensorData(captureTime)</t>
+  </si>
+  <si>
+    <t>获取每小时TVOC传感器数值
+Sensor(type='TVOC_Sensor')-&gt;SensorData(captureTime)</t>
+  </si>
+  <si>
+    <t>获取每小时湿度传感器数值
+Sensor(type='Humidity_Sensor')-&gt;SensorData(captureTime)</t>
+  </si>
+  <si>
+    <t>获取每小时能耗传感器数值
+Sensor(type='Power_Sensor')-&gt;SensorData(captureTime)</t>
+  </si>
+  <si>
+    <t>获取设备能耗信息
+Equipment-&gt;Point-&gt;Sensor(type='Power_Sensor')-&gt;SensorData(captureTime)</t>
+  </si>
+  <si>
+    <t>{
+    "code": 100000,
+    "data": {
+        "Sensor": [
+            {
+                "has_SensorData": null,
+                "name": "temperature_sensor_2",
+                "description": "Sensor48c775",
+                "id": "0a5a5de6697f4d11b7971185fc2d8b88",
+                "type": "Temperature_Sensor"
+            },
+            {
+                "has_SensorData": null,
+                "name": "desigocc_Test_Sensor",
+                "description": "Temperature_Sensor",
+                "id": "28cc5496c7274090a1329852fe219439",
+                "type": "Temperature_Sensor"
+            },
+            {
+                "has_SensorData": null,
+                "name": "SS_Mock_B1.F1.Temperature_Sensor",
+                "description": "Building 1 Floor 1 ROOM 1 Temperature Sensor 1",
+                "id": "2367aec0ffcc48d2940f488d4ec19d0b",
+                "type": "Temperature_Sensor"
+            }
+        ]
+    },
+    "message": "Successfully"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 100000,
+    "data": {
+        "Sensor": [
+            {
+                "has_SensorData": null,
+                "name": "SS_Mock_B1.F1.CO21",
+                "description": "Building 1 Floor 1 ROOM 1 CO2 Sensor 1",
+                "id": "c26c3f7f4b5f41ae8afe06e02e52e075",
+                "type": "CO2_Sensor"
+            }
+        ]
+    },
+    "message": "Successfully"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 100000,
+    "data": {
+        "Sensor": [
+        ]
+    },
+    "message": "Successfully"
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取设备实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取最近10分钟数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Equipment(id in [])-&gt;Point-&gt;Sensor-&gt;SensorData(captureTime)</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  "code": 100000,
+  "message": "Successfully",
+  "data": {
+    "SensorData_Update": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{dataBrainRehearsal_decigoccConnector=null}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
     }
   }
 }</t>
@@ -1077,7 +4918,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1087,6 +4928,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,7 +4965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1142,6 +4989,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2174,17 +6045,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95BF81D-F35A-4340-837F-62C66C86E4D8}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="57" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
@@ -2450,7 +6321,9 @@
         <v>95</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12">
+        <v>200</v>
+      </c>
       <c r="F12" s="12">
         <v>100000</v>
       </c>
@@ -2467,7 +6340,9 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12">
+        <v>200</v>
+      </c>
       <c r="F13" s="12">
         <v>100000</v>
       </c>
@@ -2484,7 +6359,9 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="12">
+        <v>200</v>
+      </c>
       <c r="F14" s="12">
         <v>100000</v>
       </c>
@@ -2501,7 +6378,9 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12">
+        <v>200</v>
+      </c>
       <c r="F15" s="12">
         <v>100000</v>
       </c>
@@ -2522,7 +6401,9 @@
       <c r="D16" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="12">
+        <v>200</v>
+      </c>
       <c r="F16" s="12">
         <v>100000</v>
       </c>
@@ -2543,7 +6424,9 @@
       <c r="D17" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12">
+        <v>200</v>
+      </c>
       <c r="F17" s="12">
         <v>100000</v>
       </c>
@@ -2562,7 +6445,9 @@
         <v>87</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>200</v>
+      </c>
       <c r="F18" s="12">
         <v>100000</v>
       </c>
@@ -2583,7 +6468,9 @@
       <c r="D19" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12">
+        <v>200</v>
+      </c>
       <c r="F19" s="12">
         <v>100000</v>
       </c>
@@ -2604,7 +6491,9 @@
       <c r="D20" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12">
+        <v>200</v>
+      </c>
       <c r="F20" s="12">
         <v>100000</v>
       </c>
@@ -2623,7 +6512,9 @@
         <v>87</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12">
+        <v>200</v>
+      </c>
       <c r="F21" s="12">
         <v>100000</v>
       </c>
@@ -2631,7 +6522,990 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="16">
+        <v>200</v>
+      </c>
+      <c r="F22" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="16">
+        <v>200</v>
+      </c>
+      <c r="F23" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="16">
+        <v>200</v>
+      </c>
+      <c r="F24" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="16">
+        <v>200</v>
+      </c>
+      <c r="F25" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="16">
+        <v>200</v>
+      </c>
+      <c r="F26" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16">
+        <v>200</v>
+      </c>
+      <c r="F27" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16">
+        <v>200</v>
+      </c>
+      <c r="F28" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="16">
+        <v>200</v>
+      </c>
+      <c r="F29" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="16">
+        <v>200</v>
+      </c>
+      <c r="F30" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="16">
+        <v>200</v>
+      </c>
+      <c r="F31" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16">
+        <v>200</v>
+      </c>
+      <c r="F32" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16">
+        <v>200</v>
+      </c>
+      <c r="F33" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16">
+        <v>200</v>
+      </c>
+      <c r="F34" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16">
+        <v>200</v>
+      </c>
+      <c r="F35" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16">
+        <v>200</v>
+      </c>
+      <c r="F36" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16">
+        <v>200</v>
+      </c>
+      <c r="F37" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16">
+        <v>200</v>
+      </c>
+      <c r="F38" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16">
+        <v>200</v>
+      </c>
+      <c r="F39" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16">
+        <v>200</v>
+      </c>
+      <c r="F40" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16">
+        <v>200</v>
+      </c>
+      <c r="F41" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED2918E-9956-4AEF-9D0A-B5DEF5912792}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="20">
+        <v>200</v>
+      </c>
+      <c r="F2" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="20">
+        <v>200</v>
+      </c>
+      <c r="F3" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="20">
+        <v>200</v>
+      </c>
+      <c r="F4" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="20">
+        <v>200</v>
+      </c>
+      <c r="F5" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="20">
+        <v>200</v>
+      </c>
+      <c r="F6" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20">
+        <v>200</v>
+      </c>
+      <c r="F7" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="20">
+        <v>200</v>
+      </c>
+      <c r="F8" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="20">
+        <v>200</v>
+      </c>
+      <c r="F9" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="20">
+        <v>200</v>
+      </c>
+      <c r="F10" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="20">
+        <v>200</v>
+      </c>
+      <c r="F11" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="20">
+        <v>200</v>
+      </c>
+      <c r="F12" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="20">
+        <v>200</v>
+      </c>
+      <c r="F13" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="20">
+        <v>200</v>
+      </c>
+      <c r="F14" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="20">
+        <v>200</v>
+      </c>
+      <c r="F15" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="20">
+        <v>200</v>
+      </c>
+      <c r="F16" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="20">
+        <v>200</v>
+      </c>
+      <c r="F17" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="20">
+        <v>200</v>
+      </c>
+      <c r="F18" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="20">
+        <v>200</v>
+      </c>
+      <c r="F19" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="20">
+        <v>200</v>
+      </c>
+      <c r="F20" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="20">
+        <v>200</v>
+      </c>
+      <c r="F21" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="20">
+        <v>200</v>
+      </c>
+      <c r="F22" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69547F5B-F779-43F5-8460-43ABE2F682CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FC0018-5F3C-4E80-A867-763C518707DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="queryPostgresqlData" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">queryPostgresqlData!$A$1:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">queryPostgresqlData!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="252">
   <si>
     <t>description</t>
   </si>
@@ -280,37 +280,6 @@
   </si>
   <si>
     <t>Building</t>
-  </si>
-  <si>
-    <t>{
-  Building(cond:"", authInfo:"", order:"")
-  {
-    _isPartOf
-    sourceId
-    description
-    type
-    id
-    name
-    hasPart_Floor(cond:"", authInfo:"", order:"")
-    {
-      _isPartOf
-      sourceId
-      description
-      type
-      id
-      name
-      hasPart_Room(cond:"", authInfo:"", order:"")
-      {
-        _isPartOf
-        sourceId
-        description
-        type
-        id
-        name
-      }
-    }
-  }
-}</t>
   </si>
   <si>
     <t>databrain-queryPostgresqlData-test-2</t>
@@ -362,43 +331,6 @@
     </r>
   </si>
   <si>
-    <t>{
-  Floor(cond:"", authInfo:"", order:"")
-  {
-    _isPartOf
-    sourceId
-    description
-    type
-    id
-    name
-    hasPart_Room(cond:"", authInfo:"", order:"")
-    {
-      _isPartOf
-      sourceId
-      description
-      type
-      id
-      name
-      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
-      {
-        location
-        id
-        equipment
-        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
-        {
-          _isPartOf
-          sourceId
-          description
-          type
-          id
-          name
-        }
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
     <t>databrain-queryPostgresqlData-test-5</t>
   </si>
   <si>
@@ -634,152 +566,6 @@
       <t xml:space="preserve">
 获取PM2.5浓度</t>
     </r>
-  </si>
-  <si>
-    <t>{
-  Building(cond:"{id:{_eq:\"d68ea3cf6be94281a785338afaa9205d\"}}", authInfo:"", order:"")
-  {
-    _isPartOf
-    sourceId
-    description
-    type
-    id
-    name
-    hasPart_Floor(cond:"", authInfo:"", order:"")
-    {
-      _isPartOf
-      sourceId
-      description
-      type
-      id
-      name
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Floor(cond:"{id:{_eq:\"e8130762852a48cfafb5546e4e8a7413\"}}", authInfo:"", order:"")
-  {
-    _isPartOf
-    sourceId
-    description
-    type
-    id
-    name
-    hasPart_Room(cond:"", authInfo:"", order:"")
-    {
-      _isPartOf
-      sourceId
-      description
-      type
-      id
-      name
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Floor(cond:"{id:{_eq:\"e8130762852a48cfafb5546e4e8a7413\"}}", authInfo:"", order:"")
-  {
-    _isPartOf
-    sourceId
-    description
-    type
-    id
-    name
-    hasPart_Room(cond:"", authInfo:"", order:"")
-    {
-      _isPartOf
-      sourceId
-      description
-      type
-      id
-      name
-      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
-      {
-        location
-        id
-        equipment
-        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
-        {
-          _isPartOf
-          sourceId
-          description
-          type
-          id
-          name
-        }
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Room(cond:"{id:{_eq:\"96042959aad644d5b993d1373461bdd0\"}}", authInfo:"", order:"")
-  {
-    _isPartOf
-    sourceId
-    description
-    type
-    id
-    name
-    isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
-    {
-      location
-      id
-      equipment
-      isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
-      {
-        _isPartOf
-        sourceId
-        description
-        type
-        id
-        name
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Floor(cond:"", authInfo:"", order:"")
-  {
-    _isPartOf
-    sourceId
-    description
-    type
-    id
-    name
-    hasPart_Room(cond:"", authInfo:"", order:"")
-    {
-      _isPartOf
-      sourceId
-      description
-      type
-      id
-      name
-      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
-      {
-        location
-        id
-        equipment
-        isEquipmentLocationOf_Equipment(cond:"{name:{_like:\"SS_Mock_B1.F2.RM13.CT2%\"}}", authInfo:"", order:"")
-        {
-          _isPartOf
-          sourceId
-          description
-          type
-          id
-          name
-        }
-      }
-    }
-  }
-}</t>
   </si>
   <si>
     <t>{
@@ -1042,340 +828,13 @@
 }</t>
   </si>
   <si>
-    <t>获取楼宇同步数据列表</t>
-  </si>
-  <si>
-    <t>{
-  Building(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    id
-    _isPartOf
-    type
-  }
-}</t>
-  </si>
-  <si>
-    <t>通过楼宇获取楼层列表</t>
-  </si>
-  <si>
-    <t>根据楼层获取区域同步数据</t>
-  </si>
-  <si>
-    <t>{
-  Building(cond:"{sourceId:{_eq:\"1\"}}", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    id
-    _isPartOf
-    type
-    hasPart_Floor(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      id
-      _isPartOf
-      type
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Floor(cond:"{sourceId:{_eq:\"1\"}}", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    id
-    _isPartOf
-    type
-    hasPart_Room(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      id
-      _isPartOf
-      type
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>通过区域code获取设备列表
-Room-&gt;EquipmentLocation-&gt;Equipment-&gt;Point-&gt;Sensor</t>
-  </si>
-  <si>
-    <t>{
-  Room(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    id
-    _isPartOf
-    type
-    isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
-    {
-      equipment
-      location
-      isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
-      {
-        sourceId
-        name
-        description
-        id
-        _isPartOf
-        type
-        hasPoint_Point(cond:"", authInfo:"", order:"")
-        {
-          sourceId
-          sourceSystem
-          name
-          description
-          id
-          _isPointOf
-          type
-          hasSubClass_Sensor(cond:"", authInfo:"", order:"")
-          {
-            sourceId
-            sourceSystem
-            name
-            description
-            id
-            _isPointOf
-            type
-          }
-        }
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>通过楼层获取设备列表
-Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment-&gt;Point-&gt;Sensor</t>
-  </si>
-  <si>
-    <t>{
-  Floor(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    id
-    _isPartOf
-    type
-    hasPart_Room(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      id
-      _isPartOf
-      type
-      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
-      {
-        equipment
-        location
-        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
-        {
-          sourceId
-          name
-          description
-          id
-          _isPartOf
-          type
-          hasPoint_Point(cond:"", authInfo:"", order:"")
-          {
-            sourceId
-            sourceSystem
-            name
-            description
-            id
-            _isPointOf
-            type
-            hasSubClass_Sensor(cond:"", authInfo:"", order:"")
-            {
-              sourceId
-              sourceSystem
-              name
-              description
-              id
-              _isPointOf
-              type
-            }
-          }
-        }
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
     <t>获取会议室模式</t>
   </si>
   <si>
-    <t>获取设备实时数据</t>
-  </si>
-  <si>
-    <t>获取实时/时间段内指定占用传感器数据
-Equipment(device_id in [])-&gt;Point-&gt;Sensor-&gt;SensorData(ctime)</t>
-  </si>
-  <si>
     <t>Equipment</t>
   </si>
   <si>
-    <t>获取每小时温度传感器数值</t>
-  </si>
-  <si>
-    <t>{
-  Equipment(cond:"{device_id: {_in: [\"\"]}}", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    id
-    _isPartOf
-    type
-    hasPoint_Point(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      sourceSystem
-      name
-      description
-      id
-      _isPointOf
-      type
-      hasSubClass_Sensor(cond:"", authInfo:"", order:"")
-      {
-        sourceId
-        sourceSystem
-        name
-        description
-        id
-        _isPointOf
-        type
-        has_SensorData(cond:"{captureTime:{_gte:\"2022-03-20 03:48:28\", _lte:\"2022-04-20 03:48:28\"}}", authInfo:"", order:"")
-        {
-          ctime
-          sourceSystem
-          id
-          value
-          sensorId
-          type
-        }
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Sensor(cond:"{type: {_eq: \"CO2_Sensor\"}}", authInfo:"", order:"")
-  {
-    sourceId
-    sourceSystem
-    name
-    description
-    id
-    _isPointOf
-    type
-    has_SensorData(cond:"{captureTime:{_gte:\"2022-04-20 02:48:29\", _lte:\"2022-04-20 03:48:28\"}}", authInfo:"", order:"")
-    {
-      captureTime
-      sourceSystem
-      id
-      value
-      sensorId
-      type
-    }
-  }
-}</t>
-  </si>
-  <si>
     <t>Sensor</t>
-  </si>
-  <si>
-    <t>获取每小时CO2传感器数值</t>
-  </si>
-  <si>
-    <t>获取每小时PM2.5传感器数值</t>
-  </si>
-  <si>
-    <t>获取每小时TVOC传感器数值</t>
-  </si>
-  <si>
-    <t>获取每小时湿度传感器数值</t>
-  </si>
-  <si>
-    <t>获取设备能耗信息</t>
   </si>
   <si>
     <t>反控风速</t>
@@ -1411,9 +870,6 @@
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>21</t>
   </si>
   <si>
     <t>{
@@ -4877,6 +4333,833 @@
     }
   }
 }</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-21</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-22</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-23</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-24</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-25</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-26</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-27</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-28</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-29</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-30</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-31</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-32</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-33</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-34</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-35</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-36</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-37</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-38</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-39</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-40</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-41</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      id
+      _isPartOf
+      type
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        name
+        description
+        equipment
+        _isPartOf
+        location
+        type
+        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+        {
+          sourceId
+          name
+          description
+          id
+          _isPartOf
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    hasPart_Floor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      id
+      _isPartOf
+      type
+      hasPart_Room(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        name
+        description
+        id
+        _isPartOf
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"{id:{_eq:\"63737ed7483548ee9cef9c0639ffe515\"}}", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    hasPart_Floor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      id
+      _isPartOf
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"b241684da4544ff1b5647dadbd8a9f74\"}}", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      id
+      _isPartOf
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"b241684da4544ff1b5647dadbd8a9f74\"}}", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      id
+      _isPartOf
+      type
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        name
+        description
+        equipment
+        _isPartOf
+        location
+        type
+        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+        {
+          sourceId
+          name
+          description
+          id
+          _isPartOf
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Room(cond:"{id:{_eq:\"c5bc86b0cb2046feaee237fe0f18e8f7\"}}", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      equipment
+      _isPartOf
+      location
+      type
+      isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        name
+        description
+        id
+        _isPartOf
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    name
+    description
+    id
+    _isPartOf
+    type
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      id
+      _isPartOf
+      type
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        name
+        description
+        equipment
+        _isPartOf
+        location
+        type
+        isEquipmentLocationOf_Equipment(cond:"{name:{_like:\"%AS_7130%\"}}", authInfo:"", order:"")
+        {
+          sourceId
+          name
+          description
+          id
+          _isPartOf
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"{id:{_eq:\"63737ed7483548ee9cef9c0639ffe515\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPart_Floor(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"b241684da4544ff1b5647dadbd8a9f74\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"b241684da4544ff1b5647dadbd8a9f74\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        equipment
+        location
+        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+        {
+          name
+          description
+          id
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{id: {_in: [\"e3bd355a01e74cdab5001e074d0ee211\"]}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T11:10:00\"}}", authInfo:"", order:"")
+      {
+        captureTime
+        pointId
+        value
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{id: {_in: [\"e3bd355a01e74cdab5001e074d0ee211\"]}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:40:00\",_lte:\"2022-04-26T11:50:00\"}}", authInfo:"", order:"")
+      {
+        captureTime
+        pointId
+        value
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取设备实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取最近10分钟数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Equipment(id in [])-&gt;Point-&gt;Timeseries(captureTime)</t>
+    </r>
+  </si>
+  <si>
+    <t>获取设备时间段内指定占用传感器数据
+Equipment(id in [])-&gt;Point-&gt;Timeseries(captureTime)</t>
+  </si>
+  <si>
+    <t>获取每小时温度传感器数值
+Point(type='Temperature_Sensor')-&gt;Timeseries(captureTime)</t>
+  </si>
+  <si>
+    <t>获取每小时TVOC传感器数值
+Point(type='TVOC_Sensor')-&gt;Timeseries(captureTime)</t>
+  </si>
+  <si>
+    <t>获取每小时湿度传感器数值
+Point(type='Humidity_Sensor')-&gt;Timeseries(captureTime)</t>
+  </si>
+  <si>
+    <t>获取每小时能耗传感器数值
+Point(type='Power_Sensor')-&gt;Timeseries(captureTime)</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"{type: {_eq: \"Power_Sensor\"}}", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T11:10:00\"}}", authInfo:"", order:"")
+      {
+        captureTime
+        pointId
+        value
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>获取每小时亮度传感器数值
+Point(type='PM25_Sensor')-&gt;Timeseries(captureTime)</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Temperature_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T12:00:00\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      pointId
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"CO2_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T12:00:00\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      pointId
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Luminance_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T12:00:00\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      pointId
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"TVOC_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T12:00:00\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      pointId
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Humidity_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T12:00:00\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      pointId
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Power_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T12:00:00\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      pointId
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>通过区域code获取设备列表
+Room(id=)-&gt;EquipmentLocation</t>
+  </si>
+  <si>
+    <t>{
+  Room(cond:"{id:{_eq:\"c5bc86b0cb2046feaee237fe0f18e8f7\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      equipment
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>通过楼层获取设备列表
+Floor(id=)-&gt;Room-&gt;EquipmentLocation</t>
+  </si>
+  <si>
+    <t>获取会议室模式
+Room-&gt;EquipmentLocation-&gt;Equipment(id=)-&gt;Point-&gt;Mode_Command-&gt;Mode_Option</t>
+  </si>
+  <si>
+    <t>{
+  Room(cond:"", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      equipment
+      type
+      isEquipmentLocationOf_Equipment(cond:"{id:{_eq:\"29b68e62ac3046d39434f06592c42eb8\"}}", authInfo:"", order:"")
+      {
+        name
+        description
+        id
+        type
+        hasPoint_Point(cond:"", authInfo:"", order:"")
+        {
+          name
+          description
+          id
+          type
+          hasSubClass_Mode_Command(cond:"", authInfo:"", order:"")
+          {
+            floorId
+            spaceId
+            name
+            description
+            id
+            type
+            hasAssociatedTag_Mode_Option(cond:"", authInfo:"", order:"")
+            {
+              objectorproperty_id
+              descriptor
+              id
+              value
+            }
+          }
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取每小时CO2传感器数值
+Point(type='CO2_Sensor')-&gt;Timeseries(captureTime)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议不用Floor，直接用point id</t>
+    </r>
+  </si>
+  <si>
+    <t>获取设备能耗信息
+Equipment(id)-&gt;Point(type='Power_Sensor')-&gt;Timeseries(captureTime)</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mode_Command_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>update 会议室模式
+Mode_Command</t>
+  </si>
+  <si>
+    <t>update 灯
+Luminance_Setpoint</t>
+  </si>
+  <si>
+    <t>update 窗帘开合度
+Position_Command</t>
+  </si>
+  <si>
+    <t>update空调风速
+Speed_Setpoint</t>
+  </si>
+  <si>
+    <t>Update空调温度
+Temperature_Setpoint</t>
+  </si>
+  <si>
+    <t>Update 空调模式
+Mode_Command</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Luminance_Setpoint_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Position_Command_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Speed_Setpoint_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Temperature_Setpoint_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>rspCodeOfDatasource</t>
+  </si>
+  <si>
+    <t>dataBrainRehearsal_decigoccConnector</t>
+  </si>
+  <si>
+    <t>rspMessageOfDatasource</t>
+  </si>
+  <si>
+    <t>Mode_Command</t>
+  </si>
+  <si>
+    <t>Luminance_Setpoint</t>
+  </si>
+  <si>
+    <t>Position_Command</t>
+  </si>
+  <si>
+    <t>Speed_Setpoint</t>
+  </si>
+  <si>
+    <t>Temperature_Setpoint</t>
   </si>
 </sst>
 </file>
@@ -4965,7 +5248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4991,9 +5274,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5001,18 +5281,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6045,901 +6313,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95BF81D-F35A-4340-837F-62C66C86E4D8}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="57" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="12">
-        <v>200</v>
-      </c>
-      <c r="F2" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="12">
-        <v>200</v>
-      </c>
-      <c r="F3" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="12">
-        <v>200</v>
-      </c>
-      <c r="F4" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="12">
-        <v>200</v>
-      </c>
-      <c r="F5" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="12">
-        <v>200</v>
-      </c>
-      <c r="F6" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="12">
-        <v>200</v>
-      </c>
-      <c r="F7" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="12">
-        <v>200</v>
-      </c>
-      <c r="F8" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12">
-        <v>200</v>
-      </c>
-      <c r="F9" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12">
-        <v>200</v>
-      </c>
-      <c r="F10" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12">
-        <v>200</v>
-      </c>
-      <c r="F11" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12">
-        <v>200</v>
-      </c>
-      <c r="F12" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12">
-        <v>200</v>
-      </c>
-      <c r="F13" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12">
-        <v>200</v>
-      </c>
-      <c r="F14" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12">
-        <v>200</v>
-      </c>
-      <c r="F15" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="12">
-        <v>200</v>
-      </c>
-      <c r="F16" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="12">
-        <v>200</v>
-      </c>
-      <c r="F17" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12">
-        <v>200</v>
-      </c>
-      <c r="F18" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="12">
-        <v>200</v>
-      </c>
-      <c r="F19" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="12">
-        <v>200</v>
-      </c>
-      <c r="F20" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12">
-        <v>200</v>
-      </c>
-      <c r="F21" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="16">
-        <v>200</v>
-      </c>
-      <c r="F22" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="16">
-        <v>200</v>
-      </c>
-      <c r="F23" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="16">
-        <v>200</v>
-      </c>
-      <c r="F24" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="16">
-        <v>200</v>
-      </c>
-      <c r="F25" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="16">
-        <v>200</v>
-      </c>
-      <c r="F26" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16">
-        <v>200</v>
-      </c>
-      <c r="F27" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16">
-        <v>200</v>
-      </c>
-      <c r="F28" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="16">
-        <v>200</v>
-      </c>
-      <c r="F29" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="16">
-        <v>200</v>
-      </c>
-      <c r="F30" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="16">
-        <v>200</v>
-      </c>
-      <c r="F31" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16">
-        <v>200</v>
-      </c>
-      <c r="F32" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16">
-        <v>200</v>
-      </c>
-      <c r="F33" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16">
-        <v>200</v>
-      </c>
-      <c r="F34" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16">
-        <v>200</v>
-      </c>
-      <c r="F35" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16">
-        <v>200</v>
-      </c>
-      <c r="F36" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16">
-        <v>200</v>
-      </c>
-      <c r="F37" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16">
-        <v>200</v>
-      </c>
-      <c r="F38" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16">
-        <v>200</v>
-      </c>
-      <c r="F39" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16">
-        <v>200</v>
-      </c>
-      <c r="F40" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16">
-        <v>200</v>
-      </c>
-      <c r="F41" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED2918E-9956-4AEF-9D0A-B5DEF5912792}">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="9" customWidth="1"/>
     <col min="2" max="2" width="33.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.88671875" style="9" bestFit="1" customWidth="1"/>
@@ -6973,535 +6355,1578 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="12">
+        <v>200</v>
+      </c>
+      <c r="F2" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="12">
+        <v>200</v>
+      </c>
+      <c r="F3" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="12">
+        <v>200</v>
+      </c>
+      <c r="F4" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="12">
+        <v>200</v>
+      </c>
+      <c r="F5" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="12">
+        <v>200</v>
+      </c>
+      <c r="F6" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="12">
+        <v>200</v>
+      </c>
+      <c r="F7" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="12">
+        <v>200</v>
+      </c>
+      <c r="F8" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12">
+        <v>200</v>
+      </c>
+      <c r="F9" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12">
+        <v>200</v>
+      </c>
+      <c r="F10" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12">
+        <v>200</v>
+      </c>
+      <c r="F11" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12">
+        <v>200</v>
+      </c>
+      <c r="F12" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12">
+        <v>200</v>
+      </c>
+      <c r="F13" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12">
+        <v>200</v>
+      </c>
+      <c r="F14" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12">
+        <v>200</v>
+      </c>
+      <c r="F15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="12">
+        <v>200</v>
+      </c>
+      <c r="F16" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="12">
+        <v>200</v>
+      </c>
+      <c r="F17" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12">
+        <v>200</v>
+      </c>
+      <c r="F18" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="12">
+        <v>200</v>
+      </c>
+      <c r="F19" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="12">
+        <v>200</v>
+      </c>
+      <c r="F20" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="12">
+        <v>200</v>
+      </c>
+      <c r="F21" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="15">
+        <v>200</v>
+      </c>
+      <c r="F22" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="15">
+        <v>200</v>
+      </c>
+      <c r="F23" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="15">
+        <v>200</v>
+      </c>
+      <c r="F24" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="B25" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="15">
+        <v>200</v>
+      </c>
+      <c r="F25" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="15">
+        <v>200</v>
+      </c>
+      <c r="F26" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15">
+        <v>200</v>
+      </c>
+      <c r="F27" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="15">
+        <v>200</v>
+      </c>
+      <c r="F28" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="15">
+        <v>200</v>
+      </c>
+      <c r="F29" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="15">
+        <v>200</v>
+      </c>
+      <c r="F30" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="15">
+        <v>200</v>
+      </c>
+      <c r="F31" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="15">
+        <v>200</v>
+      </c>
+      <c r="F32" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="15">
+        <v>200</v>
+      </c>
+      <c r="F33" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="15">
+        <v>200</v>
+      </c>
+      <c r="F34" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="15">
+        <v>200</v>
+      </c>
+      <c r="F35" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="15">
+        <v>200</v>
+      </c>
+      <c r="F36" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="B37" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="15">
+        <v>200</v>
+      </c>
+      <c r="F37" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="15">
+        <v>200</v>
+      </c>
+      <c r="F38" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="15">
+        <v>200</v>
+      </c>
+      <c r="F39" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="15">
+        <v>200</v>
+      </c>
+      <c r="F40" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="15">
+        <v>200</v>
+      </c>
+      <c r="F41" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="15">
+        <v>200</v>
+      </c>
+      <c r="F42" s="15">
+        <v>100000</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED2918E-9956-4AEF-9D0A-B5DEF5912792}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="93.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="20">
-        <v>200</v>
-      </c>
-      <c r="F2" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="D2" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="12">
+        <v>200</v>
+      </c>
+      <c r="F2" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="20">
-        <v>200</v>
-      </c>
-      <c r="F3" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="D3" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="12">
+        <v>200</v>
+      </c>
+      <c r="F3" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="12">
+        <v>200</v>
+      </c>
+      <c r="F4" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="20">
-        <v>200</v>
-      </c>
-      <c r="F4" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="20">
-        <v>200</v>
-      </c>
-      <c r="F5" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="20">
-        <v>200</v>
-      </c>
-      <c r="F6" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20">
-        <v>200</v>
-      </c>
-      <c r="F7" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="B5" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="12">
+        <v>200</v>
+      </c>
+      <c r="F5" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="12">
+        <v>200</v>
+      </c>
+      <c r="F6" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="12">
+        <v>200</v>
+      </c>
+      <c r="F7" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="12">
+        <v>200</v>
+      </c>
+      <c r="F8" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="12">
+        <v>200</v>
+      </c>
+      <c r="F9" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="12">
+        <v>200</v>
+      </c>
+      <c r="F10" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="12">
+        <v>200</v>
+      </c>
+      <c r="F11" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="12">
+        <v>200</v>
+      </c>
+      <c r="F12" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="12">
+        <v>200</v>
+      </c>
+      <c r="F13" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="20">
-        <v>200</v>
-      </c>
-      <c r="F8" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="20">
-        <v>200</v>
-      </c>
-      <c r="F9" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="20">
-        <v>200</v>
-      </c>
-      <c r="F10" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="20">
-        <v>200</v>
-      </c>
-      <c r="F11" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="E14" s="12">
+        <v>200</v>
+      </c>
+      <c r="F14" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="20">
-        <v>200</v>
-      </c>
-      <c r="F12" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="C15" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="12">
+        <v>200</v>
+      </c>
+      <c r="F15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="20">
-        <v>200</v>
-      </c>
-      <c r="F13" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="20">
-        <v>200</v>
-      </c>
-      <c r="F14" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="E15" s="20">
-        <v>200</v>
-      </c>
-      <c r="F15" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="20">
-        <v>200</v>
-      </c>
-      <c r="F16" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="20">
-        <v>200</v>
-      </c>
-      <c r="F17" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="20">
-        <v>200</v>
-      </c>
-      <c r="F18" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="20">
-        <v>200</v>
-      </c>
-      <c r="F19" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="18" t="s">
+      <c r="E16" s="12">
+        <v>200</v>
+      </c>
+      <c r="F16" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="12">
+        <v>200</v>
+      </c>
+      <c r="F17" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="12">
+        <v>200</v>
+      </c>
+      <c r="F18" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="12">
+        <v>200</v>
+      </c>
+      <c r="F19" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="12">
+        <v>200</v>
+      </c>
+      <c r="F20" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="12">
+        <v>200</v>
+      </c>
+      <c r="F21" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="20">
-        <v>200</v>
-      </c>
-      <c r="F20" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="20">
-        <v>200</v>
-      </c>
-      <c r="F21" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="20">
-        <v>200</v>
-      </c>
-      <c r="F22" s="20">
-        <v>100000</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>225</v>
+      <c r="B22" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="12">
+        <v>200</v>
+      </c>
+      <c r="F22" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FC0018-5F3C-4E80-A867-763C518707DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE8C280-A28F-4E0C-8F36-3DE84021C9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
     <sheet name="queryPostgresqlData-backup" sheetId="4" r:id="rId3"/>
-    <sheet name="queryPostgresqlData" sheetId="5" r:id="rId4"/>
+    <sheet name="verifySmartSpaceFunction" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">queryPostgresqlData!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">verifySmartSpaceFunction!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -7333,8 +7333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED2918E-9956-4AEF-9D0A-B5DEF5912792}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE8C280-A28F-4E0C-8F36-3DE84021C9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C37F3F0-9E9B-42E8-8E18-CC4CB70B65C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="316">
   <si>
     <t>description</t>
   </si>
@@ -4664,86 +4664,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-  Floor(cond:"{id:{_eq:\"b241684da4544ff1b5647dadbd8a9f74\"}}", authInfo:"", order:"")
-  {
-    name
-    description
-    id
-    type
-    hasPart_Room(cond:"", authInfo:"", order:"")
-    {
-      name
-      description
-      id
-      type
-      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
-      {
-        equipment
-        location
-        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
-        {
-          name
-          description
-          id
-          type
-        }
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Equipment(cond:"{id: {_in: [\"e3bd355a01e74cdab5001e074d0ee211\"]}}", authInfo:"", order:"")
-  {
-    name
-    description
-    id
-    type
-    hasPoint_Point(cond:"", authInfo:"", order:"")
-    {
-      name
-      description
-      id
-      type
-      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T11:10:00\"}}", authInfo:"", order:"")
-      {
-        captureTime
-        pointId
-        value
-        type
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Equipment(cond:"{id: {_in: [\"e3bd355a01e74cdab5001e074d0ee211\"]}}", authInfo:"", order:"")
-  {
-    name
-    description
-    id
-    type
-    hasPoint_Point(cond:"", authInfo:"", order:"")
-    {
-      name
-      description
-      id
-      type
-      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:40:00\",_lte:\"2022-04-26T11:50:00\"}}", authInfo:"", order:"")
-      {
-        captureTime
-        pointId
-        value
-        type
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">获取设备实时数据
 </t>
@@ -4790,6 +4710,457 @@
 Point(type='Power_Sensor')-&gt;Timeseries(captureTime)</t>
   </si>
   <si>
+    <t>获取每小时亮度传感器数值
+Point(type='PM25_Sensor')-&gt;Timeseries(captureTime)</t>
+  </si>
+  <si>
+    <t>通过区域code获取设备列表
+Room(id=)-&gt;EquipmentLocation</t>
+  </si>
+  <si>
+    <t>{
+  Room(cond:"{id:{_eq:\"c5bc86b0cb2046feaee237fe0f18e8f7\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      equipment
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>通过楼层获取设备列表
+Floor(id=)-&gt;Room-&gt;EquipmentLocation</t>
+  </si>
+  <si>
+    <t>获取会议室模式
+Room-&gt;EquipmentLocation-&gt;Equipment(id=)-&gt;Point-&gt;Mode_Command-&gt;Mode_Option</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取每小时CO2传感器数值
+Point(type='CO2_Sensor')-&gt;Timeseries(captureTime)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议不用Floor，直接用point id</t>
+    </r>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mode_Command_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>update 会议室模式
+Mode_Command</t>
+  </si>
+  <si>
+    <t>update 灯
+Luminance_Setpoint</t>
+  </si>
+  <si>
+    <t>update 窗帘开合度
+Position_Command</t>
+  </si>
+  <si>
+    <t>update空调风速
+Speed_Setpoint</t>
+  </si>
+  <si>
+    <t>Update空调温度
+Temperature_Setpoint</t>
+  </si>
+  <si>
+    <t>Update 空调模式
+Mode_Command</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Luminance_Setpoint_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Position_Command_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Speed_Setpoint_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Temperature_Setpoint_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>rspCodeOfDatasource</t>
+  </si>
+  <si>
+    <t>rspMessageOfDatasource</t>
+  </si>
+  <si>
+    <t>Mode_Command</t>
+  </si>
+  <si>
+    <t>Luminance_Setpoint</t>
+  </si>
+  <si>
+    <t>Position_Command</t>
+  </si>
+  <si>
+    <t>Speed_Setpoint</t>
+  </si>
+  <si>
+    <t>Temperature_Setpoint</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-1</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-2</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-3</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-4</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-5</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-6</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-7</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-8</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-9</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-10</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-11</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-12</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-13</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-14</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-15</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-16</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-17</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-18</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-19</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-20</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-21</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"b241684da4544ff1b5647dadbd8a9f74\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        name
+        description
+        equipment
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>entities</t>
+  </si>
+  <si>
+    <t>Building-&gt;hasPart_Floor</t>
+  </si>
+  <si>
+    <t>Room-&gt;isLocationOf_EquipmentLocation</t>
+  </si>
+  <si>
+    <t>Floor-&gt;hasPart_Room</t>
+  </si>
+  <si>
+    <t>Floor-&gt;hasPart_Room-&gt;isLocationOf_EquipmentLocation</t>
+  </si>
+  <si>
+    <t>Room-&gt;isLocationOf_EquipmentLocation-&gt;isEquipmentLocationOf_Equipment-&gt;hasPoint_Point-&gt;hasSubClass_Mode_Command-&gt;hasAssociatedTag_Mode_Option</t>
+  </si>
+  <si>
+    <t>Equipment-&gt;hasPoint_Point-&gt;hasTimeseries_Timeseries</t>
+  </si>
+  <si>
+    <t>Point-&gt;hasTimeseries_Timeseries</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"CO2_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-13T11:00:00\",_lte:\"2022-05-13T12:00:00\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      pointId
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Temperature_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-13T11:00:00\",_lte:\"2022-05-13T12:00:00\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      pointId
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Luminance_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-13T11:00:00\",_lte:\"2022-05-13T12:00:00\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      pointId
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"TVOC_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-13T11:00:00\",_lte:\"2022-05-13T12:00:00\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      pointId
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Humidity_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-13T11:00:00\",_lte:\"2022-05-13T12:00:00\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      pointId
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{id: {_in: [\"e3bd355a01e74cdab5001e074d0ee211\"]}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T11:10:00\"}}", authInfo:"", order:"")
+      {
+        captureTime
+        pointId
+        value
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{id: {_in: [\"e3bd355a01e74cdab5001e074d0ee211\"]}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:40:00\",_lte:\"2022-04-26T11:50:00\"}}", authInfo:"", order:"")
+      {
+        captureTime
+        pointId
+        value
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Power_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T12:00:00\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      pointId
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
     <t>{
   Equipment(cond:"", authInfo:"", order:"")
   {
@@ -4815,21 +5186,115 @@
 }</t>
   </si>
   <si>
-    <t>Point</t>
-  </si>
-  <si>
-    <t>获取每小时亮度传感器数值
-Point(type='PM25_Sensor')-&gt;Timeseries(captureTime)</t>
+    <t>databrain-smartspace-test-22</t>
+  </si>
+  <si>
+    <t>获取设备能耗信息
+Equipment-&gt;Point(type='Power_Sensor')-&gt;Timeseries(captureTime)</t>
+  </si>
+  <si>
+    <t>通过区域获取到占用传感器的列表
+Room(id=)-&gt;PointLocation(type='Occupancy_Sensor')</t>
+  </si>
+  <si>
+    <t>Room-&gt;isLocationOf_PointLocation</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-23</t>
   </si>
   <si>
     <t>{
-  Point(cond:"{type: {_eq: \"Temperature_Sensor\"}}", authInfo:"", order:"")
+  Equipment(cond:"{id: {_in: [\"e3bd355a01e74cdab5001e074d0ee211\"]}}", authInfo:"", order:"")
   {
     name
     description
     id
     type
-    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T12:00:00\"}}", authInfo:"", order:"")
+    hasPoint_Point(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      sourceId
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>根据设备id查询point的sourceid，然后反控
+Equipment(id in [])-&gt;Point</t>
+  </si>
+  <si>
+    <t>Equipment-&gt;hasPoint_Point</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-24</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"b241684da4544ff1b5647dadbd8a9f74\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      type
+      isPointLocationOf_Point(cond:"{type: {_in: [\"Occupancy_Sensor\",\"Occupancy_Status\"]}}", authInfo:"", order:"")
+      {
+        name
+        description
+        id
+        type
+      }
+    }
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        name
+        description
+        type
+        isPointLocationOf_Point(cond:"{type: {_in: [\"Occupancy_Sensor\",\"Occupancy_Status\"]}}", authInfo:"", order:"")
+        {
+          name
+          description
+          id
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>通过Floor和Room查询point
+Floor(id=)-&gt;PointLocation-&gt;Point(type in [])
+          -&gt;Room-&gt;PointLocation-&gt;Point(type in [])</t>
+  </si>
+  <si>
+    <t>Floor-&gt;hasPart_Room-&gt;isLocationOf_PointLocation-&gt;isPointLocationOf_Point</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-25</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"PM25_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-13T11:00:00\",_lte:\"2022-05-13T12:00:00\"}}", authInfo:"", order:"")
     {
       captureTime
       pointId
@@ -4840,14 +5305,38 @@
 }</t>
   </si>
   <si>
+    <t>databrain-smartspace-test-26</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-27</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-28</t>
+  </si>
+  <si>
+    <t>查询设备下面挂的point
+Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment-&gt;Point
+     -&gt;EquipmentLocation-&gt;Equipment-&gt;Point</t>
+  </si>
+  <si>
+    <t>Floor-&gt;hasPart_Room-&gt;isLocationOf_EquipmentLocation-&gt;isEquipmentLocationOf_Equipment-&gt;hasPoint_Point</t>
+  </si>
+  <si>
+    <t>Floor-&gt;isLocationOf_EquipmentLocation-&gt;isEquipmentLocationOf_Equipment-&gt;hasPoint_Point</t>
+  </si>
+  <si>
+    <t>获取每小时PM2.5传感器数值
+Point(type='PM25_Sensor')-&gt;Timeseries(captureTime)</t>
+  </si>
+  <si>
     <t>{
-  Point(cond:"{type: {_eq: \"CO2_Sensor\"}}", authInfo:"", order:"")
+  Point(cond:"{type: {_eq: \"Occupancy_Sensor\"}}", authInfo:"", order:"")
   {
     name
     description
     id
     type
-    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T12:00:00\"}}", authInfo:"", order:"")
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-13T11:00:00\",_lte:\"2022-05-13T12:00:00\"}}", authInfo:"", order:"")
     {
       captureTime
       pointId
@@ -4858,80 +5347,35 @@
 }</t>
   </si>
   <si>
-    <t>{
-  Point(cond:"{type: {_eq: \"Luminance_Sensor\"}}", authInfo:"", order:"")
-  {
-    name
-    description
-    id
-    type
-    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T12:00:00\"}}", authInfo:"", order:"")
-    {
-      captureTime
-      pointId
-      value
-      type
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Point(cond:"{type: {_eq: \"TVOC_Sensor\"}}", authInfo:"", order:"")
-  {
-    name
-    description
-    id
-    type
-    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T12:00:00\"}}", authInfo:"", order:"")
-    {
-      captureTime
-      pointId
-      value
-      type
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Point(cond:"{type: {_eq: \"Humidity_Sensor\"}}", authInfo:"", order:"")
-  {
-    name
-    description
-    id
-    type
-    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T12:00:00\"}}", authInfo:"", order:"")
-    {
-      captureTime
-      pointId
-      value
-      type
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Point(cond:"{type: {_eq: \"Power_Sensor\"}}", authInfo:"", order:"")
-  {
-    name
-    description
-    id
-    type
-    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-04-26T11:00:00\",_lte:\"2022-04-26T12:00:00\"}}", authInfo:"", order:"")
-    {
-      captureTime
-      pointId
-      value
-      type
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>通过区域code获取设备列表
-Room(id=)-&gt;EquipmentLocation</t>
+    <t>databrain-smartspace-test-29</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-30</t>
+  </si>
+  <si>
+    <t>查询风速option
+Room-&gt;EquipmentLocation-&gt;Equipment(id=)-&gt;Point-&gt;Speed_Setpoint-&gt;Mode_Option</t>
+  </si>
+  <si>
+    <t>Room-&gt;isLocationOf_EquipmentLocation-&gt;isEquipmentLocationOf_Equipment-&gt;hasPoint_Point-&gt;hasSubClass_Speed_Setpoint-&gt;hasAssociatedTag_Mode_Option</t>
+  </si>
+  <si>
+    <t>获取每小时占位传感器数值
+Point(type='Occupancy_Sensor')-&gt;Timeseries(captureTime)</t>
+  </si>
+  <si>
+    <t>通过楼层获取到占用传感器的列表
+Floor(id=)-&gt;PointLocation(type='Occupancy_Sensor')</t>
+  </si>
+  <si>
+    <t>Floor-&gt;isLocationOf_PointLocation</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-31</t>
+  </si>
+  <si>
+    <t>获取会议室当前模式
+Point(type=)-&gt;Timeseries(captureTime)</t>
   </si>
   <si>
     <t>{
@@ -4941,23 +5385,89 @@
     description
     id
     type
+    isLocationOf_PointLocation(cond:"{type:{_eq:\"Occupancy_Sensor\"}}", authInfo:"", order:"")
+    {
+        name
+        description
+        type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"b241684da4544ff1b5647dadbd8a9f74\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    isLocationOf_PointLocation(cond:"{type:{_eq:\"Occupancy_Sensor\"}}", authInfo:"", order:"")
+    {
+      name
+      description
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        name
+        description
+        type
+        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+        {
+          name
+          description
+          id
+          type
+          hasPoint_Point(cond:"", authInfo:"", order:"")
+          {
+            name
+            description
+            id
+            type
+          }
+        }
+      }
+    }
     isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
     {
       name
       description
-      equipment
       type
+      isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+      {
+        name
+        description
+        id
+        type
+        hasPoint_Point(cond:"", authInfo:"", order:"")
+        {
+          name
+          description
+          id
+          type
+        }
+      }
     }
   }
 }</t>
-  </si>
-  <si>
-    <t>通过楼层获取设备列表
-Floor(id=)-&gt;Room-&gt;EquipmentLocation</t>
-  </si>
-  <si>
-    <t>获取会议室模式
-Room-&gt;EquipmentLocation-&gt;Equipment(id=)-&gt;Point-&gt;Mode_Command-&gt;Mode_Option</t>
   </si>
   <si>
     <t>{
@@ -4987,8 +5497,6 @@
           type
           hasSubClass_Mode_Command(cond:"", authInfo:"", order:"")
           {
-            floorId
-            spaceId
             name
             description
             id
@@ -5008,25 +5516,71 @@
 }</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">获取每小时CO2传感器数值
-Point(type='CO2_Sensor')-&gt;Timeseries(captureTime)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建议不用Floor，直接用point id</t>
-    </r>
-  </si>
-  <si>
-    <t>获取设备能耗信息
-Equipment(id)-&gt;Point(type='Power_Sensor')-&gt;Timeseries(captureTime)</t>
+    <t>{
+  Room(cond:"", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      equipment
+      type
+      isEquipmentLocationOf_Equipment(cond:"{id:{_eq:\"a65aa46d3fdd48abb586092a9a650dd2\"}}", authInfo:"", order:"")
+      {
+        name
+        description
+        id
+        type
+        hasPoint_Point(cond:"", authInfo:"", order:"")
+        {
+          name
+          description
+          id
+          type
+          hasSubClass_Speed_Setpoint(cond:"", authInfo:"", order:"")
+          {
+            name
+            description
+            id
+            type
+            hasAssociatedTag_Mode_Option(cond:"", authInfo:"", order:"")
+            {
+              objectorproperty_id
+              descriptor
+              id
+              value
+            }
+          }
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Mode_Command\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-16T10:00:00\",_lte:\"2022-05-16T11:00:00\"}}", authInfo:"", order:"")
+    {
+      captureTime
+      pointId
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>\"ErrorCode\":0</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -5034,7 +5588,7 @@
    [
         {
           sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
-          value: "1"
+          value: "0"
         }
     ]
     )
@@ -5044,122 +5598,6 @@
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>update 会议室模式
-Mode_Command</t>
-  </si>
-  <si>
-    <t>update 灯
-Luminance_Setpoint</t>
-  </si>
-  <si>
-    <t>update 窗帘开合度
-Position_Command</t>
-  </si>
-  <si>
-    <t>update空调风速
-Speed_Setpoint</t>
-  </si>
-  <si>
-    <t>Update空调温度
-Temperature_Setpoint</t>
-  </si>
-  <si>
-    <t>Update 空调模式
-Mode_Command</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-   Luminance_Setpoint_Update(input:
-   [
-        {
-          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
-          value: "1"
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-   Position_Command_Update(input:
-   [
-        {
-          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
-          value: "1"
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-   Speed_Setpoint_Update(input:
-   [
-        {
-          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
-          value: "1"
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-   Temperature_Setpoint_Update(input:
-   [
-        {
-          sourceId: "System1:GmsDevice_4_7130_121635069.BlsCmd_Present_Value.Height",
-          value: "1"
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>rspCodeOfDatasource</t>
-  </si>
-  <si>
-    <t>dataBrainRehearsal_decigoccConnector</t>
-  </si>
-  <si>
-    <t>rspMessageOfDatasource</t>
-  </si>
-  <si>
-    <t>Mode_Command</t>
-  </si>
-  <si>
-    <t>Luminance_Setpoint</t>
-  </si>
-  <si>
-    <t>Position_Command</t>
-  </si>
-  <si>
-    <t>Speed_Setpoint</t>
-  </si>
-  <si>
-    <t>Temperature_Setpoint</t>
   </si>
 </sst>
 </file>
@@ -6315,7 +6753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95BF81D-F35A-4340-837F-62C66C86E4D8}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -7331,18 +7769,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED2918E-9956-4AEF-9D0A-B5DEF5912792}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="93.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="81.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.21875" style="9" bestFit="1" customWidth="1"/>
@@ -7359,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>25</v>
@@ -7374,15 +7812,15 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>145</v>
@@ -7405,15 +7843,15 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>206</v>
@@ -7430,15 +7868,15 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>207</v>
@@ -7455,18 +7893,18 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E5" s="12">
         <v>200</v>
@@ -7480,18 +7918,18 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="E6" s="12">
         <v>200</v>
@@ -7505,18 +7943,18 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>91</v>
+        <v>243</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>230</v>
+        <v>311</v>
       </c>
       <c r="E7" s="12">
         <v>200</v>
@@ -7530,18 +7968,18 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="E8" s="12">
         <v>200</v>
@@ -7555,18 +7993,18 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="E9" s="12">
         <v>200</v>
@@ -7580,18 +8018,18 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="E10" s="12">
         <v>200</v>
@@ -7605,18 +8043,18 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E11" s="12">
         <v>200</v>
@@ -7630,18 +8068,18 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="E12" s="12">
         <v>200</v>
@@ -7655,18 +8093,18 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>104</v>
+        <v>249</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="E13" s="12">
         <v>200</v>
@@ -7680,18 +8118,18 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="E14" s="12">
         <v>200</v>
@@ -7705,18 +8143,18 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="E15" s="12">
         <v>200</v>
@@ -7730,18 +8168,18 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="E16" s="12">
         <v>200</v>
@@ -7755,18 +8193,18 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>233</v>
+        <v>315</v>
       </c>
       <c r="E17" s="12">
         <v>200</v>
@@ -7781,21 +8219,21 @@
         <v>0</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E18" s="12">
         <v>200</v>
@@ -7810,21 +8248,21 @@
         <v>0</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E19" s="12">
         <v>200</v>
@@ -7839,21 +8277,21 @@
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E20" s="12">
         <v>200</v>
@@ -7868,21 +8306,21 @@
         <v>0</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E21" s="12">
         <v>200</v>
@@ -7897,21 +8335,21 @@
         <v>0</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E22" s="12">
         <v>200</v>
@@ -7926,8 +8364,258 @@
         <v>0</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>245</v>
-      </c>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E23" s="12">
+        <v>200</v>
+      </c>
+      <c r="F23" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" s="12">
+        <v>200</v>
+      </c>
+      <c r="F24" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="12">
+        <v>200</v>
+      </c>
+      <c r="F25" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E26" s="12">
+        <v>200</v>
+      </c>
+      <c r="F26" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E27" s="12">
+        <v>200</v>
+      </c>
+      <c r="F27" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="12">
+        <v>200</v>
+      </c>
+      <c r="F28" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E29" s="12">
+        <v>200</v>
+      </c>
+      <c r="F29" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" s="12">
+        <v>200</v>
+      </c>
+      <c r="F30" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E31" s="12">
+        <v>200</v>
+      </c>
+      <c r="F31" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E32" s="12">
+        <v>200</v>
+      </c>
+      <c r="F32" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C37F3F0-9E9B-42E8-8E18-CC4CB70B65C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE2F8E7-D0BA-4CB2-BC12-AA34BCA8C7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
     <sheet name="queryPostgresqlData-backup" sheetId="4" r:id="rId3"/>
-    <sheet name="verifySmartSpaceFunction" sheetId="5" r:id="rId4"/>
+    <sheet name="verifySmartSpaceFunction-bc" sheetId="5" r:id="rId4"/>
+    <sheet name="verifySmartSpaceOtherFunc" sheetId="6" r:id="rId5"/>
+    <sheet name="verifySmartSpaceRealtimeFunc" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">verifySmartSpaceFunction!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'verifySmartSpaceFunction-bc'!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="442">
   <si>
     <t>description</t>
   </si>
@@ -5599,12 +5601,1535 @@
     }
 }</t>
   </si>
+  <si>
+    <t>{
+  Equipment(cond:"{id:{_in:[\"e3bd355a01e74cdab5001e074d0ee211\",\"29b68e62ac3046d39434f06592c42eb8\",\"a65aa46d3fdd48abb586092a9a650dd2\",\"b896501c1e874f8487871b4c67597c1d\",\"5242339816e84bf381a698c709430650\",\"ad776315e61d42a58c30e6f9ebd19d52\"]}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"{type:{_eq:\"CO2_Sensor\"}}", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-18T19:00:00\", _lte:\"2022-05-18T19:30:00\"}}", authInfo:"", order:"captureTime DESC")
+      {
+        captureTime
+        id
+        value
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>Equipment-&gt; hasPoint_Point-&gt; hasTimeseries_Timeseries</t>
+  </si>
+  <si>
+    <t>根据日期获取CO2传感器数值并按“captureTime 降序”排序
+Equipment(id in [])-&gt;Point(type=)-&gt;Timeseries(captureTime)</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-32</t>
+  </si>
+  <si>
+    <t>databrain-smartspace-test-33</t>
+  </si>
+  <si>
+    <t>根据日期获取CO2传感器数值并按“captureTime 升序”排序
+Equipment(id in [])-&gt;Point(type=)-&gt;Timeseries(captureTime)</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{id:{_in:[\"e3bd355a01e74cdab5001e074d0ee211\",\"29b68e62ac3046d39434f06592c42eb8\",\"a65aa46d3fdd48abb586092a9a650dd2\",\"b896501c1e874f8487871b4c67597c1d\",\"5242339816e84bf381a698c709430650\",\"ad776315e61d42a58c30e6f9ebd19d52\"]}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"{type:{_eq:\"CO2_Sensor\"}}", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-18T19:00:00\", _lte:\"2022-05-18T19:30:00\"}}", authInfo:"", order:"captureTime ASC")
+      {
+        captureTime
+        id
+        value
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>Point-&gt;hasTimeseries_TimeseriesConnection-&gt;edges</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Mode_Command（空调模式）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Mode_Command',id='')-&gt;Timeseries(captureTime)
+sourcesystem:Desigocc</t>
+    </r>
+  </si>
+  <si>
+    <t>sqlStatement</t>
+  </si>
+  <si>
+    <t>System1:GmsDevice_4_7130_1082130448.Present_Value.Height</t>
+  </si>
+  <si>
+    <t>System1:GmsDevice_4_7130_121634835.RAQual_Present_Value</t>
+  </si>
+  <si>
+    <t>System1:GmsDevice_4_7130_16777322.Present_Value</t>
+  </si>
+  <si>
+    <t>System1:GmsDevice_4_7130_121634835.RHuRel_Present_Value</t>
+  </si>
+  <si>
+    <t>System1:GmsDevice_4_7130_1090519068.Present_Value</t>
+  </si>
+  <si>
+    <t>System1:GmsDevice_4_7130_121634870.PltOpMod_Relinquish_Default</t>
+  </si>
+  <si>
+    <t>System1:GmsDevice_1_7105_29360128.Present_Value</t>
+  </si>
+  <si>
+    <t>System1:GmsDevice_4_7130_79692330.Present_Value</t>
+  </si>
+  <si>
+    <t>System1:GmsDevice_4_7130_121634914.FanMultiSpd_Present_Value</t>
+  </si>
+  <si>
+    <t>System1:GmsDevice_4_7130_121634835.RTemp_Present_Value</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"CO2_Sensor\"}},{id: {_eq: \"5d11b970dfdb4b4fb68c20af04fa87af\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634835.RAQual_Present_Value' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取CO2_Sensor（室内co2(ppm))实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='CO2_Sensor',id='')-&gt;Timeseries(captureTime)
+sourcesystem:Desigocc</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"Mode_Command\"}},{id: {_eq: \"67ac53b928a947fc9afcb29f30cce93f\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"Mode_Command\"}},{id: {_eq: \"22a30930ce1d4007a59e24bef925d17d\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"Mode_Command\"}},{id: {_eq: \"858e767d499343bb9198ff4603db79fb\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"GreenLeaf_Mode_Command\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime DESC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_16777322.Present_Value' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime DESC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Humidity_Sensor（室内湿度%rh）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按时间升序（captureTime ASC）排序
+添加了分页功能：
+pageIndex:1
+pageSize:10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Humidity_Sensorr',id='')-&gt;Timeseries(captureTime)
+sourcesystem:Desigocc</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"Humidity_Sensor\"}},{id: {_eq: \"9e4ab0cc4fb24f40ad8b80facdeb017b\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_TimeseriesConnection(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC", after:"1", first:10)
+    {
+      totalElements
+      totalPages
+      pageSize
+      page
+      numberOfElements
+      edges {
+        node {
+          captureTime
+          id
+          value
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634835.RHuRel_Present_Value' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC LIMIT 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Mode_Command（会议模式）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按时间升序（captureTime ASC）排序
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Mode_Command',id='')-&gt;Timeseries(captureTime)
+sourcesystem:Desigocc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Mode_Command（会议模式）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Mode_Command',id='')-&gt;Timeseries(captureTime)
+sourcesystem:Desigocc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Position_Command（窗帘控制）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Position_Command')-&gt;Timeseries(captureTime)
+sourcesystem:Desigocc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Speed_Setpoint（风机速度）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Speed_Setpoint)-&gt;Timeseries(captureTime)
+sourcesystem:Desigocc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Temperature_Sensor（"室内温度℃）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Temperature_Sensor',id='')-&gt;Timeseries(captureTime)
+sourcesystem:Desigocc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Temperature_Setpoint（温度设定℃）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Temperature_Setpoint')-&gt;Timeseries(captureTime)
+sourcesystem:Desigocc</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Position_Command\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Speed_Setpoint\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"Temperature_Sensor\"}},{id: {_eq: \"ec2510822ef64bebac25f028bd3e147c\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Temperature_Setpoint\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634870.PltOpMod_Relinquish_Default' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_1_7105_29360128.Present_Value' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_79692330.Present_Value' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_1082130448.Present_Value.Height' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634914.FanMultiSpd_Present_Value' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634835.RTemp_Present_Value' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Luminance_Setpoint（灯光控制）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按时间升序（captureTime DESC）排序
+添加了分页功能：
+pageIndex:1
+pageSize:10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Luminance_Setpoint')-&gt;Timeseries(captureTime)
+sourcesystem:Desigocc</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Luminance_Setpoint\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_TimeseriesConnection(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime DESC", after:"1", first:10)
+    {
+      totalElements
+      totalPages
+      pageSize
+      page
+      numberOfElements
+      edges {
+        node {
+          captureTime
+          id
+          value
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_1090519068.Present_Value' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime DESC  LIMIT 10</t>
+  </si>
+  <si>
+    <t>System1:GmsDevice_4_7130_121634849.SpTR_Present_Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634849.SpTR_Present_Value' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"Luminance_Sensor\"}},{id: {_eq: \"e5f0eb45ff8f47dd800214e56a2b6eef\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"Occupancy_Status\"}},{id: {_eq: \"6bcccd43f94246098510735605bd0cf7\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime DESC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Power_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_TimeseriesConnection(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC", after:"1", first:10)
+    {
+      totalElements
+      totalPages
+      pageSize
+      page
+      numberOfElements
+      edges {
+        node {
+          captureTime
+          id
+          value
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"Temperature_Sensor\"}},{id: {_eq: \"b20b01a19aa8455f8d9275d32a1450dd\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_TimeseriesConnection(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime DESC", after:"1", first:10)
+    {
+      totalElements
+      totalPages
+      pageSize
+      page
+      numberOfElements
+      edges {
+        node {
+          captureTime
+          id
+          value
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Luminance_Sensor（Sensor48c775 Luminance)实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Luminance_Sensor',id='')-&gt;Timeseries(captureTime)
+sourcesystem:Enlighted</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Occupancy_Status（ROOM ssi Occupancy Status）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间降序（captureTime DESC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Occupancy_Status',id='')-&gt;Timeseries(captureTime)
+sourcesystem:Enlighted</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Power_Sensor（Sensor48c775 Power）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按时间升序（captureTime ASC）排序
+添加了分页功能：
+pageIndex:1
+pageSize:10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Power_Sensor')-&gt;Timeseries(captureTime)
+sourcesystem:Enlighted</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Temperature_Sensor（Sensor48c775 Temperature）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按时间升序（captureTime DESC）排序
+添加了分页功能：
+pageIndex:1
+pageSize:10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Temperature_Sensor',id='')-&gt;Timeseries(captureTime)
+sourcesystem:Enlighted</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,lightLevel as Value,id as PropertyId,sourceSystem from EnlightedValue ev where id = '2' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t>sid</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>5d11b970dfdb4b4fb68c20af04fa87af</t>
+  </si>
+  <si>
+    <t>095a804d31584d4bb7762ade3d1b3047</t>
+  </si>
+  <si>
+    <t>9e4ab0cc4fb24f40ad8b80facdeb017b</t>
+  </si>
+  <si>
+    <t>73b97708f1404419a1e10b31baba725a</t>
+  </si>
+  <si>
+    <t>67ac53b928a947fc9afcb29f30cce93f</t>
+  </si>
+  <si>
+    <t>22a30930ce1d4007a59e24bef925d17d</t>
+  </si>
+  <si>
+    <t>858e767d499343bb9198ff4603db79fb</t>
+  </si>
+  <si>
+    <t>0db848bd91874e8aac289a03b5e18c6b</t>
+  </si>
+  <si>
+    <t>e248aeb1cdb74be2b3f0b9957ea3d6f5</t>
+  </si>
+  <si>
+    <t>ec2510822ef64bebac25f028bd3e147c</t>
+  </si>
+  <si>
+    <t>c873ae9f77a54bf2af2b91d924038cfd</t>
+  </si>
+  <si>
+    <t>e5f0eb45ff8f47dd800214e56a2b6eef</t>
+  </si>
+  <si>
+    <t>6bcccd43f94246098510735605bd0cf7</t>
+  </si>
+  <si>
+    <t>c39df126e6b54469adf4b4a00b703ef4</t>
+  </si>
+  <si>
+    <t>b20b01a19aa8455f8d9275d32a1450dd</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,temperature as Value,id as PropertyId,sourceSystem from EnlightedValue ev where id = '2' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime DESC  LIMIT 10</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,value as Value,id as PropertyId,sourceSystem from EnlightedOccupancyStatus eos where id = '1' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime DESC</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"CO2_Sensor\"}},{id: {_eq: \"abd4823004544adab6b2a8ed92ca6b33\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>abd4823004544adab6b2a8ed92ca6b33</t>
+  </si>
+  <si>
+    <t>24e124128a486491</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,power as Value,id as PropertyId,sourceSystem from EnlightedValue ev where id = '2' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC LIMIT 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取CO2_Sensor（Building F Floor 1 CO2 Sensor 1)实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='CO2_Sensor',id='')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,co2 as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取GreenLeaf_Mode_Command（绿叶模式）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间降序（captureTime DESC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='GreenLeaf_Mode_Command')-&gt;Timeseries(captureTime)
+sourcesystem:Desigocc</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"Humidity_Sensor\"}},{id: {_eq: \"63fc159fb0b3419ca1bd14d86eaf43e9\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime DESC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>63fc159fb0b3419ca1bd14d86eaf43e9</t>
+  </si>
+  <si>
+    <t>394edf421c4a43da941b9002bc942f60</t>
+  </si>
+  <si>
+    <t>ad776315e61d42a58c30e6f9ebd19d52</t>
+  </si>
+  <si>
+    <t>24e124600b251195</t>
+  </si>
+  <si>
+    <t>9bcccd24f94246098510735605bd9db6</t>
+  </si>
+  <si>
+    <t>24e124538b441301</t>
+  </si>
+  <si>
+    <t>2d182a01a6bb4bef920fc08debac2f69</t>
+  </si>
+  <si>
+    <t>5540e6f7753941908379ddc8ecb43ffd</t>
+  </si>
+  <si>
+    <t>87cebf00987844849ad130af5fe39971</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"Luminance_Sensor\"}},{id: {_eq: \"394edf421c4a43da941b9002bc942f60\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_TimeseriesConnection(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC", after:"1", first:10)
+    {
+      totalElements
+      totalPages
+      pageSize
+      page
+      numberOfElements
+      edges {
+        node {
+          captureTime
+          id
+          value
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Occupancy_Sensor（灯光控制）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按时间升序（captureTime DESC）排序
+添加了分页功能：
+pageIndex:1
+pageSize:10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Occupancy_Sensor')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Occupancy_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_TimeseriesConnection(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime DESC", after:"1", first:10)
+    {
+      totalElements
+      totalPages
+      pageSize
+      page
+      numberOfElements
+      edges {
+        node {
+          captureTime
+          id
+          value
+          type
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,humidity as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime DESC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Humidity_Sensor（Building F Floor 1 Humidity Sensor 1）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按时间降序（captureTime DESC）排序
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Humidity_Sensor',id='')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Luminance_Sensor（Building F Floor 1 Pressure Sensor 1）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按时间升序（captureTime ASC）排序
+添加了分页功能：
+pageIndex:1
+pageSize:10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Luminance_Sensor',id='')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,infrared as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC limit 10</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"Pressure_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"Temperature_Sensor\"}},{id: {_eq: \"5540e6f7753941908379ddc8ecb43ffd\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{type: {_eq: \"TVOC_Sensor\"}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,pressure as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Pressure_Sensor（Building F Floor 1 Pressure Sensor 1)实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Pressure_Sensor')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Temperature_Sensor（Building F Floor 1 Temperature Sensor 1)实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Temperature_Sensor',id='')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,temperature as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取TVOC_Sensor（Building F Floor 1 Pressure Sensor 1)实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='TVOC_Sensor')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,tvoc as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,people_counter_all as Value,devEUI as PropertyId,sourceSystem from VS121_Data ad where devEUI = '24e124600b251195' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime DESC limit 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Occupancy_Status（)实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Occupancy_Status',id='')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{_and:[{type: {_eq: \"Occupancy_Status\"}},{id: {_eq: \"9bcccd24f94246098510735605bd9db6\"}}]}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"$startTime\",_lte:\"$endTime\"}}", authInfo:"", order:"captureTime ASC")
+    {
+      captureTime
+      id
+      value
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,pir as Value,devEUI as PropertyId,sourceSystem from WS202_Data ad where devEUI = '24e124538b441301' 
+and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mode_Command_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_1_7105_29360128.Present_Value",
+          value: "0"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mode_Command_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_79692330.Present_Value",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Position_Command_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_1082130448.Present_Value.Height",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Speed_Setpoint_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_121634914.FanMultiSpd_Present_Value",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Temperature_Setpoint_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_121634849.SpTR_Present_Value",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>"ErrorCode":0</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mode_Command_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_121634870.PltOpMod_Relinquish_Default",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Luminance_Setpoint_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_1090519068.Present_Value",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>update灯
+Luminance_Setpoint</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5634,6 +7159,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5686,7 +7218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5720,6 +7252,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6753,7 +8288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95BF81D-F35A-4340-837F-62C66C86E4D8}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -7769,10 +9304,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED2918E-9956-4AEF-9D0A-B5DEF5912792}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8617,6 +10152,1564 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
+    <row r="33" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E33" s="12">
+        <v>200</v>
+      </c>
+      <c r="F33" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" s="12">
+        <v>200</v>
+      </c>
+      <c r="F34" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA4C4C8-01FF-4E34-B41E-A7427C7932E0}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="66.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="12">
+        <v>200</v>
+      </c>
+      <c r="F2" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="12">
+        <v>200</v>
+      </c>
+      <c r="F3" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="12">
+        <v>200</v>
+      </c>
+      <c r="F4" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="12">
+        <v>200</v>
+      </c>
+      <c r="F5" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="12">
+        <v>200</v>
+      </c>
+      <c r="F6" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E7" s="12">
+        <v>200</v>
+      </c>
+      <c r="F7" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="12">
+        <v>200</v>
+      </c>
+      <c r="F8" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="12">
+        <v>200</v>
+      </c>
+      <c r="F9" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="12">
+        <v>200</v>
+      </c>
+      <c r="F10" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="12">
+        <v>200</v>
+      </c>
+      <c r="F11" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="12">
+        <v>200</v>
+      </c>
+      <c r="F12" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="12">
+        <v>200</v>
+      </c>
+      <c r="F13" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="12">
+        <v>200</v>
+      </c>
+      <c r="F14" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="12">
+        <v>200</v>
+      </c>
+      <c r="F15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="12">
+        <v>200</v>
+      </c>
+      <c r="F16" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" s="12">
+        <v>200</v>
+      </c>
+      <c r="F17" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" s="12">
+        <v>200</v>
+      </c>
+      <c r="F18" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E19" s="12">
+        <v>200</v>
+      </c>
+      <c r="F19" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E20" s="12">
+        <v>200</v>
+      </c>
+      <c r="F20" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E21" s="12">
+        <v>200</v>
+      </c>
+      <c r="F21" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E22" s="12">
+        <v>200</v>
+      </c>
+      <c r="F22" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="E23" s="12">
+        <v>200</v>
+      </c>
+      <c r="F23" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E24" s="12">
+        <v>200</v>
+      </c>
+      <c r="F24" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E25" s="12">
+        <v>200</v>
+      </c>
+      <c r="F25" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E26" s="12">
+        <v>200</v>
+      </c>
+      <c r="F26" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2181B9E2-AEE2-4C11-98DD-ED06134DE024}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="9" customWidth="1"/>
+    <col min="4" max="4" width="57.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22" style="9" customWidth="1"/>
+    <col min="7" max="7" width="33.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="12">
+        <v>200</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="H3" s="12">
+        <v>200</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" s="12">
+        <v>200</v>
+      </c>
+      <c r="I4" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="H5" s="12">
+        <v>200</v>
+      </c>
+      <c r="I5" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="H6" s="12">
+        <v>200</v>
+      </c>
+      <c r="I6" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="H7" s="12">
+        <v>200</v>
+      </c>
+      <c r="I7" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="H8" s="12">
+        <v>200</v>
+      </c>
+      <c r="I8" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="H9" s="12">
+        <v>200</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="H10" s="12">
+        <v>200</v>
+      </c>
+      <c r="I10" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="H11" s="12">
+        <v>200</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="H12" s="12">
+        <v>200</v>
+      </c>
+      <c r="I12" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="H13" s="12">
+        <v>200</v>
+      </c>
+      <c r="I13" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="H14" s="12">
+        <v>200</v>
+      </c>
+      <c r="I14" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H15" s="12">
+        <v>200</v>
+      </c>
+      <c r="I15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="H16" s="12">
+        <v>200</v>
+      </c>
+      <c r="I16" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H17" s="12">
+        <v>200</v>
+      </c>
+      <c r="I17" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="H18" s="12">
+        <v>200</v>
+      </c>
+      <c r="I18" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="H19" s="12">
+        <v>200</v>
+      </c>
+      <c r="I19" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="H20" s="12">
+        <v>200</v>
+      </c>
+      <c r="I20" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H21" s="12">
+        <v>200</v>
+      </c>
+      <c r="I21" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="H22" s="12">
+        <v>200</v>
+      </c>
+      <c r="I22" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="H23" s="12">
+        <v>200</v>
+      </c>
+      <c r="I23" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="H24" s="12">
+        <v>200</v>
+      </c>
+      <c r="I24" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE2F8E7-D0BA-4CB2-BC12-AA34BCA8C7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABCFCE5-E6FA-4B27-B271-19A546632E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -5750,10 +5750,6 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634835.RAQual_Present_Value' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">获取CO2_Sensor（室内co2(ppm))实时数据
 </t>
@@ -5851,10 +5847,6 @@
     }
   }
 }</t>
-  </si>
-  <si>
-    <t>SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_16777322.Present_Value' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime DESC</t>
   </si>
   <si>
     <r>
@@ -5915,10 +5907,6 @@
 }</t>
   </si>
   <si>
-    <t>SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634835.RHuRel_Present_Value' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC LIMIT 10</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">获取Mode_Command（会议模式）实时数据
 </t>
@@ -6152,30 +6140,6 @@
     }
   }
 }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634870.PltOpMod_Relinquish_Default' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_1_7105_29360128.Present_Value' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_79692330.Present_Value' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_1082130448.Present_Value.Height' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634914.FanMultiSpd_Present_Value' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634835.RTemp_Present_Value' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
   </si>
   <si>
     <r>
@@ -6236,15 +6200,7 @@
 }</t>
   </si>
   <si>
-    <t>SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_1090519068.Present_Value' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime DESC  LIMIT 10</t>
-  </si>
-  <si>
     <t>System1:GmsDevice_4_7130_121634849.SpTR_Present_Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634849.SpTR_Present_Value' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
   </si>
   <si>
     <t>{
@@ -6453,10 +6409,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">SELECT dataLayerTime,lightLevel as Value,id as PropertyId,sourceSystem from EnlightedValue ev where id = '2' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC </t>
-  </si>
-  <si>
     <t>sid</t>
   </si>
   <si>
@@ -6506,14 +6458,6 @@
   </si>
   <si>
     <t>b20b01a19aa8455f8d9275d32a1450dd</t>
-  </si>
-  <si>
-    <t>SELECT dataLayerTime,temperature as Value,id as PropertyId,sourceSystem from EnlightedValue ev where id = '2' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime DESC  LIMIT 10</t>
-  </si>
-  <si>
-    <t>SELECT dataLayerTime,value as Value,id as PropertyId,sourceSystem from EnlightedOccupancyStatus eos where id = '1' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime DESC</t>
   </si>
   <si>
     <t>{
@@ -6538,10 +6482,6 @@
   </si>
   <si>
     <t>24e124128a486491</t>
-  </si>
-  <si>
-    <t>SELECT dataLayerTime,power as Value,id as PropertyId,sourceSystem from EnlightedValue ev where id = '2' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC LIMIT 10</t>
   </si>
   <si>
     <r>
@@ -6569,10 +6509,6 @@
 Point(type='CO2_Sensor',id='')-&gt;Timeseries(captureTime)
 sourcesystem:iotgateway</t>
     </r>
-  </si>
-  <si>
-    <t>SELECT dataLayerTime,co2 as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC</t>
   </si>
   <si>
     <r>
@@ -6732,10 +6668,6 @@
 }</t>
   </si>
   <si>
-    <t>SELECT dataLayerTime,humidity as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime DESC</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">获取Humidity_Sensor（Building F Floor 1 Humidity Sensor 1）实时数据
 </t>
@@ -6795,10 +6727,6 @@
     </r>
   </si>
   <si>
-    <t>SELECT dataLayerTime,infrared as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC limit 10</t>
-  </si>
-  <si>
     <t>{
   Point(cond:"{type: {_eq: \"Pressure_Sensor\"}}", authInfo:"", order:"")
   {
@@ -6851,10 +6779,6 @@
     }
   }
 }</t>
-  </si>
-  <si>
-    <t>SELECT dataLayerTime,pressure as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC</t>
   </si>
   <si>
     <r>
@@ -6911,10 +6835,6 @@
     </r>
   </si>
   <si>
-    <t>SELECT dataLayerTime,temperature as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">获取TVOC_Sensor（Building F Floor 1 Pressure Sensor 1)实时数据
 </t>
@@ -6942,14 +6862,6 @@
     </r>
   </si>
   <si>
-    <t>SELECT dataLayerTime,tvoc as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC</t>
-  </si>
-  <si>
-    <t>SELECT dataLayerTime,people_counter_all as Value,devEUI as PropertyId,sourceSystem from VS121_Data ad where devEUI = '24e124600b251195' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime DESC limit 10</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">获取Occupancy_Status（)实时数据
 </t>
@@ -6995,10 +6907,6 @@
 }</t>
   </si>
   <si>
-    <t>SELECT dataLayerTime,pir as Value,devEUI as PropertyId,sourceSystem from WS202_Data ad where devEUI = '24e124538b441301' 
-and dataLayerTime &gt;= '$startTime' AND dataLayerTime &lt;= '$endTime' order by dataLayerTime ASC</t>
-  </si>
-  <si>
     <t>mutation mutationName{
    Mode_Command_Update(input:
    [
@@ -7123,6 +7031,98 @@
   <si>
     <t>update灯
 Luminance_Setpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634835.RAQual_Present_Value' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_16777322.Present_Value' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime DESC</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634835.RHuRel_Present_Value' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC LIMIT 10</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_1090519068.Present_Value' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime DESC  LIMIT 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634870.PltOpMod_Relinquish_Default' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_1_7105_29360128.Present_Value' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_79692330.Present_Value' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_1082130448.Present_Value.Height' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634914.FanMultiSpd_Present_Value' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634835.RTemp_Present_Value' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,Value,PropertyId,sourceSystem from DesigoccValue dv where PropertyId = 'System1:GmsDevice_4_7130_121634849.SpTR_Present_Value' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT dataLayerTime,lightLevel as Value,id as PropertyId,sourceSystem from EnlightedValue ev where id = '2' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC </t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,value as Value,id as PropertyId,sourceSystem from EnlightedOccupancyStatus eos where id = '1' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime DESC</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,power as Value,id as PropertyId,sourceSystem from EnlightedValue ev where id = '2' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC LIMIT 10</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,temperature as Value,id as PropertyId,sourceSystem from EnlightedValue ev where id = '2' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime DESC  LIMIT 10</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,co2 as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,humidity as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime DESC</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,infrared as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC limit 10</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,people_counter_all as Value,devEUI as PropertyId,sourceSystem from VS121_Data ad where devEUI = '24e124600b251195' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime DESC limit 10</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,pir as Value,devEUI as PropertyId,sourceSystem from WS202_Data ad where devEUI = '24e124538b441301' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,pressure as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,temperature as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,tvoc as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
   </si>
 </sst>
 </file>
@@ -10213,7 +10213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA4C4C8-01FF-4E34-B41E-A7427C7932E0}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -10715,13 +10715,13 @@
         <v>256</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>234</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="E20" s="12">
         <v>200</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10750,7 +10750,7 @@
         <v>233</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="E21" s="12">
         <v>200</v>
@@ -10765,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10779,7 +10779,7 @@
         <v>233</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="E22" s="12">
         <v>200</v>
@@ -10794,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10808,7 +10808,7 @@
         <v>233</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="E23" s="12">
         <v>200</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10837,7 +10837,7 @@
         <v>235</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="E24" s="12">
         <v>200</v>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10866,7 +10866,7 @@
         <v>236</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="E25" s="12">
         <v>200</v>
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10895,7 +10895,7 @@
         <v>237</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="E26" s="12">
         <v>200</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -10924,8 +10924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2181B9E2-AEE2-4C11-98DD-ED06134DE024}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10956,10 +10956,10 @@
         <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>325</v>
@@ -10979,7 +10979,7 @@
         <v>238</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>267</v>
@@ -10988,13 +10988,13 @@
         <v>336</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>327</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="H2" s="12">
         <v>200</v>
@@ -11011,22 +11011,22 @@
         <v>239</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>328</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>343</v>
+        <v>420</v>
       </c>
       <c r="H3" s="12">
         <v>200</v>
@@ -11043,22 +11043,22 @@
         <v>240</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>323</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>329</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>346</v>
+        <v>421</v>
       </c>
       <c r="H4" s="12">
         <v>200</v>
@@ -11075,22 +11075,22 @@
         <v>241</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>323</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>330</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="H5" s="12">
         <v>200</v>
@@ -11107,22 +11107,22 @@
         <v>242</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>331</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="H6" s="12">
         <v>200</v>
@@ -11139,22 +11139,22 @@
         <v>243</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>332</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="H7" s="12">
         <v>200</v>
@@ -11177,16 +11177,16 @@
         <v>267</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>333</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="H8" s="12">
         <v>200</v>
@@ -11203,22 +11203,22 @@
         <v>245</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>326</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="H9" s="12">
         <v>200</v>
@@ -11235,22 +11235,22 @@
         <v>246</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>334</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="H10" s="12">
         <v>200</v>
@@ -11267,22 +11267,22 @@
         <v>247</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>335</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="H11" s="12">
         <v>200</v>
@@ -11299,22 +11299,22 @@
         <v>248</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>366</v>
-      </c>
       <c r="G12" s="10" t="s">
-        <v>367</v>
+        <v>429</v>
       </c>
       <c r="H12" s="12">
         <v>200</v>
@@ -11331,22 +11331,22 @@
         <v>249</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="F13" s="10">
         <v>2</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="H13" s="12">
         <v>200</v>
@@ -11363,22 +11363,22 @@
         <v>250</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="H14" s="12">
         <v>200</v>
@@ -11395,22 +11395,22 @@
         <v>251</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>323</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F15" s="10">
         <v>2</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="H15" s="12">
         <v>200</v>
@@ -11427,22 +11427,22 @@
         <v>252</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>323</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F16" s="10">
         <v>2</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="H16" s="12">
         <v>200</v>
@@ -11459,22 +11459,22 @@
         <v>253</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="H17" s="12">
         <v>200</v>
@@ -11491,22 +11491,22 @@
         <v>254</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="H18" s="12">
         <v>200</v>
@@ -11523,22 +11523,22 @@
         <v>255</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>323</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="H19" s="12">
         <v>200</v>
@@ -11555,22 +11555,22 @@
         <v>256</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>323</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="H20" s="12">
         <v>200</v>
@@ -11587,22 +11587,22 @@
         <v>257</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H21" s="12">
         <v>200</v>
@@ -11619,22 +11619,22 @@
         <v>258</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="H22" s="12">
         <v>200</v>
@@ -11651,22 +11651,22 @@
         <v>277</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="H23" s="12">
         <v>200</v>
@@ -11683,22 +11683,22 @@
         <v>281</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="H24" s="12">
         <v>200</v>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABCFCE5-E6FA-4B27-B271-19A546632E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED41E1-402E-4BDC-B716-44F979BEE0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10924,8 +10924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2181B9E2-AEE2-4C11-98DD-ED06134DE024}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CE953D-51E5-4267-B54D-0A3F6F6F21DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A684A3A-E4E3-481D-94F3-AA53967F1DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="751">
   <si>
     <t>description</t>
   </si>
@@ -8102,6 +8102,57 @@
 Point(type='Occupancy_Status',sourceId='')-&gt;Timeseries(captureTime)
 sourcesystem:iotgateway</t>
     </r>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mode_Command_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_79692331.Present_Value",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mode_Command_Update(input:
+   [
+        {
+          sourceId: "GmsDevice_1_7105_29360128.Present_Value",
+          value: "0"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mode_Command_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_4_7130_29360128.Present_Value",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -12046,8 +12097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2181B9E2-AEE2-4C11-98DD-ED06134DE024}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13356,8 +13407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD40A695-640D-4069-93EC-24D7461E4F01}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13442,7 +13493,7 @@
         <v>98</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>194</v>
+        <v>748</v>
       </c>
       <c r="E3" s="19">
         <v>200</v>
@@ -13471,7 +13522,7 @@
         <v>98</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>188</v>
+        <v>749</v>
       </c>
       <c r="E4" s="19">
         <v>200</v>
@@ -13500,7 +13551,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>189</v>
+        <v>750</v>
       </c>
       <c r="E5" s="19">
         <v>200</v>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A684A3A-E4E3-481D-94F3-AA53967F1DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3080E023-1CDB-4ABB-8C6B-657B2D286041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
-    <sheet name="verifySmartSpaceOtherFunc" sheetId="6" r:id="rId3"/>
+    <sheet name="verifySmartSpaceWenSiQueryFunc" sheetId="6" r:id="rId3"/>
     <sheet name="verifySmartSpacePropertyFunc" sheetId="8" r:id="rId4"/>
     <sheet name="verifySmartSpaceRealtimeFunc" sheetId="7" r:id="rId5"/>
     <sheet name="verifySmartSpaceMutationFunc" sheetId="9" r:id="rId6"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="740">
   <si>
     <t>description</t>
   </si>
@@ -484,15 +484,6 @@
     <t>databrain-smartspace-test-18</t>
   </si>
   <si>
-    <t>databrain-smartspace-test-19</t>
-  </si>
-  <si>
-    <t>databrain-smartspace-test-20</t>
-  </si>
-  <si>
-    <t>databrain-smartspace-test-21</t>
-  </si>
-  <si>
     <t>{
   Floor(cond:"{id:{_eq:\"b241684da4544ff1b5647dadbd8a9f74\"}}", authInfo:"", order:"")
   {
@@ -542,9 +533,6 @@
     <t>Point-&gt;hasTimeseries_Timeseries</t>
   </si>
   <si>
-    <t>databrain-smartspace-test-22</t>
-  </si>
-  <si>
     <t>获取设备能耗信息
 Equipment-&gt;Point(type='Power_Sensor')-&gt;Timeseries(captureTime)</t>
   </si>
@@ -554,9 +542,6 @@
   </si>
   <si>
     <t>Room-&gt;isLocationOf_PointLocation</t>
-  </si>
-  <si>
-    <t>databrain-smartspace-test-23</t>
   </si>
   <si>
     <t>{
@@ -583,9 +568,6 @@
   </si>
   <si>
     <t>Equipment-&gt;hasPoint_Point</t>
-  </si>
-  <si>
-    <t>databrain-smartspace-test-24</t>
   </si>
   <si>
     <t>{
@@ -640,9 +622,6 @@
     <t>Floor-&gt;hasPart_Room-&gt;isLocationOf_PointLocation-&gt;isPointLocationOf_Point</t>
   </si>
   <si>
-    <t>databrain-smartspace-test-25</t>
-  </si>
-  <si>
     <t>查询设备下面挂的point
 Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment-&gt;Point
      -&gt;EquipmentLocation-&gt;Equipment-&gt;Point</t>
@@ -1220,40 +1199,6 @@
   </si>
   <si>
     <t>mutation mutationName{
-   Mode_Command_Update(input:
-   [
-        {
-          sourceId: "System1:GmsDevice_1_7105_29360128.Present_Value",
-          value: "0"
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-   Mode_Command_Update(input:
-   [
-        {
-          sourceId: "System1:GmsDevice_4_7130_79692330.Present_Value",
-          value: "1"
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
    Position_Command_Update(input:
    [
         {
@@ -1287,41 +1232,7 @@
 }</t>
   </si>
   <si>
-    <t>mutation mutationName{
-   Temperature_Setpoint_Update(input:
-   [
-        {
-          sourceId: "System1:GmsDevice_4_7130_121634849.SpTR_Present_Value",
-          value: "1"
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
     <t>"ErrorCode":0</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-   Mode_Command_Update(input:
-   [
-        {
-          sourceId: "System1:GmsDevice_4_7130_121634870.PltOpMod_Relinquish_Default",
-          value: "1"
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -1407,131 +1318,6 @@
   <si>
     <t>SELECT dataLayerTime,tvoc as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124128a486491' 
 and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
-  </si>
-  <si>
-    <t>{
-  Equipment(cond:"{id: {_in: [\"e3bd355a01e74cdab5001e074d0ee211\"]}}", authInfo:"", order:"")
-  {
-    name
-    description
-    id
-    type
-    hasPoint_Point(cond:"", authInfo:"", order:"")
-    {
-      name
-      description
-      id
-      type
-      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-30T11:00:00\",_lte:\"2022-05-30T11:10:00\"}}", authInfo:"", order:"")
-      {
-        captureTime
-        pointId
-        value
-        type
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Equipment(cond:"{id: {_in: [\"e3bd355a01e74cdab5001e074d0ee211\"]}}", authInfo:"", order:"")
-  {
-    name
-    description
-    id
-    type
-    hasPoint_Point(cond:"", authInfo:"", order:"")
-    {
-      name
-      description
-      id
-      type
-      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-30T11:40:00\",_lte:\"2022-05-30T11:50:00\"}}", authInfo:"", order:"")
-      {
-        captureTime
-        pointId
-        value
-        type
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Equipment(cond:"", authInfo:"", order:"")
-  {
-    name
-    description
-    id
-    type
-    hasPoint_Point(cond:"{type: {_eq: \"Power_Sensor\"}}", authInfo:"", order:"")
-    {
-      name
-      description
-      id
-      type
-      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-30T11:00:00\",_lte:\"2022-05-30T11:10:00\"}}", authInfo:"", order:"")
-      {
-        captureTime
-        pointId
-        value
-        type
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Equipment(cond:"{id:{_in:[\"e3bd355a01e74cdab5001e074d0ee211\",\"29b68e62ac3046d39434f06592c42eb8\",\"a65aa46d3fdd48abb586092a9a650dd2\",\"b896501c1e874f8487871b4c67597c1d\",\"5242339816e84bf381a698c709430650\",\"ad776315e61d42a58c30e6f9ebd19d52\"]}}", authInfo:"", order:"")
-  {
-    name
-    description
-    id
-    type
-    hasPoint_Point(cond:"{type:{_eq:\"CO2_Sensor\"}}", authInfo:"", order:"")
-    {
-      name
-      description
-      id
-      type
-      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-30T11:00:00\", _lte:\"2022-05-30T11:30:00\"}}", authInfo:"", order:"captureTime ASC")
-      {
-        captureTime
-        id
-        value
-        type
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Equipment(cond:"{id:{_in:[\"e3bd355a01e74cdab5001e074d0ee211\",\"29b68e62ac3046d39434f06592c42eb8\",\"a65aa46d3fdd48abb586092a9a650dd2\",\"b896501c1e874f8487871b4c67597c1d\",\"5242339816e84bf381a698c709430650\",\"ad776315e61d42a58c30e6f9ebd19d52\"]}}", authInfo:"", order:"")
-  {
-    name
-    description
-    id
-    type
-    hasPoint_Point(cond:"{type:{_eq:\"CO2_Sensor\"}}", authInfo:"", order:"")
-    {
-      name
-      description
-      id
-      type
-      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-05-30T11:00:00\", _lte:\"2022-05-30T11:30:00\"}}", authInfo:"", order:"captureTime DESC")
-      {
-        captureTime
-        id
-        value
-        type
-      }
-    }
-  }
-}</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -8154,6 +7940,131 @@
     }
 }</t>
   </si>
+  <si>
+    <t>{
+  Equipment(cond:"{id: {_in: [\"e3bd355a01e74cdab5001e074d0ee211\"]}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-06-06T11:00:00\",_lte:\"2022-06-06T11:10:00\"}}", authInfo:"", order:"")
+      {
+        captureTime
+        pointId
+        value
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{id: {_in: [\"e3bd355a01e74cdab5001e074d0ee211\"]}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-06-06T11:40:00\",_lte:\"2022-06-06T11:50:00\"}}", authInfo:"", order:"")
+      {
+        captureTime
+        pointId
+        value
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"{type: {_eq: \"Power_Sensor\"}}", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-06-06T11:00:00\",_lte:\"2022-06-06T11:10:00\"}}", authInfo:"", order:"")
+      {
+        captureTime
+        pointId
+        value
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{id:{_in:[\"e3bd355a01e74cdab5001e074d0ee211\",\"29b68e62ac3046d39434f06592c42eb8\",\"a65aa46d3fdd48abb586092a9a650dd2\",\"b896501c1e874f8487871b4c67597c1d\",\"5242339816e84bf381a698c709430650\",\"ad776315e61d42a58c30e6f9ebd19d52\"]}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"{type:{_eq:\"CO2_Sensor\"}}", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-06-06T11:00:00\", _lte:\"2022-06-06T11:30:00\"}}", authInfo:"", order:"captureTime ASC")
+      {
+        captureTime
+        id
+        value
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{id:{_in:[\"e3bd355a01e74cdab5001e074d0ee211\",\"29b68e62ac3046d39434f06592c42eb8\",\"a65aa46d3fdd48abb586092a9a650dd2\",\"b896501c1e874f8487871b4c67597c1d\",\"5242339816e84bf381a698c709430650\",\"ad776315e61d42a58c30e6f9ebd19d52\"]}}", authInfo:"", order:"")
+  {
+    name
+    description
+    id
+    type
+    hasPoint_Point(cond:"{type:{_eq:\"CO2_Sensor\"}}", authInfo:"", order:"")
+    {
+      name
+      description
+      id
+      type
+      hasTimeseries_Timeseries(cond:"{captureTime:{_gte:\"2022-06-06T11:00:00\", _lte:\"2022-06-06T11:30:00\"}}", authInfo:"", order:"captureTime DESC")
+      {
+        captureTime
+        id
+        value
+        type
+      }
+    }
+  }
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -8201,7 +8112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8211,12 +8122,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8248,7 +8153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8276,15 +8181,6 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9328,10 +9224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA4C4C8-01FF-4E34-B41E-A7427C7932E0}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9343,12 +9239,10 @@
     <col min="5" max="5" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="9"/>
+    <col min="8" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -9356,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>25</v>
@@ -9370,14 +9264,8 @@
       <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>103</v>
       </c>
@@ -9399,10 +9287,8 @@
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>104</v>
       </c>
@@ -9410,7 +9296,7 @@
         <v>81</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>83</v>
@@ -9424,10 +9310,8 @@
       <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>105</v>
       </c>
@@ -9435,7 +9319,7 @@
         <v>82</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>84</v>
@@ -9449,10 +9333,8 @@
       <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>106</v>
       </c>
@@ -9460,7 +9342,7 @@
         <v>87</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>88</v>
@@ -9474,10 +9356,8 @@
       <c r="G5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>107</v>
       </c>
@@ -9485,10 +9365,10 @@
         <v>89</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E6" s="12">
         <v>200</v>
@@ -9499,10 +9379,8 @@
       <c r="G6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>108</v>
       </c>
@@ -9510,10 +9388,10 @@
         <v>90</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E7" s="12">
         <v>200</v>
@@ -9524,10 +9402,8 @@
       <c r="G7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>109</v>
       </c>
@@ -9535,10 +9411,10 @@
         <v>86</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>213</v>
+        <v>735</v>
       </c>
       <c r="E8" s="12">
         <v>200</v>
@@ -9549,10 +9425,8 @@
       <c r="G8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>110</v>
       </c>
@@ -9560,10 +9434,10 @@
         <v>85</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>214</v>
+        <v>736</v>
       </c>
       <c r="E9" s="12">
         <v>200</v>
@@ -9574,21 +9448,19 @@
       <c r="G9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>215</v>
+        <v>737</v>
       </c>
       <c r="E10" s="12">
         <v>200</v>
@@ -9599,21 +9471,19 @@
       <c r="G10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E11" s="12">
         <v>200</v>
@@ -9624,21 +9494,19 @@
       <c r="G11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E12" s="12">
         <v>200</v>
@@ -9649,21 +9517,19 @@
       <c r="G12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>114</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E13" s="12">
         <v>200</v>
@@ -9674,21 +9540,19 @@
       <c r="G13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E14" s="12">
         <v>200</v>
@@ -9699,21 +9563,19 @@
       <c r="G14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E15" s="12">
         <v>200</v>
@@ -9724,22 +9586,20 @@
       <c r="G15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>155</v>
-      </c>
       <c r="E16" s="12">
         <v>200</v>
       </c>
@@ -9749,22 +9609,20 @@
       <c r="G16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>157</v>
-      </c>
       <c r="E17" s="12">
         <v>200</v>
       </c>
@@ -9774,21 +9632,19 @@
       <c r="G17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>216</v>
+        <v>738</v>
       </c>
       <c r="E18" s="12">
         <v>200</v>
@@ -9799,21 +9655,19 @@
       <c r="G18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>217</v>
+        <v>739</v>
       </c>
       <c r="E19" s="12">
         <v>200</v>
@@ -9823,211 +9677,6 @@
       </c>
       <c r="G19" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E20" s="16">
-        <v>200</v>
-      </c>
-      <c r="F20" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21" s="16">
-        <v>200</v>
-      </c>
-      <c r="F21" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="16">
-        <v>200</v>
-      </c>
-      <c r="F22" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" s="16">
-        <v>200</v>
-      </c>
-      <c r="F23" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="16">
-        <v>200</v>
-      </c>
-      <c r="F24" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="14">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="16">
-        <v>200</v>
-      </c>
-      <c r="F25" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="14">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="16">
-        <v>200</v>
-      </c>
-      <c r="F26" s="16">
-        <v>100000</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="14">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -10066,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>25</v>
@@ -10081,12 +9730,12 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>80</v>
@@ -10095,7 +9744,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E2" s="12">
         <v>200</v>
@@ -10107,21 +9756,21 @@
         <v>10</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E3" s="12">
         <v>200</v>
@@ -10133,21 +9782,21 @@
         <v>10</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E4" s="12">
         <v>200</v>
@@ -10159,47 +9808,47 @@
         <v>10</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="12">
+        <v>200</v>
+      </c>
+      <c r="F5" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="E5" s="12">
-        <v>200</v>
-      </c>
-      <c r="F5" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E6" s="12">
         <v>200</v>
@@ -10211,21 +9860,21 @@
         <v>10</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E7" s="12">
         <v>200</v>
@@ -10237,21 +9886,21 @@
         <v>10</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E8" s="12">
         <v>200</v>
@@ -10263,21 +9912,21 @@
         <v>10</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E9" s="12">
         <v>200</v>
@@ -10289,21 +9938,21 @@
         <v>10</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E10" s="12">
         <v>200</v>
@@ -10315,21 +9964,21 @@
         <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E11" s="12">
         <v>200</v>
@@ -10341,21 +9990,21 @@
         <v>10</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E12" s="12">
         <v>200</v>
@@ -10367,21 +10016,21 @@
         <v>10</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E13" s="12">
         <v>200</v>
@@ -10393,21 +10042,21 @@
         <v>10</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E14" s="12">
         <v>200</v>
@@ -10419,12 +10068,12 @@
         <v>10</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>102</v>
@@ -10433,7 +10082,7 @@
         <v>102</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E15" s="12">
         <v>200</v>
@@ -10445,12 +10094,12 @@
         <v>10</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>101</v>
@@ -10459,7 +10108,7 @@
         <v>101</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E16" s="12">
         <v>200</v>
@@ -10471,12 +10120,12 @@
         <v>10</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>99</v>
@@ -10485,7 +10134,7 @@
         <v>99</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E17" s="12">
         <v>200</v>
@@ -10497,12 +10146,12 @@
         <v>10</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>98</v>
@@ -10511,7 +10160,7 @@
         <v>98</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E18" s="12">
         <v>200</v>
@@ -10523,12 +10172,12 @@
         <v>10</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>100</v>
@@ -10537,7 +10186,7 @@
         <v>100</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E19" s="12">
         <v>200</v>
@@ -10549,21 +10198,21 @@
         <v>10</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E20" s="12">
         <v>200</v>
@@ -10575,22 +10224,22 @@
         <v>10</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>317</v>
-      </c>
       <c r="E21" s="12">
         <v>200</v>
       </c>
@@ -10601,22 +10250,22 @@
         <v>10</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>318</v>
-      </c>
       <c r="E22" s="12">
         <v>200</v>
       </c>
@@ -10627,21 +10276,21 @@
         <v>10</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="E23" s="12">
         <v>200</v>
@@ -10653,21 +10302,21 @@
         <v>10</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="E24" s="12">
         <v>200</v>
@@ -10679,21 +10328,21 @@
         <v>10</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="E25" s="12">
         <v>200</v>
@@ -10705,21 +10354,21 @@
         <v>10</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="E26" s="12">
         <v>200</v>
@@ -10731,21 +10380,21 @@
         <v>10</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="E27" s="12">
         <v>200</v>
@@ -10757,21 +10406,21 @@
         <v>10</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E28" s="12">
         <v>200</v>
@@ -10783,21 +10432,21 @@
         <v>10</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="E29" s="12">
         <v>200</v>
@@ -10809,21 +10458,21 @@
         <v>10</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E30" s="12">
         <v>200</v>
@@ -10835,21 +10484,21 @@
         <v>10</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="E31" s="12">
         <v>200</v>
@@ -10861,21 +10510,21 @@
         <v>10</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="E32" s="12">
         <v>200</v>
@@ -10887,21 +10536,21 @@
         <v>10</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E33" s="12">
         <v>200</v>
@@ -10913,21 +10562,21 @@
         <v>10</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="E34" s="12">
         <v>200</v>
@@ -10939,21 +10588,21 @@
         <v>10</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="E35" s="12">
         <v>200</v>
@@ -10965,21 +10614,21 @@
         <v>10</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="E36" s="12">
         <v>200</v>
@@ -10991,21 +10640,21 @@
         <v>10</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="E37" s="12">
         <v>200</v>
@@ -11017,21 +10666,21 @@
         <v>10</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E38" s="12">
         <v>200</v>
@@ -11043,21 +10692,21 @@
         <v>10</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E39" s="12">
         <v>200</v>
@@ -11069,21 +10718,21 @@
         <v>10</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E40" s="12">
         <v>200</v>
@@ -11095,21 +10744,21 @@
         <v>10</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E41" s="12">
         <v>200</v>
@@ -11121,21 +10770,21 @@
         <v>10</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E42" s="12">
         <v>200</v>
@@ -11147,21 +10796,21 @@
         <v>10</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E43" s="12">
         <v>200</v>
@@ -11173,21 +10822,21 @@
         <v>10</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="E44" s="12">
         <v>200</v>
@@ -11199,21 +10848,21 @@
         <v>10</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E45" s="12">
         <v>200</v>
@@ -11225,21 +10874,21 @@
         <v>10</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E46" s="12">
         <v>200</v>
@@ -11251,21 +10900,21 @@
         <v>10</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E47" s="12">
         <v>200</v>
@@ -11277,21 +10926,21 @@
         <v>10</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E48" s="12">
         <v>200</v>
@@ -11303,21 +10952,21 @@
         <v>10</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="E49" s="12">
         <v>200</v>
@@ -11329,21 +10978,21 @@
         <v>10</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="E50" s="12">
         <v>200</v>
@@ -11355,21 +11004,21 @@
         <v>10</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="E51" s="12">
         <v>200</v>
@@ -11381,21 +11030,21 @@
         <v>10</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="E52" s="12">
         <v>200</v>
@@ -11407,21 +11056,21 @@
         <v>10</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="E53" s="12">
         <v>200</v>
@@ -11433,21 +11082,21 @@
         <v>10</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="E54" s="12">
         <v>200</v>
@@ -11459,21 +11108,21 @@
         <v>10</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="E55" s="12">
         <v>200</v>
@@ -11485,21 +11134,21 @@
         <v>10</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="E56" s="12">
         <v>200</v>
@@ -11511,21 +11160,21 @@
         <v>10</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="E57" s="12">
         <v>200</v>
@@ -11537,21 +11186,21 @@
         <v>10</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E58" s="12">
         <v>200</v>
@@ -11563,21 +11212,21 @@
         <v>10</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E59" s="12">
         <v>200</v>
@@ -11589,21 +11238,21 @@
         <v>10</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="E60" s="12">
         <v>200</v>
@@ -11615,21 +11264,21 @@
         <v>10</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="E61" s="12">
         <v>200</v>
@@ -11641,21 +11290,21 @@
         <v>10</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E62" s="12">
         <v>200</v>
@@ -11667,21 +11316,21 @@
         <v>10</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="E63" s="12">
         <v>200</v>
@@ -11693,21 +11342,21 @@
         <v>10</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="E64" s="12">
         <v>200</v>
@@ -11719,21 +11368,21 @@
         <v>10</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="E65" s="12">
         <v>200</v>
@@ -11745,21 +11394,21 @@
         <v>10</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="E66" s="12">
         <v>200</v>
@@ -11771,21 +11420,21 @@
         <v>10</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="E67" s="12">
         <v>200</v>
@@ -11797,21 +11446,21 @@
         <v>10</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="E68" s="12">
         <v>200</v>
@@ -11823,21 +11472,21 @@
         <v>10</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="E69" s="12">
         <v>200</v>
@@ -11849,21 +11498,21 @@
         <v>10</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="E70" s="12">
         <v>200</v>
@@ -11875,21 +11524,21 @@
         <v>10</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="E71" s="12">
         <v>200</v>
@@ -11901,21 +11550,21 @@
         <v>10</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="E72" s="12">
         <v>200</v>
@@ -11927,21 +11576,21 @@
         <v>10</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E73" s="12">
         <v>200</v>
@@ -11953,21 +11602,21 @@
         <v>10</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="E74" s="12">
         <v>200</v>
@@ -11979,21 +11628,21 @@
         <v>10</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="E75" s="12">
         <v>200</v>
@@ -12005,21 +11654,21 @@
         <v>10</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="E76" s="12">
         <v>200</v>
@@ -12031,21 +11680,21 @@
         <v>10</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="E77" s="12">
         <v>200</v>
@@ -12057,21 +11706,21 @@
         <v>10</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="E78" s="12">
         <v>200</v>
@@ -12083,7 +11732,7 @@
         <v>10</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -12124,19 +11773,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
@@ -12150,25 +11799,25 @@
     </row>
     <row r="2" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="H2" s="12">
         <v>200</v>
@@ -12182,25 +11831,25 @@
     </row>
     <row r="3" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="H3" s="12">
         <v>200</v>
@@ -12214,25 +11863,25 @@
     </row>
     <row r="4" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>621</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="H4" s="12">
         <v>200</v>
@@ -12246,25 +11895,25 @@
     </row>
     <row r="5" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="H5" s="12">
         <v>200</v>
@@ -12278,25 +11927,25 @@
     </row>
     <row r="6" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="H6" s="12">
         <v>200</v>
@@ -12310,25 +11959,25 @@
     </row>
     <row r="7" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="H7" s="12">
         <v>200</v>
@@ -12342,25 +11991,25 @@
     </row>
     <row r="8" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="H8" s="12">
         <v>200</v>
@@ -12374,25 +12023,25 @@
     </row>
     <row r="9" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="H9" s="12">
         <v>200</v>
@@ -12406,25 +12055,25 @@
     </row>
     <row r="10" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="H10" s="12">
         <v>200</v>
@@ -12438,25 +12087,25 @@
     </row>
     <row r="11" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="H11" s="12">
         <v>200</v>
@@ -12470,25 +12119,25 @@
     </row>
     <row r="12" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="H12" s="12">
         <v>200</v>
@@ -12502,25 +12151,25 @@
     </row>
     <row r="13" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="H13" s="12">
         <v>200</v>
@@ -12534,25 +12183,25 @@
     </row>
     <row r="14" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="H14" s="12">
         <v>200</v>
@@ -12566,25 +12215,25 @@
     </row>
     <row r="15" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="H15" s="12">
         <v>200</v>
@@ -12598,25 +12247,25 @@
     </row>
     <row r="16" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="H16" s="12">
         <v>200</v>
@@ -12630,25 +12279,25 @@
     </row>
     <row r="17" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="H17" s="12">
         <v>200</v>
@@ -12662,25 +12311,25 @@
     </row>
     <row r="18" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="H18" s="12">
         <v>200</v>
@@ -12694,25 +12343,25 @@
     </row>
     <row r="19" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H19" s="12">
         <v>200</v>
@@ -12726,25 +12375,25 @@
     </row>
     <row r="20" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="H20" s="12">
         <v>200</v>
@@ -12758,25 +12407,25 @@
     </row>
     <row r="21" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="H21" s="12">
         <v>200</v>
@@ -12790,25 +12439,25 @@
     </row>
     <row r="22" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="H22" s="12">
         <v>200</v>
@@ -12822,25 +12471,25 @@
     </row>
     <row r="23" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="H23" s="12">
         <v>200</v>
@@ -12854,25 +12503,25 @@
     </row>
     <row r="24" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="H24" s="12">
         <v>200</v>
@@ -12886,25 +12535,25 @@
     </row>
     <row r="25" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H25" s="12">
         <v>200</v>
@@ -12918,25 +12567,25 @@
     </row>
     <row r="26" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H26" s="12">
         <v>200</v>
@@ -12950,25 +12599,25 @@
     </row>
     <row r="27" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="H27" s="12">
         <v>200</v>
@@ -12982,25 +12631,25 @@
     </row>
     <row r="28" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="H28" s="12">
         <v>200</v>
@@ -13014,25 +12663,25 @@
     </row>
     <row r="29" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="F29" s="10">
         <v>2</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H29" s="12">
         <v>200</v>
@@ -13046,25 +12695,25 @@
     </row>
     <row r="30" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="H30" s="12">
         <v>200</v>
@@ -13078,25 +12727,25 @@
     </row>
     <row r="31" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="F31" s="10">
         <v>2</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="H31" s="12">
         <v>200</v>
@@ -13110,25 +12759,25 @@
     </row>
     <row r="32" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="F32" s="10">
         <v>2</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H32" s="12">
         <v>200</v>
@@ -13142,25 +12791,25 @@
     </row>
     <row r="33" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H33" s="12">
         <v>200</v>
@@ -13174,25 +12823,25 @@
     </row>
     <row r="34" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H34" s="12">
         <v>200</v>
@@ -13206,25 +12855,25 @@
     </row>
     <row r="35" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H35" s="12">
         <v>200</v>
@@ -13238,25 +12887,25 @@
     </row>
     <row r="36" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H36" s="12">
         <v>200</v>
@@ -13270,25 +12919,25 @@
     </row>
     <row r="37" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="H37" s="12">
         <v>200</v>
@@ -13302,25 +12951,25 @@
     </row>
     <row r="38" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H38" s="12">
         <v>200</v>
@@ -13334,25 +12983,25 @@
     </row>
     <row r="39" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="H39" s="12">
         <v>200</v>
@@ -13366,25 +13015,25 @@
     </row>
     <row r="40" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="H40" s="12">
         <v>200</v>
@@ -13407,7 +13056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD40A695-640D-4069-93EC-24D7461E4F01}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -13432,7 +13081,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>25</v>
@@ -13453,207 +13102,207 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="18" t="s">
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="19">
-        <v>200</v>
-      </c>
-      <c r="F2" s="19">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="D2" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="16">
+        <v>200</v>
+      </c>
+      <c r="F2" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="14">
         <v>0</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="I2" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>748</v>
-      </c>
-      <c r="E3" s="19">
-        <v>200</v>
-      </c>
-      <c r="F3" s="19">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="D3" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="E3" s="16">
+        <v>200</v>
+      </c>
+      <c r="F3" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="14">
         <v>0</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="I3" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>749</v>
-      </c>
-      <c r="E4" s="19">
-        <v>200</v>
-      </c>
-      <c r="F4" s="19">
-        <v>100000</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="D4" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="E4" s="16">
+        <v>200</v>
+      </c>
+      <c r="F4" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14">
         <v>0</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="I4" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>750</v>
-      </c>
-      <c r="E5" s="19">
-        <v>200</v>
-      </c>
-      <c r="F5" s="19">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="17">
+      <c r="D5" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="E5" s="16">
+        <v>200</v>
+      </c>
+      <c r="F5" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14">
         <v>0</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="I5" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="19">
-        <v>200</v>
-      </c>
-      <c r="F6" s="19">
-        <v>100000</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="D6" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="16">
+        <v>200</v>
+      </c>
+      <c r="F6" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="14">
         <v>0</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="20" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="I6" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="19">
-        <v>200</v>
-      </c>
-      <c r="F7" s="19">
-        <v>100000</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="D7" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="16">
+        <v>200</v>
+      </c>
+      <c r="F7" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="14">
         <v>0</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="20" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="I7" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="19">
-        <v>200</v>
-      </c>
-      <c r="F8" s="19">
-        <v>100000</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="D8" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="16">
+        <v>200</v>
+      </c>
+      <c r="F8" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="14">
         <v>0</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>193</v>
+      <c r="I8" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFCFC9E-24B8-4962-B4EF-DA5876995D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7B4C6C-C2F4-43F4-9A06-844C3A25D981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="981">
   <si>
     <t>description</t>
   </si>
@@ -7870,24 +7870,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-  Floor(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    type
-    isPartOf_Building(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      type
-    }
-  }
-}</t>
-  </si>
-  <si>
     <t>Floor-&gt;Building</t>
   </si>
   <si>
@@ -8000,24 +7982,6 @@
   </si>
   <si>
     <t>Room-&gt;Floor</t>
-  </si>
-  <si>
-    <t>{
-  Room(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    type
-    isPartOf_Floor(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      type
-    }
-  }
-}</t>
   </si>
   <si>
     <t>{
@@ -8259,31 +8223,6 @@
     <t>CO2_Sensor-&gt;hasPointLocation_PointLocation-&gt;hasLocation_Room</t>
   </si>
   <si>
-    <t>{
- TVOC_Sensor(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    type
-    hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      type
-      hasLocation_Room(cond:"", authInfo:"", order:"")
-      {
-        sourceId
-        name
-        description
-        type
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
     <t>Object Brick ClassName:TVOC_Sensor
 Location Brick ClassName:Floor</t>
   </si>
@@ -8291,50 +8230,7 @@
     <t>TVOC_Sensor-&gt;hasPointLocation_PointLocation-&gt;hasLocation_Floor</t>
   </si>
   <si>
-    <t>{
-  TVOC_Sensor(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    type
-    hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      type
-      hasLocation_Floor(cond:"", authInfo:"", order:"")
-      {
-        sourceId
-        name
-        description
-        type
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
     <t>TVOC_Sensor-&gt;isPointOf_Thermostat</t>
-  </si>
-  <si>
-    <t>{
- TVOC_Sensor(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    type
-    isPointOf_Thermostat(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      type
-    }
-  }
-}</t>
   </si>
   <si>
     <t>Object Brick ClassName:TVOC_Sensor
@@ -8547,31 +8443,6 @@
     <t>Luminance_Sensor-&gt;hasPointLocation_PointLocation-&gt;hasLocation_Room</t>
   </si>
   <si>
-    <t>{
- Luminance_Sensor(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    type
-    hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      type
-      hasLocation_Room(cond:"", authInfo:"", order:"")
-      {
-        sourceId
-        name
-        description
-        type
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
     <t>Object Brick ClassName:Luminance_Sensor
 Location Brick ClassName:Floor</t>
   </si>
@@ -8579,31 +8450,6 @@
     <t>Luminance_Sensor-&gt;hasPointLocation_PointLocation-&gt;hasLocation_Floor</t>
   </si>
   <si>
-    <t>{
- Luminance_Sensor(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    type
-    hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      type
-      hasLocation_Floor(cond:"", authInfo:"", order:"")
-      {
-        sourceId
-        name
-        description
-        type
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
     <t>Occupancy_Status-&gt;isPointOf_Lighting</t>
   </si>
   <si>
@@ -8611,44 +8457,8 @@
 Equipment Brick ClassName:Lighting</t>
   </si>
   <si>
-    <t>{
- Luminance_Sensor(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    type
-    isPointOf_Lighting(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      type
-    }
-  }
-}</t>
-  </si>
-  <si>
     <t>Object Brick ClassName:Luminance_Sensor
 Equipment Brick ClassName:Thermostat</t>
-  </si>
-  <si>
-    <t>{
- Luminance_Sensor(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    type
-    isPointOf_Thermostat(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      type
-    }
-  }
-}</t>
   </si>
   <si>
     <t>Object Brick ClassName:Power_Sensor
@@ -9050,32 +8860,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-    "Luminance_Setpoint": [
-        {
-            "sourceId": "System1:GmsDevice_4_7130_1090519068.Present_Value",
-            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01.RSegm_7130.Lgt(1).",
-            "description": "灯光控制",
-            "type": "Luminance_Setpoint",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "73b97708f1404419a1e10b31baba725a",
-                    "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01.RSegm_7130.Lgt(1).",
-                    "description": "灯光控制",
-                    "type": "Luminance_Setpoint",
-                    "hasLocation_Room": {
-                        "sourceId": "2",
-                        "name": "Room_A",
-                        "description": "Meeting Room A",
-                        "type": "Room"
-                    }
-                }
-            ]
-        }
-    ]
-}</t>
-  </si>
-  <si>
     <t>Object Brick ClassName:Luminance_Setpoint
 Equipment Brick ClassName:Room_Controller_Unit</t>
   </si>
@@ -9098,24 +8882,6 @@
       type
     }
   }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "Luminance_Setpoint": [
-        {
-            "sourceId": "System1:GmsDevice_4_7130_1090519068.Present_Value",
-            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01.RSegm_7130.Lgt(1).",
-            "description": "灯光控制",
-            "type": "Luminance_Setpoint",
-            "isPointOf_Room_Controller_Unit": {
-                "sourceId": "System1:GmsDevice_4_7130_33561562",
-                "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130",
-                "description": "TRA controller",
-                "type": "Room_Controller_Unit"
-            }
-        }
-    ]
 }</t>
   </si>
   <si>
@@ -9735,63 +9501,6 @@
 }</t>
   </si>
   <si>
-    <t>Object Brick ClassName: GreenLeaf_Mode_Command
-Location Brick ClassName:Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GreenLeaf_Mode_Command-&gt;hasEquipmentLocation_EquipmentLocation-&gt;hasLocation_Room</t>
-  </si>
-  <si>
-    <t>{
-  GreenLeaf_Mode_Command(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    type
-    hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      type
-      hasLocation_Room(cond:"", authInfo:"", order:"")
-      {
-        sourceId
-        name
-        description
-        type
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>Object Brick ClassName:GreenLeaf_Mode_Command
-Equipment Brick ClassName:Room_Controller_Unit</t>
-  </si>
-  <si>
-    <t>GreenLeaf_Mode_Command-&gt;isPointOf_Room_Controller_Unit</t>
-  </si>
-  <si>
-    <t>{
- GreenLeaf_Mode_Command(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    name
-    description
-    type
-    isPointOf_Room_Controller_Unit(cond:"", authInfo:"", order:"")
-    {
-      sourceId
-      name
-      description
-      type
-    }
-  }
-}</t>
-  </si>
-  <si>
     <t>Object Brick ClassName: On_Off_Command
 Location Brick ClassName:Room</t>
   </si>
@@ -9824,44 +9533,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-    "On_Off_Command": [
-        {
-            "sourceId": "System1:GmsDevice_4_7130_121634954.HCclVlvPos_Present_Value",
-            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130HVACHCcl",
-            "description": "空调开关",
-            "type": "On_Off_Command",
-            "hasPointLocation_PointLocation": [
-                {
-                    "hasLocation_Room": {
-                        "sourceId": "2",
-                        "name": "Room_A",
-                        "description": "Meeting Room A",
-                        "type": "Room"
-                    }
-                }
-            ]
-        },
-        {
-            "sourceId": "System1:GmsDevice_4_7130_79692330.Present_Value",
-            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.C_7130SplyChwChovr2PipeCho2PipeModCmd",
-            "description": "空调开关",
-            "type": "On_Off_Command",
-            "hasPointLocation_PointLocation": [
-                {
-                    "hasLocation_Room": {
-                        "sourceId": "1",
-                        "name": "ssi",
-                        "description": "Room SSI",
-                        "type": "Room"
-                    }
-                }
-            ]
-        }
-    ]
-}</t>
-  </si>
-  <si>
     <t>Object Brick ClassName:On_Off_Command
 Equipment Brick ClassName:Room_Controller_Unit</t>
   </si>
@@ -9887,31 +9558,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-    "On_Off_Command": [
-        {
-            "sourceId": "System1:GmsDevice_4_7130_79692330.Present_Value",
-            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.C_7130SplyChwChovr2PipeCho2PipeModCmd",
-            "description": "空调开关",
-            "type": "On_Off_Command",
-            "isPointOf_Room_Controller_Unit": {
-                "sourceId": "System1:GmsDevice_1_7105",
-                "name": "System1:GmsDevice_1_7105",
-                "description": "ssi_TRA controller",
-                "type": "Room_Controller_Unit"
-            }
-        },
-        {
-            "sourceId": "System1:GmsDevice_4_7130_121634954.HCclVlvPos_Present_Value",
-            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130HVACHCcl",
-            "description": "空调开关",
-            "type": "On_Off_Command",
-            "isPointOf_Room_Controller_Unit": null
-        }
-    ]
-}</t>
-  </si>
-  <si>
     <t>Object Brick ClassName:On_Off_Command
 Equipment Brick ClassName:Thermostat</t>
   </si>
@@ -9934,31 +9580,6 @@
       type
     }
   }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "On_Off_Command": [
-        {
-            "sourceId": "System1:GmsDevice_4_7130_79692330.Present_Value",
-            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.C_7130SplyChwChovr2PipeCho2PipeModCmd",
-            "description": "空调开关",
-            "type": "On_Off_Command",
-            "isPointOf_Thermostat": null
-        },
-        {
-            "sourceId": "System1:GmsDevice_4_7130_121634954.HCclVlvPos_Present_Value",
-            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130HVACHCcl",
-            "description": "空调开关",
-            "type": "On_Off_Command",
-            "isPointOf_Thermostat": {
-                "sourceId": "Room_A_thermostat",
-                "name": "Room_A_thermostat",
-                "description": "房间A的温控面板",
-                "type": "Thermostat"
-            }
-        }
-    ]
 }</t>
   </si>
   <si>
@@ -11129,242 +10750,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-    "TVOC_Sensor": [
-        {
-            "sourceId": "24e124128a486491",
-            "name": "Floor_1.TVOC",
-            "description": "Building F Floor 1 TVOC Sensor 1",
-            "type": "TVOC_Sensor"
-        },
-        {
-            "sourceId": "mock_room3_TVOC_sensor_1",
-            "name": "mock_room3_TVOC_sensor_1",
-            "description": "室内TVOC",
-            "type": "TVOC_Sensor"
-        },
-        {
-            "sourceId": "mock_room4_TVOC_sensor_1",
-            "name": "mock_room4_TVOC_sensor_1",
-            "description": "室内TVOC",
-            "type": "TVOC_Sensor"
-        },
-        {
-            "sourceId": "24e124710b514794",
-            "name": "Floor_1.TVOC.2",
-            "description": "Building F Floor 1 TVOC Sensor 2",
-            "type": "TVOC_Sensor"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "TVOC_Sensor": [
-        {
-            "sourceId": "24e124128a486491",
-            "name": "Floor_1.TVOC",
-            "description": "Building F Floor 1 Pressure Sensor 1",
-            "type": "TVOC_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "87cebf00987844849ad130af5fe39971",
-                    "name": "Floor_1.TVOC",
-                    "description": "Building F Floor 1 Pressure Sensor 1",
-                    "type": "TVOC_Sensor",
-                    "hasLocation_Room": null
-                }
-            ]
-        },
-        {
-            "sourceId": "mock_room3_TVOC_sensor_1",
-            "name": "mock_room3_TVOC_sensor_1",
-            "description": "室内TVOC",
-            "type": "TVOC_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "b102b5f3b1294011ac212d641eff7eb9",
-                    "name": "mock_room3_TVOC_sensor_1",
-                    "description": "室内TVOC",
-                    "type": "TVOC_Sensor",
-                    "hasLocation_Room": {
-                        "sourceId": "3",
-                        "name": "Mock_Room_3",
-                        "description": "Floor 2 Room_3",
-                        "type": "Room"
-                    }
-                }
-            ]
-        },
-        {
-            "sourceId": "mock_room4_TVOC_sensor_1",
-            "name": "mock_room4_TVOC_sensor_1",
-            "description": "室内TVOC",
-            "type": "TVOC_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "04967aeef6bd4600bad7019be2b74a4e",
-                    "name": "mock_room4_TVOC_sensor_1",
-                    "description": "室内TVOC",
-                    "type": "TVOC_Sensor",
-                    "hasLocation_Room": {
-                        "sourceId": "4",
-                        "name": "Mock_Room_4",
-                        "description": "Floor 2 Room_4",
-                        "type": "Room"
-                    }
-                }
-            ]
-        },
-        {
-            "sourceId": "24e124710b514794",
-            "name": "Floor_1.TVOC.2",
-            "description": "Building F Floor 1 TVOC Sensor 2",
-            "type": "TVOC_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "7d08b8c7001340de8843257ebc3bcba2",
-                    "name": "Floor_1.TVOC.2",
-                    "description": "Building F Floor 1 TVOC Sensor 2",
-                    "hasLocation_Room": null,
-                    "type": "TVOC_Sensor"
-                }
-            ]
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "TVOC_Sensor": [
-        {
-            "sourceId": "24e124128a486491",
-            "name": "Floor_1.TVOC",
-            "description": "Building F Floor 1 Pressure Sensor 1",
-            "type": "TVOC_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "87cebf00987844849ad130af5fe39971",
-                    "name": "Floor_1.TVOC",
-                    "description": "Building F Floor 1 Pressure Sensor 1",
-                    "type": "TVOC_Sensor",
-                    "hasLocation_Floor": {
-                        "sourceId": "1",
-                        "name": "Floor_1",
-                        "description": "Floor 1",
-                        "type": "Floor"
-                    }
-                }
-            ]
-        },
-        {
-            "sourceId": "mock_room3_TVOC_sensor_1",
-            "name": "mock_room3_TVOC_sensor_1",
-            "description": "室内TVOC",
-            "type": "TVOC_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "b102b5f3b1294011ac212d641eff7eb9",
-                    "name": "mock_room3_TVOC_sensor_1",
-                    "description": "室内TVOC",
-                    "type": "TVOC_Sensor",
-                    "hasLocation_Floor": null
-                }
-            ]
-        },
-        {
-            "sourceId": "mock_room4_TVOC_sensor_1",
-            "name": "mock_room4_TVOC_sensor_1",
-            "description": "室内TVOC",
-            "type": "TVOC_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "04967aeef6bd4600bad7019be2b74a4e",
-                    "name": "mock_room4_TVOC_sensor_1",
-                    "description": "室内TVOC",
-                    "type": "TVOC_Sensor",
-                    "hasLocation_Floor": null
-                }
-            ]
-        },
-        {
-            "sourceId": "24e124710b514794",
-            "name": "Floor_1.TVOC.2",
-            "description": "Building F Floor 1 TVOC Sensor 2",
-            "type": "TVOC_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "7d08b8c7001340de8843257ebc3bcba2",
-                    "hasLocation_Floor": {
-                        "sourceId": "1",
-                        "name": "Floor_1",
-                        "description": "Floor 1",
-                        "type": "Floor"
-                    },
-                    "name": "Floor_1.TVOC.2",
-                    "description": "Building F Floor 1 TVOC Sensor 2",
-                    "type": "TVOC_Sensor"
-                }
-            ]
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "TVOC_Sensor": [
-        {
-            "sourceId": "24e124128a486491",
-            "name": "Floor_1.TVOC",
-            "description": "Building F Floor 1 Pressure Sensor 1",
-            "type": "TVOC_Sensor",
-            "isPointOf_Thermostat": {
-                "sourceId": "Floor_1.OA.ES",
-                "name": "Floor_1.OA.ES",
-                "description": "Building F Floor 1 Environment Sensor",
-                "type": "Thermostat"
-            }
-        },
-        {
-            "sourceId": "mock_room3_TVOC_sensor_1",
-            "name": "mock_room3_TVOC_sensor_1",
-            "description": "室内TVOC",
-            "type": "TVOC_Sensor",
-            "isPointOf_Thermostat": {
-                "sourceId": "mock_room3_thermostat",
-                "name": "mock_room3_thermostat",
-                "description": "控制面板",
-                "type": "Thermostat"
-            }
-        },
-        {
-            "sourceId": "mock_room4_TVOC_sensor_1",
-            "name": "mock_room4_TVOC_sensor_1",
-            "description": "室内TVOC",
-            "type": "TVOC_Sensor",
-            "isPointOf_Thermostat": {
-                "sourceId": "mock_room3_thermostat",
-                "name": "mock_room3_thermostat",
-                "description": "控制面板",
-                "type": "Thermostat"
-            }
-        },
-        {
-            "sourceId": "24e124710b514794",
-            "isPointOf_Thermostat": {
-                "sourceId": "Floor_1.OA.ES2",
-                "name": "Floor_1.OA.ES2",
-                "description": "Building F Floor 1 Environment Sensor 2",
-                "type": "Thermostat"
-            },
-            "name": "Floor_1.TVOC.2",
-            "description": "Building F Floor 1 TVOC Sensor 2",
-            "type": "TVOC_Sensor"
-        }
-    ]
-}</t>
-  </si>
-  <si>
     <t>Object Brick ClassName:PM25_Sensor
 Location Brick ClassName:Floor</t>
   </si>
@@ -11821,192 +11206,6 @@
         },
         {
             "sourceId": "24e124710b514794",
-            "name": "Floor_1.Luminance.2",
-            "description": "Building F Floor 1 Luminance Sensor 2",
-            "type": "Luminance_Sensor"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "Luminance_Sensor": [
-        {
-            "sourceId": "2",
-            "name": "Room_A_fixture_2_Luminance",
-            "description": "Sensor48c775 Luminance",
-            "type": "Luminance_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "e5f0eb45ff8f47dd800214e56a2b6eef",
-                    "name": "Room_A_fixture_2_Luminance",
-                    "description": "Sensor48c775 Luminance",
-                    "type": "Luminance_Sensor",
-                    "hasLocation_Room": {
-                        "sourceId": "1",
-                        "name": "ssi",
-                        "description": "Room SSI",
-                        "type": "Room"
-                    }
-                }
-            ]
-        },
-        {
-            "sourceId": "24e124128a486491",
-            "name": "Floor_1.Luminance",
-            "description": "Building F Floor 1 Pressure Sensor 1",
-            "type": "Luminance_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "394edf421c4a43da941b9002bc942f60",
-                    "name": "Floor_1.Luminance",
-                    "description": "Building F Floor 1 Pressure Sensor 1",
-                    "type": "Luminance_Sensor",
-                    "hasLocation_Room": null
-                }
-            ]
-        },
-        {
-            "sourceId": "24e124710b514794",
-            "name": "Floor_1.Luminance.2",
-            "description": "Building F Floor 1 Luminance Sensor 2",
-            "type": "Luminance_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "b8a6aa3cde244e3a9a25d7af1bdde406",
-                    "name": "Floor_1.Luminance.2",
-                    "description": "Building F Floor 1 Luminance Sensor 2",
-                    "hasLocation_Room": null,
-                    "type": "Luminance_Sensor"
-                }
-            ]
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "Luminance_Sensor": [
-        {
-            "sourceId": "2",
-            "name": "Room_A_fixture_2_Luminance",
-            "description": "Sensor48c775 Luminance",
-            "type": "Luminance_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "e5f0eb45ff8f47dd800214e56a2b6eef",
-                    "name": "Room_A_fixture_2_Luminance",
-                    "description": "Sensor48c775 Luminance",
-                    "type": "Luminance_Sensor",
-                    "hasLocation_Floor": null
-                }
-            ]
-        },
-        {
-            "sourceId": "24e124128a486491",
-            "name": "Floor_1.Luminance",
-            "description": "Building F Floor 1 Pressure Sensor 1",
-            "type": "Luminance_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "394edf421c4a43da941b9002bc942f60",
-                    "name": "Floor_1.Luminance",
-                    "description": "Building F Floor 1 Pressure Sensor 1",
-                    "type": "Luminance_Sensor",
-                    "hasLocation_Floor": {
-                        "sourceId": "1",
-                        "name": "Floor_1",
-                        "description": "Floor 1",
-                        "type": "Floor"
-                    }
-                }
-            ]
-        },
-        {
-            "sourceId": "24e124710b514794",
-            "name": "Floor_1.Luminance.2",
-            "description": "Building F Floor 1 Luminance Sensor 2",
-            "type": "Luminance_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "b8a6aa3cde244e3a9a25d7af1bdde406",
-                    "hasLocation_Floor": {
-                        "sourceId": "1",
-                        "name": "Floor_1",
-                        "description": "Floor 1",
-                        "type": "Floor"
-                    },
-                    "name": "Floor_1.Luminance.2",
-                    "description": "Building F Floor 1 Luminance Sensor 2",
-                    "type": "Luminance_Sensor"
-                }
-            ]
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "Luminance_Sensor": [
-        {
-            "sourceId": "2",
-            "name": "Room_A_fixture_2_Luminance",
-            "description": "Sensor48c775 Luminance",
-            "type": "Luminance_Sensor",
-            "isPointOf_Lighting": {
-                "sourceId": "2",
-                "name": "Room_A_fixture_2",
-                "description": "Building F Floor 1 Room A Lighting Fixture",
-                "type": "Lighting"
-            }
-        },
-        {
-            "sourceId": "24e124128a486491",
-            "name": "Floor_1.Luminance",
-            "description": "Building F Floor 1 Pressure Sensor 1",
-            "type": "Luminance_Sensor",
-            "isPointOf_Lighting": null
-        },
-        {
-            "sourceId": "24e124710b514794",
-            "name": "Floor_1.Luminance.2",
-            "isPointOf_Lighting": null,
-            "description": "Building F Floor 1 Luminance Sensor 2",
-            "type": "Luminance_Sensor"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "Luminance_Sensor": [
-        {
-            "sourceId": "2",
-            "name": "Room_A_fixture_2_Luminance",
-            "description": "Sensor48c775 Luminance",
-            "type": "Luminance_Sensor",
-            "isPointOf_Thermostat": null
-        },
-        {
-            "sourceId": "24e124128a486491",
-            "name": "Floor_1.Luminance",
-            "description": "Building F Floor 1 Pressure Sensor 1",
-            "type": "Luminance_Sensor",
-            "isPointOf_Thermostat": {
-                "sourceId": "Floor_1.OA.ES",
-                "name": "Floor_1.OA.ES",
-                "description": "Building F Floor 1 Environment Sensor",
-                "type": "Thermostat"
-            }
-        },
-        {
-            "sourceId": "24e124710b514794",
-            "isPointOf_Thermostat": {
-                "sourceId": "Floor_1.OA.ES2",
-                "name": "Floor_1.OA.ES2",
-                "description": "Building F Floor 1 Environment Sensor 2",
-                "type": "Thermostat"
-            },
             "name": "Floor_1.Luminance.2",
             "description": "Building F Floor 1 Luminance Sensor 2",
             "type": "Luminance_Sensor"
@@ -13013,6 +12212,867 @@
       type
     }
   }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "On_Off_Command": [
+        {
+            "sourceId": "System1:GmsDevice_4_7130_121634870.PltOpMod_Relinquish_Default",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.C_7130SplyChwChovr2PipeCho2PipeModCmd",
+            "description": "空调开关",
+            "type": "On_Off_Command"
+        },
+        {
+            "sourceId": "System1:GmsDevice_4_7130_16777322.Present_Value",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130HCcVlv",
+            "description": "空调开关",
+            "type": "On_Off_Command"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Mode_Command": [
+        {
+            "sourceId": "GmsDevice_1_7105_29360128.Present_Value",
+            "name": "System1:GmsDevice_1_7105_29360128.Present_Value",
+            "description": "会议模式",
+            "type": "Mode_Command"
+        },
+        {
+            "sourceId": "System1:GmsDevice_4_7130_79692331.Present_Value",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.C_7130WinSum",
+            "description": "空调模式",
+            "type": "Mode_Command"
+        },
+        {
+            "sourceId": "System1:GmsDevice_4_7130_29360128.Present_Value",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01.R_7130.RHvacCoo.PltModDtr",
+            "description": "会议模式",
+            "type": "Mode_Command"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "On_Off_Command": [
+        {
+            "sourceId": "System1:GmsDevice_4_7130_121634870.PltOpMod_Relinquish_Default",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.C_7130SplyChwChovr2PipeCho2PipeModCmd",
+            "description": "空调开关",
+            "type": "On_Off_Command",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "97b0b3583cfe4314b393afdc2f8f8b3e",
+                    "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.C_7130SplyChwChovr2PipeCho2PipeModCmd",
+                    "description": "空调开关",
+                    "hasLocation_Room": {
+                        "sourceId": "1",
+                        "name": "ssi",
+                        "description": "Room SSI",
+                        "type": "Room"
+                    },
+                    "type": "On_Off_Command"
+                }
+            ]
+        },
+        {
+            "sourceId": "System1:GmsDevice_4_7130_16777322.Present_Value",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130HCcVlv",
+            "description": "空调开关",
+            "type": "On_Off_Command",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "cae2fadb2c3d471996e0f12ccee4d8a2",
+                    "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130HCcVlv",
+                    "description": "空调开关",
+                    "hasLocation_Room": {
+                        "sourceId": "1",
+                        "name": "ssi",
+                        "description": "Room SSI",
+                        "type": "Room"
+                    },
+                    "type": "On_Off_Command"
+                }
+            ]
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "On_Off_Command": [
+        {
+            "sourceId": "System1:GmsDevice_4_7130_121634870.PltOpMod_Relinquish_Default",
+            "isPointOf_Thermostat": null,
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.C_7130SplyChwChovr2PipeCho2PipeModCmd",
+            "description": "空调开关",
+            "type": "On_Off_Command"
+        },
+        {
+            "sourceId": "System1:GmsDevice_4_7130_16777322.Present_Value",
+            "isPointOf_Thermostat": {
+                "sourceId": "Room_A_thermostat",
+                "name": "Room_A_thermostat",
+                "description": "房间A的温控面板",
+                "type": "Thermostat"
+            },
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130HCcVlv",
+            "description": "空调开关",
+            "type": "On_Off_Command"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "On_Off_Command": [
+        {
+            "sourceId": "System1:GmsDevice_4_7130_121634870.PltOpMod_Relinquish_Default",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.C_7130SplyChwChovr2PipeCho2PipeModCmd",
+            "description": "空调开关",
+            "isPointOf_Room_Controller_Unit": {
+                "sourceId": "System1:GmsDevice_1_7105",
+                "name": "System1:GmsDevice_1_7105",
+                "description": "ssi_TRA controller",
+                "type": "Room_Controller_Unit"
+            },
+            "type": "On_Off_Command"
+        },
+        {
+            "sourceId": "System1:GmsDevice_4_7130_16777322.Present_Value",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130HCcVlv",
+            "description": "空调开关",
+            "isPointOf_Room_Controller_Unit": null,
+            "type": "On_Off_Command"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  TVOC_Sensor(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+ TVOC_Sensor(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+    hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      type
+      hasLocation_Room(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        name
+        description
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  TVOC_Sensor(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+    hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      type
+      hasLocation_Floor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        name
+        description
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+ TVOC_Sensor(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+    isPointOf_Thermostat(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "TVOC_Sensor": [
+        {
+            "sourceId": "24e124128a486491",
+            "name": "Floor_1.TVOC",
+            "description": "Building F Floor 1 TVOC Sensor 1",
+            "type": "TVOC_Sensor"
+        },
+        {
+            "sourceId": "24e124710b514794",
+            "name": "Floor_1.TVOC.2",
+            "description": "Building F Floor 1 TVOC Sensor 2",
+            "type": "TVOC_Sensor"
+        },
+        {
+            "sourceId": "mock_room3_TVOC_sensor_1",
+            "name": "mock_room3_TVOC_sensor_1",
+            "description": "室内TVOC",
+            "type": "TVOC_Sensor"
+        },
+        {
+            "sourceId": "mock_room4_TVOC_sensor_1",
+            "name": "mock_room4_TVOC_sensor_1",
+            "description": "室内TVOC",
+            "type": "TVOC_Sensor"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+    isPartOf_Building(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Room(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Room(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+    isPartOf_Floor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Luminance_Sensor(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+ Luminance_Sensor(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+    hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      type
+      hasLocation_Room(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        name
+        description
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+ Luminance_Sensor(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+    hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      type
+      hasLocation_Floor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        name
+        description
+        type
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+ Luminance_Sensor(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+    isPointOf_Lighting(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+ Luminance_Sensor(cond:"", authInfo:"", order:"sourceId ASC")
+  {
+    sourceId
+    name
+    description
+    type
+    isPointOf_Thermostat(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      name
+      description
+      type
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Setpoint": [
+        {
+            "sourceId": "System1:GmsDevice_4_7130_1090519068.Present_Value",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130LgtDev(1)LgtCmd(1)",
+            "description": "灯光控制",
+            "type": "Luminance_Setpoint",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "73b97708f1404419a1e10b31baba725a",
+                    "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01.RSegm_7130.Lgt(1).",
+                    "description": "灯光控制",
+                    "hasLocation_Room": {
+                        "sourceId": "2",
+                        "name": "Room_A",
+                        "description": "Meeting Room A",
+                        "type": "Room"
+                    },
+                    "type": "Luminance_Setpoint"
+                }
+            ]
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Setpoint": [
+        {
+            "sourceId": "System1:GmsDevice_4_7130_1090519068.Present_Value",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130LgtDev(1)LgtCmd(1)",
+            "description": "灯光控制",
+            "isPointOf_Room_Controller_Unit": {
+                "sourceId": "System1:GmsDevice_4_7130_33561562",
+                "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130",
+                "description": "TRA controller",
+                "type": "Room_Controller_Unit"
+            },
+            "type": "Luminance_Setpoint"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "TVOC_Sensor": [
+        {
+            "sourceId": "24e124128a486491",
+            "name": "Floor_1.TVOC",
+            "description": "Building F Floor 1 TVOC Sensor 1",
+            "type": "TVOC_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "87cebf00987844849ad130af5fe39971",
+                    "name": "Floor_1.TVOC",
+                    "description": "Building F Floor 1 Pressure Sensor 1",
+                    "type": "TVOC_Sensor",
+                    "hasLocation_Room": null
+                }
+            ]
+        },
+        {
+            "sourceId": "24e124710b514794",
+            "name": "Floor_1.TVOC.2",
+            "description": "Building F Floor 1 TVOC Sensor 2",
+            "type": "TVOC_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "7d08b8c7001340de8843257ebc3bcba2",
+                    "name": "Floor_1.TVOC.2",
+                    "description": "Building F Floor 1 TVOC Sensor 2",
+                    "hasLocation_Room": null,
+                    "type": "TVOC_Sensor"
+                }
+            ]
+        },
+        {
+            "sourceId": "mock_room3_TVOC_sensor_1",
+            "name": "mock_room3_TVOC_sensor_1",
+            "description": "室内TVOC",
+            "type": "TVOC_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "b102b5f3b1294011ac212d641eff7eb9",
+                    "name": "mock_room3_TVOC_sensor_1",
+                    "description": "室内TVOC",
+                    "type": "TVOC_Sensor",
+                    "hasLocation_Room": {
+                        "sourceId": "3",
+                        "name": "Mock_Room_3",
+                        "description": "Floor 2 Room_3",
+                        "type": "Room"
+                    }
+                }
+            ]
+        },
+        {
+            "sourceId": "mock_room4_TVOC_sensor_1",
+            "name": "mock_room4_TVOC_sensor_1",
+            "description": "室内TVOC",
+            "type": "TVOC_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "04967aeef6bd4600bad7019be2b74a4e",
+                    "name": "mock_room4_TVOC_sensor_1",
+                    "description": "室内TVOC",
+                    "type": "TVOC_Sensor",
+                    "hasLocation_Room": {
+                        "sourceId": "4",
+                        "name": "Mock_Room_4",
+                        "description": "Floor 2 Room_4",
+                        "type": "Room"
+                    }
+                }
+            ]
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "TVOC_Sensor": [
+        {
+            "sourceId": "24e124128a486491",
+            "name": "Floor_1.TVOC",
+            "description": "Building F Floor 1 TVOC Sensor 1",
+            "type": "TVOC_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "87cebf00987844849ad130af5fe39971",
+                    "name": "Floor_1.TVOC",
+                    "description": "Building F Floor 1 Pressure Sensor 1",
+                    "type": "TVOC_Sensor",
+                    "hasLocation_Floor": {
+                        "sourceId": "1",
+                        "name": "Floor_1",
+                        "description": "Floor 1",
+                        "type": "Floor"
+                    }
+                }
+            ]
+        },
+        {
+            "sourceId": "24e124710b514794",
+            "name": "Floor_1.TVOC.2",
+            "description": "Building F Floor 1 TVOC Sensor 2",
+            "type": "TVOC_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "7d08b8c7001340de8843257ebc3bcba2",
+                    "hasLocation_Floor": {
+                        "sourceId": "1",
+                        "name": "Floor_1",
+                        "description": "Floor 1",
+                        "type": "Floor"
+                    },
+                    "name": "Floor_1.TVOC.2",
+                    "description": "Building F Floor 1 TVOC Sensor 2",
+                    "type": "TVOC_Sensor"
+                }
+            ]
+        },
+        {
+            "sourceId": "mock_room3_TVOC_sensor_1",
+            "name": "mock_room3_TVOC_sensor_1",
+            "description": "室内TVOC",
+            "type": "TVOC_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "b102b5f3b1294011ac212d641eff7eb9",
+                    "name": "mock_room3_TVOC_sensor_1",
+                    "description": "室内TVOC",
+                    "type": "TVOC_Sensor",
+                    "hasLocation_Floor": null
+                }
+            ]
+        },
+        {
+            "sourceId": "mock_room4_TVOC_sensor_1",
+            "name": "mock_room4_TVOC_sensor_1",
+            "description": "室内TVOC",
+            "type": "TVOC_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "04967aeef6bd4600bad7019be2b74a4e",
+                    "name": "mock_room4_TVOC_sensor_1",
+                    "description": "室内TVOC",
+                    "type": "TVOC_Sensor",
+                    "hasLocation_Floor": null
+                }
+            ]
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "TVOC_Sensor": [
+        {
+            "sourceId": "24e124128a486491",
+            "name": "Floor_1.TVOC",
+            "description": "Building F Floor 1 TVOC Sensor 1",
+            "type": "TVOC_Sensor",
+            "isPointOf_Thermostat": {
+                "sourceId": "Floor_1.OA.ES",
+                "name": "Floor_1.OA.ES",
+                "description": "Building F Floor 1 Environment Sensor",
+                "type": "Thermostat"
+            }
+        },
+        {
+            "sourceId": "24e124710b514794",
+            "isPointOf_Thermostat": {
+                "sourceId": "Floor_1.OA.ES2",
+                "name": "Floor_1.OA.ES2",
+                "description": "Building F Floor 1 Environment Sensor 2",
+                "type": "Thermostat"
+            },
+            "name": "Floor_1.TVOC.2",
+            "description": "Building F Floor 1 TVOC Sensor 2",
+            "type": "TVOC_Sensor"
+        },
+        {
+            "sourceId": "mock_room3_TVOC_sensor_1",
+            "name": "mock_room3_TVOC_sensor_1",
+            "description": "室内TVOC",
+            "type": "TVOC_Sensor",
+            "isPointOf_Thermostat": {
+                "sourceId": "mock_room3_thermostat",
+                "name": "mock_room3_thermostat",
+                "description": "控制面板",
+                "type": "Thermostat"
+            }
+        },
+        {
+            "sourceId": "mock_room4_TVOC_sensor_1",
+            "name": "mock_room4_TVOC_sensor_1",
+            "description": "室内TVOC",
+            "type": "TVOC_Sensor",
+            "isPointOf_Thermostat": {
+                "sourceId": "mock_room3_thermostat",
+                "name": "mock_room3_thermostat",
+                "description": "控制面板",
+                "type": "Thermostat"
+            }
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Sensor": [
+        {
+            "sourceId": "2",
+            "name": "Room_A_fixture_2_Luminance",
+            "description": "Sensor48c775 Luminance",
+            "type": "Luminance_Sensor",
+            "isPointOf_Lighting": {
+                "sourceId": "2",
+                "name": "Room_A_fixture_2",
+                "description": "Building F Floor 1 Room A Lighting Fixture",
+                "type": "Lighting"
+            }
+        },
+        {
+            "sourceId": "24e124128a486491",
+            "name": "Floor_1.Luminance",
+            "description": "Building F Floor 1 Luminance Sensor 1",
+            "type": "Luminance_Sensor",
+            "isPointOf_Lighting": null
+        },
+        {
+            "sourceId": "24e124710b514794",
+            "name": "Floor_1.Luminance.2",
+            "isPointOf_Lighting": null,
+            "description": "Building F Floor 1 Luminance Sensor 2",
+            "type": "Luminance_Sensor"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Sensor": [
+        {
+            "sourceId": "2",
+            "name": "Room_A_fixture_2_Luminance",
+            "description": "Sensor48c775 Luminance",
+            "type": "Luminance_Sensor",
+            "isPointOf_Thermostat": null
+        },
+        {
+            "sourceId": "24e124128a486491",
+            "name": "Floor_1.Luminance",
+            "description": "Building F Floor 1 Luminance Sensor 1",
+            "type": "Luminance_Sensor",
+            "isPointOf_Thermostat": {
+                "sourceId": "Floor_1.OA.ES",
+                "name": "Floor_1.OA.ES",
+                "description": "Building F Floor 1 Environment Sensor",
+                "type": "Thermostat"
+            }
+        },
+        {
+            "sourceId": "24e124710b514794",
+            "isPointOf_Thermostat": {
+                "sourceId": "Floor_1.OA.ES2",
+                "name": "Floor_1.OA.ES2",
+                "description": "Building F Floor 1 Environment Sensor 2",
+                "type": "Thermostat"
+            },
+            "name": "Floor_1.Luminance.2",
+            "description": "Building F Floor 1 Luminance Sensor 2",
+            "type": "Luminance_Sensor"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Sensor": [
+        {
+            "sourceId": "2",
+            "name": "Room_A_fixture_2_Luminance",
+            "description": "Sensor48c775 Luminance",
+            "type": "Luminance_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "e5f0eb45ff8f47dd800214e56a2b6eef",
+                    "name": "Room_A_fixture_2_Luminance",
+                    "description": "Sensor48c775 Luminance",
+                    "type": "Luminance_Sensor",
+                    "hasLocation_Room": {
+                        "sourceId": "1",
+                        "name": "ssi",
+                        "description": "Room SSI",
+                        "type": "Room"
+                    }
+                }
+            ]
+        },
+        {
+            "sourceId": "24e124128a486491",
+            "name": "Floor_1.Luminance",
+            "description": "Building F Floor 1 Luminance Sensor 1",
+            "type": "Luminance_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "394edf421c4a43da941b9002bc942f60",
+                    "name": "Floor_1.Luminance",
+                    "description": "Building F Floor 1 Luminance Sensor 1",
+                    "type": "Luminance_Sensor",
+                    "hasLocation_Room": null
+                }
+            ]
+        },
+        {
+            "sourceId": "24e124710b514794",
+            "name": "Floor_1.Luminance.2",
+            "description": "Building F Floor 1 Luminance Sensor 2",
+            "type": "Luminance_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "b8a6aa3cde244e3a9a25d7af1bdde406",
+                    "name": "Floor_1.Luminance.2",
+                    "description": "Building F Floor 1 Luminance Sensor 2",
+                    "hasLocation_Room": null,
+                    "type": "Luminance_Sensor"
+                }
+            ]
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Setpoint": [
+        {
+            "sourceId": "System1:GmsDevice_4_7130_1090519068.Present_Value",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130LgtDev(1)LgtCmd(1)",
+            "description": "灯光控制",
+            "type": "Luminance_Setpoint"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Sensor": [
+        {
+            "sourceId": "2",
+            "name": "Room_A_fixture_2_Luminance",
+            "description": "Sensor48c775 Luminance",
+            "type": "Luminance_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "e5f0eb45ff8f47dd800214e56a2b6eef",
+                    "name": "Room_A_fixture_2_Luminance",
+                    "description": "Sensor48c775 Luminance",
+                    "type": "Luminance_Sensor",
+                    "hasLocation_Floor": null
+                }
+            ]
+        },
+        {
+            "sourceId": "24e124128a486491",
+            "name": "Floor_1.Luminance",
+            "description": "Building F Floor 1 Luminance Sensor 1",
+            "type": "Luminance_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "394edf421c4a43da941b9002bc942f60",
+                    "name": "Floor_1.Luminance",
+                    "description": "Building F Floor 1 Luminance Sensor 1",
+                    "type": "Luminance_Sensor",
+                    "hasLocation_Floor": {
+                        "sourceId": "1",
+                        "name": "Floor_1",
+                        "description": "Floor 1",
+                        "type": "Floor"
+                    }
+                }
+            ]
+        },
+        {
+            "sourceId": "24e124710b514794",
+            "name": "Floor_1.Luminance.2",
+            "description": "Building F Floor 1 Luminance Sensor 2",
+            "type": "Luminance_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "b8a6aa3cde244e3a9a25d7af1bdde406",
+                    "hasLocation_Floor": {
+                        "sourceId": "1",
+                        "name": "Floor_1",
+                        "description": "Floor 1",
+                        "type": "Floor"
+                    },
+                    "name": "Floor_1.Luminance.2",
+                    "description": "Building F Floor 1 Luminance Sensor 2",
+                    "type": "Luminance_Sensor"
+                }
+            ]
+        }
+    ]
 }</t>
   </si>
 </sst>
@@ -14177,7 +14237,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -14640,7 +14700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0352065E-A492-4697-9ECD-EE7D11A409C6}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -16694,10 +16754,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F94A0E-3E5A-465F-85BB-464079354C32}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="C38" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16750,7 +16810,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>228</v>
+        <v>961</v>
       </c>
       <c r="E2" s="12">
         <v>200</v>
@@ -16776,7 +16836,7 @@
         <v>232</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>229</v>
+        <v>962</v>
       </c>
       <c r="E3" s="12">
         <v>200</v>
@@ -16796,25 +16856,25 @@
         <v>241</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="E4" s="12">
+        <v>200</v>
+      </c>
+      <c r="F4" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>728</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E4" s="12">
-        <v>200</v>
-      </c>
-      <c r="F4" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -16828,7 +16888,7 @@
         <v>235</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>234</v>
+        <v>964</v>
       </c>
       <c r="E5" s="12">
         <v>200</v>
@@ -16848,13 +16908,13 @@
         <v>243</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>732</v>
+        <v>965</v>
       </c>
       <c r="E6" s="12">
         <v>200</v>
@@ -16866,7 +16926,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -16892,7 +16952,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>934</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -16900,13 +16960,13 @@
         <v>250</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E8" s="12">
         <v>200</v>
@@ -16918,7 +16978,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -16926,13 +16986,13 @@
         <v>251</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E9" s="12">
         <v>200</v>
@@ -16944,7 +17004,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>931</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -16952,13 +17012,13 @@
         <v>261</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>743</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E10" s="12">
         <v>200</v>
@@ -16970,7 +17030,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>932</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -16978,13 +17038,13 @@
         <v>262</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E11" s="12">
         <v>200</v>
@@ -16996,7 +17056,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17022,7 +17082,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>935</v>
+        <v>915</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17030,13 +17090,13 @@
         <v>270</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>966</v>
+        <v>938</v>
       </c>
       <c r="E13" s="12">
         <v>200</v>
@@ -17048,7 +17108,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>965</v>
+        <v>937</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17056,13 +17116,13 @@
         <v>271</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>750</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>967</v>
+        <v>939</v>
       </c>
       <c r="E14" s="12">
         <v>200</v>
@@ -17074,7 +17134,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>969</v>
+        <v>941</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17082,13 +17142,13 @@
         <v>272</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>968</v>
+        <v>940</v>
       </c>
       <c r="E15" s="12">
         <v>200</v>
@@ -17100,7 +17160,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>970</v>
+        <v>942</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17126,7 +17186,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17134,13 +17194,13 @@
         <v>274</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E17" s="12">
         <v>200</v>
@@ -17152,7 +17212,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>937</v>
+        <v>917</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17160,13 +17220,13 @@
         <v>275</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E18" s="12">
         <v>200</v>
@@ -17178,7 +17238,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>938</v>
+        <v>918</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17186,14 +17246,14 @@
         <v>276</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>759</v>
-      </c>
       <c r="E19" s="12">
         <v>200</v>
       </c>
@@ -17204,7 +17264,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17218,7 +17278,7 @@
         <v>247</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>246</v>
+        <v>956</v>
       </c>
       <c r="E20" s="12">
         <v>200</v>
@@ -17230,7 +17290,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17238,13 +17298,13 @@
         <v>277</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>764</v>
+        <v>957</v>
       </c>
       <c r="E21" s="12">
         <v>200</v>
@@ -17256,7 +17316,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>941</v>
+        <v>973</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17264,13 +17324,13 @@
         <v>278</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>767</v>
+        <v>958</v>
       </c>
       <c r="E22" s="12">
         <v>200</v>
@@ -17282,7 +17342,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>942</v>
+        <v>974</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17290,13 +17350,13 @@
         <v>279</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>769</v>
+        <v>959</v>
       </c>
       <c r="E23" s="12">
         <v>200</v>
@@ -17308,7 +17368,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>943</v>
+        <v>975</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17334,7 +17394,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>945</v>
+        <v>921</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17342,13 +17402,13 @@
         <v>328</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E25" s="12">
         <v>200</v>
@@ -17360,7 +17420,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>946</v>
+        <v>922</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17368,13 +17428,13 @@
         <v>329</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>944</v>
+        <v>920</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>962</v>
+        <v>934</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>963</v>
+        <v>935</v>
       </c>
       <c r="E26" s="12">
         <v>200</v>
@@ -17386,7 +17446,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>964</v>
+        <v>936</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17394,13 +17454,13 @@
         <v>330</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="E27" s="12">
         <v>200</v>
@@ -17412,7 +17472,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>947</v>
+        <v>923</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17438,7 +17498,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>948</v>
+        <v>924</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17446,13 +17506,13 @@
         <v>404</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E29" s="12">
         <v>200</v>
@@ -17464,7 +17524,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>949</v>
+        <v>925</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17472,13 +17532,13 @@
         <v>405</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E30" s="12">
         <v>200</v>
@@ -17490,7 +17550,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>950</v>
+        <v>926</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17516,7 +17576,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>951</v>
+        <v>927</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17524,13 +17584,13 @@
         <v>407</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E32" s="12">
         <v>200</v>
@@ -17542,7 +17602,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>952</v>
+        <v>928</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17550,13 +17610,13 @@
         <v>408</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E33" s="12">
         <v>200</v>
@@ -17568,7 +17628,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>953</v>
+        <v>929</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17582,7 +17642,7 @@
         <v>268</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>975</v>
+        <v>947</v>
       </c>
       <c r="E34" s="12">
         <v>200</v>
@@ -17594,7 +17654,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>971</v>
+        <v>943</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17602,13 +17662,13 @@
         <v>410</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>976</v>
+        <v>948</v>
       </c>
       <c r="E35" s="12">
         <v>200</v>
@@ -17620,7 +17680,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>972</v>
+        <v>944</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17628,13 +17688,13 @@
         <v>411</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>977</v>
+        <v>949</v>
       </c>
       <c r="E36" s="12">
         <v>200</v>
@@ -17646,7 +17706,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>973</v>
+        <v>945</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17654,13 +17714,13 @@
         <v>412</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>978</v>
+        <v>950</v>
       </c>
       <c r="E37" s="12">
         <v>200</v>
@@ -17672,7 +17732,7 @@
         <v>10</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>974</v>
+        <v>946</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17686,7 +17746,7 @@
         <v>281</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>282</v>
+        <v>966</v>
       </c>
       <c r="E38" s="12">
         <v>200</v>
@@ -17698,7 +17758,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>954</v>
+        <v>930</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17706,13 +17766,13 @@
         <v>414</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>797</v>
+        <v>967</v>
       </c>
       <c r="E39" s="12">
         <v>200</v>
@@ -17724,7 +17784,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>955</v>
+        <v>978</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17732,13 +17792,13 @@
         <v>415</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>800</v>
+        <v>968</v>
       </c>
       <c r="E40" s="12">
         <v>200</v>
@@ -17750,7 +17810,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>956</v>
+        <v>980</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17758,13 +17818,13 @@
         <v>416</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>803</v>
+        <v>969</v>
       </c>
       <c r="E41" s="12">
         <v>200</v>
@@ -17776,7 +17836,7 @@
         <v>10</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>957</v>
+        <v>976</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17784,13 +17844,13 @@
         <v>417</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>805</v>
+        <v>970</v>
       </c>
       <c r="E42" s="12">
         <v>200</v>
@@ -17802,7 +17862,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17836,13 +17896,13 @@
         <v>419</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="E44" s="12">
         <v>200</v>
@@ -17854,7 +17914,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17862,13 +17922,13 @@
         <v>420</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="E45" s="12">
         <v>200</v>
@@ -17880,7 +17940,7 @@
         <v>10</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17914,13 +17974,13 @@
         <v>422</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="E47" s="12">
         <v>200</v>
@@ -17932,7 +17992,7 @@
         <v>10</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17940,13 +18000,13 @@
         <v>423</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="E48" s="12">
         <v>200</v>
@@ -17958,7 +18018,7 @@
         <v>10</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17992,13 +18052,13 @@
         <v>457</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E50" s="12">
         <v>200</v>
@@ -18010,7 +18070,7 @@
         <v>10</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18018,13 +18078,13 @@
         <v>458</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="E51" s="12">
         <v>200</v>
@@ -18036,7 +18096,7 @@
         <v>10</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18062,7 +18122,7 @@
         <v>10</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>301</v>
+        <v>979</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18070,13 +18130,13 @@
         <v>460</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="E53" s="12">
         <v>200</v>
@@ -18088,7 +18148,7 @@
         <v>10</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>833</v>
+        <v>971</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18096,13 +18156,13 @@
         <v>461</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="E54" s="12">
         <v>200</v>
@@ -18114,7 +18174,7 @@
         <v>10</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>837</v>
+        <v>972</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18140,7 +18200,7 @@
         <v>10</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>302</v>
+        <v>952</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18148,13 +18208,13 @@
         <v>463</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="E56" s="12">
         <v>200</v>
@@ -18166,7 +18226,7 @@
         <v>10</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18174,13 +18234,13 @@
         <v>551</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="E57" s="12">
         <v>200</v>
@@ -18192,7 +18252,7 @@
         <v>10</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18200,13 +18260,13 @@
         <v>552</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="E58" s="12">
         <v>200</v>
@@ -18218,7 +18278,7 @@
         <v>10</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18252,13 +18312,13 @@
         <v>554</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="E60" s="12">
         <v>200</v>
@@ -18270,7 +18330,7 @@
         <v>10</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18278,13 +18338,13 @@
         <v>555</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="E61" s="12">
         <v>200</v>
@@ -18296,7 +18356,7 @@
         <v>10</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18330,13 +18390,13 @@
         <v>557</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="E63" s="12">
         <v>200</v>
@@ -18348,7 +18408,7 @@
         <v>10</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18374,7 +18434,7 @@
         <v>10</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>959</v>
+        <v>931</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18382,13 +18442,13 @@
         <v>559</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="E65" s="12">
         <v>200</v>
@@ -18400,7 +18460,7 @@
         <v>10</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>960</v>
+        <v>932</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18408,13 +18468,13 @@
         <v>560</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="E66" s="12">
         <v>200</v>
@@ -18426,7 +18486,7 @@
         <v>10</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>961</v>
+        <v>933</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18460,13 +18520,13 @@
         <v>562</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="E68" s="12">
         <v>200</v>
@@ -18478,7 +18538,7 @@
         <v>10</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18512,13 +18572,13 @@
         <v>564</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="E70" s="12">
         <v>200</v>
@@ -18530,7 +18590,7 @@
         <v>10</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18538,13 +18598,13 @@
         <v>565</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>876</v>
+        <v>550</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>877</v>
+        <v>550</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>878</v>
+        <v>549</v>
       </c>
       <c r="E71" s="12">
         <v>200</v>
@@ -18555,20 +18615,22 @@
       <c r="G71" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H71" s="10"/>
+      <c r="H71" s="10" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>566</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="E72" s="12">
         <v>200</v>
@@ -18579,20 +18641,22 @@
       <c r="G72" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="10"/>
+      <c r="H72" s="10" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>550</v>
+        <v>871</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>550</v>
+        <v>872</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>549</v>
+        <v>873</v>
       </c>
       <c r="E73" s="12">
         <v>200</v>
@@ -18604,7 +18668,7 @@
         <v>10</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>548</v>
+        <v>954</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18612,13 +18676,13 @@
         <v>568</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="E74" s="12">
         <v>200</v>
@@ -18630,59 +18694,7 @@
         <v>10</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>890</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>891</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>892</v>
-      </c>
-      <c r="E75" s="12">
-        <v>200</v>
-      </c>
-      <c r="F75" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>887</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="E76" s="12">
-        <v>200</v>
-      </c>
-      <c r="F76" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>889</v>
+        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -18697,9 +18709,9 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -19016,7 +19028,7 @@
         <v>129</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>684</v>
@@ -19714,22 +19726,22 @@
         <v>662</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="H32" s="12">
         <v>200</v>
@@ -19778,22 +19790,22 @@
         <v>664</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="H34" s="12">
         <v>200</v>
@@ -19857,7 +19869,7 @@
         <v>170</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
       <c r="H36" s="12">
         <v>200</v>
@@ -19880,16 +19892,16 @@
         <v>153</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="H37" s="12">
         <v>200</v>
@@ -19912,7 +19924,7 @@
         <v>153</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>709</v>
@@ -19970,13 +19982,13 @@
         <v>670</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>711</v>
@@ -19999,25 +20011,25 @@
     </row>
     <row r="41" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>919</v>
+        <v>899</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>928</v>
+        <v>908</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="H41" s="12">
         <v>200</v>
@@ -20031,7 +20043,7 @@
     </row>
     <row r="42" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>591</v>
@@ -20063,25 +20075,25 @@
     </row>
     <row r="43" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="H43" s="12">
         <v>200</v>
@@ -20095,25 +20107,25 @@
     </row>
     <row r="44" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>922</v>
+        <v>902</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
       <c r="H44" s="12">
         <v>200</v>
@@ -20127,16 +20139,16 @@
     </row>
     <row r="45" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>923</v>
+        <v>903</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>713</v>
@@ -20168,8 +20180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD40A695-640D-4069-93EC-24D7461E4F01}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7B4C6C-C2F4-43F4-9A06-844C3A25D981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C974D69E-0F71-4B08-A104-7B6E54BA6970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -12679,11 +12679,263 @@
             "name": "Floor_1.TVOC",
             "description": "Building F Floor 1 TVOC Sensor 1",
             "type": "TVOC_Sensor",
+            "isPointOf_Thermostat": {
+                "sourceId": "Floor_1.OA.ES",
+                "name": "Floor_1.OA.ES",
+                "description": "Building F Floor 1 Environment Sensor",
+                "type": "Thermostat"
+            }
+        },
+        {
+            "sourceId": "24e124710b514794",
+            "isPointOf_Thermostat": {
+                "sourceId": "Floor_1.OA.ES2",
+                "name": "Floor_1.OA.ES2",
+                "description": "Building F Floor 1 Environment Sensor 2",
+                "type": "Thermostat"
+            },
+            "name": "Floor_1.TVOC.2",
+            "description": "Building F Floor 1 TVOC Sensor 2",
+            "type": "TVOC_Sensor"
+        },
+        {
+            "sourceId": "mock_room3_TVOC_sensor_1",
+            "name": "mock_room3_TVOC_sensor_1",
+            "description": "室内TVOC",
+            "type": "TVOC_Sensor",
+            "isPointOf_Thermostat": {
+                "sourceId": "mock_room3_thermostat",
+                "name": "mock_room3_thermostat",
+                "description": "控制面板",
+                "type": "Thermostat"
+            }
+        },
+        {
+            "sourceId": "mock_room4_TVOC_sensor_1",
+            "name": "mock_room4_TVOC_sensor_1",
+            "description": "室内TVOC",
+            "type": "TVOC_Sensor",
+            "isPointOf_Thermostat": {
+                "sourceId": "mock_room3_thermostat",
+                "name": "mock_room3_thermostat",
+                "description": "控制面板",
+                "type": "Thermostat"
+            }
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Sensor": [
+        {
+            "sourceId": "2",
+            "name": "Room_A_fixture_2_Luminance",
+            "description": "Sensor48c775 Luminance",
+            "type": "Luminance_Sensor",
+            "isPointOf_Lighting": {
+                "sourceId": "2",
+                "name": "Room_A_fixture_2",
+                "description": "Building F Floor 1 Room A Lighting Fixture",
+                "type": "Lighting"
+            }
+        },
+        {
+            "sourceId": "24e124128a486491",
+            "name": "Floor_1.Luminance",
+            "description": "Building F Floor 1 Luminance Sensor 1",
+            "type": "Luminance_Sensor",
+            "isPointOf_Lighting": null
+        },
+        {
+            "sourceId": "24e124710b514794",
+            "name": "Floor_1.Luminance.2",
+            "isPointOf_Lighting": null,
+            "description": "Building F Floor 1 Luminance Sensor 2",
+            "type": "Luminance_Sensor"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Sensor": [
+        {
+            "sourceId": "2",
+            "name": "Room_A_fixture_2_Luminance",
+            "description": "Sensor48c775 Luminance",
+            "type": "Luminance_Sensor",
+            "isPointOf_Thermostat": null
+        },
+        {
+            "sourceId": "24e124128a486491",
+            "name": "Floor_1.Luminance",
+            "description": "Building F Floor 1 Luminance Sensor 1",
+            "type": "Luminance_Sensor",
+            "isPointOf_Thermostat": {
+                "sourceId": "Floor_1.OA.ES",
+                "name": "Floor_1.OA.ES",
+                "description": "Building F Floor 1 Environment Sensor",
+                "type": "Thermostat"
+            }
+        },
+        {
+            "sourceId": "24e124710b514794",
+            "isPointOf_Thermostat": {
+                "sourceId": "Floor_1.OA.ES2",
+                "name": "Floor_1.OA.ES2",
+                "description": "Building F Floor 1 Environment Sensor 2",
+                "type": "Thermostat"
+            },
+            "name": "Floor_1.Luminance.2",
+            "description": "Building F Floor 1 Luminance Sensor 2",
+            "type": "Luminance_Sensor"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Sensor": [
+        {
+            "sourceId": "2",
+            "name": "Room_A_fixture_2_Luminance",
+            "description": "Sensor48c775 Luminance",
+            "type": "Luminance_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "e5f0eb45ff8f47dd800214e56a2b6eef",
+                    "name": "Room_A_fixture_2_Luminance",
+                    "description": "Sensor48c775 Luminance",
+                    "type": "Luminance_Sensor",
+                    "hasLocation_Room": {
+                        "sourceId": "1",
+                        "name": "ssi",
+                        "description": "Room SSI",
+                        "type": "Room"
+                    }
+                }
+            ]
+        },
+        {
+            "sourceId": "24e124128a486491",
+            "name": "Floor_1.Luminance",
+            "description": "Building F Floor 1 Luminance Sensor 1",
+            "type": "Luminance_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "394edf421c4a43da941b9002bc942f60",
+                    "name": "Floor_1.Luminance",
+                    "description": "Building F Floor 1 Luminance Sensor 1",
+                    "type": "Luminance_Sensor",
+                    "hasLocation_Room": null
+                }
+            ]
+        },
+        {
+            "sourceId": "24e124710b514794",
+            "name": "Floor_1.Luminance.2",
+            "description": "Building F Floor 1 Luminance Sensor 2",
+            "type": "Luminance_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "b8a6aa3cde244e3a9a25d7af1bdde406",
+                    "name": "Floor_1.Luminance.2",
+                    "description": "Building F Floor 1 Luminance Sensor 2",
+                    "hasLocation_Room": null,
+                    "type": "Luminance_Sensor"
+                }
+            ]
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Setpoint": [
+        {
+            "sourceId": "System1:GmsDevice_4_7130_1090519068.Present_Value",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130LgtDev(1)LgtCmd(1)",
+            "description": "灯光控制",
+            "type": "Luminance_Setpoint"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Sensor": [
+        {
+            "sourceId": "2",
+            "name": "Room_A_fixture_2_Luminance",
+            "description": "Sensor48c775 Luminance",
+            "type": "Luminance_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "e5f0eb45ff8f47dd800214e56a2b6eef",
+                    "name": "Room_A_fixture_2_Luminance",
+                    "description": "Sensor48c775 Luminance",
+                    "type": "Luminance_Sensor",
+                    "hasLocation_Floor": null
+                }
+            ]
+        },
+        {
+            "sourceId": "24e124128a486491",
+            "name": "Floor_1.Luminance",
+            "description": "Building F Floor 1 Luminance Sensor 1",
+            "type": "Luminance_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "394edf421c4a43da941b9002bc942f60",
+                    "name": "Floor_1.Luminance",
+                    "description": "Building F Floor 1 Luminance Sensor 1",
+                    "type": "Luminance_Sensor",
+                    "hasLocation_Floor": {
+                        "sourceId": "1",
+                        "name": "Floor_1",
+                        "description": "Floor 1",
+                        "type": "Floor"
+                    }
+                }
+            ]
+        },
+        {
+            "sourceId": "24e124710b514794",
+            "name": "Floor_1.Luminance.2",
+            "description": "Building F Floor 1 Luminance Sensor 2",
+            "type": "Luminance_Sensor",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "b8a6aa3cde244e3a9a25d7af1bdde406",
+                    "hasLocation_Floor": {
+                        "sourceId": "1",
+                        "name": "Floor_1",
+                        "description": "Floor 1",
+                        "type": "Floor"
+                    },
+                    "name": "Floor_1.Luminance.2",
+                    "description": "Building F Floor 1 Luminance Sensor 2",
+                    "type": "Luminance_Sensor"
+                }
+            ]
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "TVOC_Sensor": [
+        {
+            "sourceId": "24e124128a486491",
+            "name": "Floor_1.TVOC",
+            "description": "Building F Floor 1 TVOC Sensor 1",
+            "type": "TVOC_Sensor",
             "hasPointLocation_PointLocation": [
                 {
                     "sourceId": "87cebf00987844849ad130af5fe39971",
                     "name": "Floor_1.TVOC",
-                    "description": "Building F Floor 1 Pressure Sensor 1",
+                    "description": "Building F Floor 1 TVOC Sensor 1",
                     "type": "TVOC_Sensor",
                     "hasLocation_Room": null
                 }
@@ -12759,7 +13011,7 @@
                 {
                     "sourceId": "87cebf00987844849ad130af5fe39971",
                     "name": "Floor_1.TVOC",
-                    "description": "Building F Floor 1 Pressure Sensor 1",
+                    "description": "Building F Floor 1 TVOC Sensor 1",
                     "type": "TVOC_Sensor",
                     "hasLocation_Floor": {
                         "sourceId": "1",
@@ -12817,258 +13069,6 @@
                     "description": "室内TVOC",
                     "type": "TVOC_Sensor",
                     "hasLocation_Floor": null
-                }
-            ]
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "TVOC_Sensor": [
-        {
-            "sourceId": "24e124128a486491",
-            "name": "Floor_1.TVOC",
-            "description": "Building F Floor 1 TVOC Sensor 1",
-            "type": "TVOC_Sensor",
-            "isPointOf_Thermostat": {
-                "sourceId": "Floor_1.OA.ES",
-                "name": "Floor_1.OA.ES",
-                "description": "Building F Floor 1 Environment Sensor",
-                "type": "Thermostat"
-            }
-        },
-        {
-            "sourceId": "24e124710b514794",
-            "isPointOf_Thermostat": {
-                "sourceId": "Floor_1.OA.ES2",
-                "name": "Floor_1.OA.ES2",
-                "description": "Building F Floor 1 Environment Sensor 2",
-                "type": "Thermostat"
-            },
-            "name": "Floor_1.TVOC.2",
-            "description": "Building F Floor 1 TVOC Sensor 2",
-            "type": "TVOC_Sensor"
-        },
-        {
-            "sourceId": "mock_room3_TVOC_sensor_1",
-            "name": "mock_room3_TVOC_sensor_1",
-            "description": "室内TVOC",
-            "type": "TVOC_Sensor",
-            "isPointOf_Thermostat": {
-                "sourceId": "mock_room3_thermostat",
-                "name": "mock_room3_thermostat",
-                "description": "控制面板",
-                "type": "Thermostat"
-            }
-        },
-        {
-            "sourceId": "mock_room4_TVOC_sensor_1",
-            "name": "mock_room4_TVOC_sensor_1",
-            "description": "室内TVOC",
-            "type": "TVOC_Sensor",
-            "isPointOf_Thermostat": {
-                "sourceId": "mock_room3_thermostat",
-                "name": "mock_room3_thermostat",
-                "description": "控制面板",
-                "type": "Thermostat"
-            }
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "Luminance_Sensor": [
-        {
-            "sourceId": "2",
-            "name": "Room_A_fixture_2_Luminance",
-            "description": "Sensor48c775 Luminance",
-            "type": "Luminance_Sensor",
-            "isPointOf_Lighting": {
-                "sourceId": "2",
-                "name": "Room_A_fixture_2",
-                "description": "Building F Floor 1 Room A Lighting Fixture",
-                "type": "Lighting"
-            }
-        },
-        {
-            "sourceId": "24e124128a486491",
-            "name": "Floor_1.Luminance",
-            "description": "Building F Floor 1 Luminance Sensor 1",
-            "type": "Luminance_Sensor",
-            "isPointOf_Lighting": null
-        },
-        {
-            "sourceId": "24e124710b514794",
-            "name": "Floor_1.Luminance.2",
-            "isPointOf_Lighting": null,
-            "description": "Building F Floor 1 Luminance Sensor 2",
-            "type": "Luminance_Sensor"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "Luminance_Sensor": [
-        {
-            "sourceId": "2",
-            "name": "Room_A_fixture_2_Luminance",
-            "description": "Sensor48c775 Luminance",
-            "type": "Luminance_Sensor",
-            "isPointOf_Thermostat": null
-        },
-        {
-            "sourceId": "24e124128a486491",
-            "name": "Floor_1.Luminance",
-            "description": "Building F Floor 1 Luminance Sensor 1",
-            "type": "Luminance_Sensor",
-            "isPointOf_Thermostat": {
-                "sourceId": "Floor_1.OA.ES",
-                "name": "Floor_1.OA.ES",
-                "description": "Building F Floor 1 Environment Sensor",
-                "type": "Thermostat"
-            }
-        },
-        {
-            "sourceId": "24e124710b514794",
-            "isPointOf_Thermostat": {
-                "sourceId": "Floor_1.OA.ES2",
-                "name": "Floor_1.OA.ES2",
-                "description": "Building F Floor 1 Environment Sensor 2",
-                "type": "Thermostat"
-            },
-            "name": "Floor_1.Luminance.2",
-            "description": "Building F Floor 1 Luminance Sensor 2",
-            "type": "Luminance_Sensor"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "Luminance_Sensor": [
-        {
-            "sourceId": "2",
-            "name": "Room_A_fixture_2_Luminance",
-            "description": "Sensor48c775 Luminance",
-            "type": "Luminance_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "e5f0eb45ff8f47dd800214e56a2b6eef",
-                    "name": "Room_A_fixture_2_Luminance",
-                    "description": "Sensor48c775 Luminance",
-                    "type": "Luminance_Sensor",
-                    "hasLocation_Room": {
-                        "sourceId": "1",
-                        "name": "ssi",
-                        "description": "Room SSI",
-                        "type": "Room"
-                    }
-                }
-            ]
-        },
-        {
-            "sourceId": "24e124128a486491",
-            "name": "Floor_1.Luminance",
-            "description": "Building F Floor 1 Luminance Sensor 1",
-            "type": "Luminance_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "394edf421c4a43da941b9002bc942f60",
-                    "name": "Floor_1.Luminance",
-                    "description": "Building F Floor 1 Luminance Sensor 1",
-                    "type": "Luminance_Sensor",
-                    "hasLocation_Room": null
-                }
-            ]
-        },
-        {
-            "sourceId": "24e124710b514794",
-            "name": "Floor_1.Luminance.2",
-            "description": "Building F Floor 1 Luminance Sensor 2",
-            "type": "Luminance_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "b8a6aa3cde244e3a9a25d7af1bdde406",
-                    "name": "Floor_1.Luminance.2",
-                    "description": "Building F Floor 1 Luminance Sensor 2",
-                    "hasLocation_Room": null,
-                    "type": "Luminance_Sensor"
-                }
-            ]
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "Luminance_Setpoint": [
-        {
-            "sourceId": "System1:GmsDevice_4_7130_1090519068.Present_Value",
-            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130LgtDev(1)LgtCmd(1)",
-            "description": "灯光控制",
-            "type": "Luminance_Setpoint"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "Luminance_Sensor": [
-        {
-            "sourceId": "2",
-            "name": "Room_A_fixture_2_Luminance",
-            "description": "Sensor48c775 Luminance",
-            "type": "Luminance_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "e5f0eb45ff8f47dd800214e56a2b6eef",
-                    "name": "Room_A_fixture_2_Luminance",
-                    "description": "Sensor48c775 Luminance",
-                    "type": "Luminance_Sensor",
-                    "hasLocation_Floor": null
-                }
-            ]
-        },
-        {
-            "sourceId": "24e124128a486491",
-            "name": "Floor_1.Luminance",
-            "description": "Building F Floor 1 Luminance Sensor 1",
-            "type": "Luminance_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "394edf421c4a43da941b9002bc942f60",
-                    "name": "Floor_1.Luminance",
-                    "description": "Building F Floor 1 Luminance Sensor 1",
-                    "type": "Luminance_Sensor",
-                    "hasLocation_Floor": {
-                        "sourceId": "1",
-                        "name": "Floor_1",
-                        "description": "Floor 1",
-                        "type": "Floor"
-                    }
-                }
-            ]
-        },
-        {
-            "sourceId": "24e124710b514794",
-            "name": "Floor_1.Luminance.2",
-            "description": "Building F Floor 1 Luminance Sensor 2",
-            "type": "Luminance_Sensor",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "b8a6aa3cde244e3a9a25d7af1bdde406",
-                    "hasLocation_Floor": {
-                        "sourceId": "1",
-                        "name": "Floor_1",
-                        "description": "Floor 1",
-                        "type": "Floor"
-                    },
-                    "name": "Floor_1.Luminance.2",
-                    "description": "Building F Floor 1 Luminance Sensor 2",
-                    "type": "Luminance_Sensor"
                 }
             ]
         }
@@ -14236,8 +14236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA4C4C8-01FF-4E34-B41E-A7427C7932E0}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -14700,8 +14700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0352065E-A492-4697-9ECD-EE7D11A409C6}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16756,8 +16756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F94A0E-3E5A-465F-85BB-464079354C32}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -17316,7 +17316,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17342,7 +17342,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17368,7 +17368,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17784,7 +17784,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17810,7 +17810,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17836,7 +17836,7 @@
         <v>10</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17862,7 +17862,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18122,7 +18122,7 @@
         <v>10</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BF0B1D-48A0-4894-8D94-529F79552F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA50AF62-AB1D-4CF1-B418-29BE0FAB624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -9290,33 +9290,6 @@
 }</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">获取CO2_Sensor（)实时数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>按时间升序（captureTime ASC）排序</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Point(type='CO2_Sensor',sourceId='')-&gt;Timeseries(captureTime)
-sourcesystem:iotgateway</t>
-    </r>
-  </si>
-  <si>
     <t>{
   Point(cond:"{_and:[{type: {_eq: \"CO2_Sensor\"}},{sourceId: {_eq: \"24e124710b514794\"}}]}", authInfo:"", order:"")
   {
@@ -9341,38 +9314,6 @@
     <t>625232f47b3b4369a595f708886bc54d</t>
   </si>
   <si>
-    <t>SELECT dataLayerTime,co2 as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124710b514794' 
-and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">获取Humidity_Sensor（）实时数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">按时间降序（captureTime DESC）排序
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Point(type='Humidity_Sensor',sourceId='')-&gt;Timeseries(captureTime)
-sourcesystem:iotgateway</t>
-    </r>
-  </si>
-  <si>
     <t>{
   Point(cond:"{_and:[{type: {_eq: \"Humidity_Sensor\"}},{sourceId: {_eq: \"24e124710b514794\"}}]}", authInfo:"", order:"")
   {
@@ -9392,10 +9333,6 @@
   </si>
   <si>
     <t>1efe90e970a640b6b1d840c3ccf02cdc</t>
-  </si>
-  <si>
-    <t>SELECT dataLayerTime,humidity as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124710b514794' 
-and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime DESC</t>
   </si>
   <si>
     <t>{
@@ -9458,64 +9395,6 @@
     <t>7619cfef340c49f08e475fb1bd0d534f</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">获取Pressure_Sensor（)实时数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>按时间升序（captureTime ASC）排序</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Point(type='Pressure_Sensor',sourceId='')-&gt;Timeseries(captureTime)
-sourcesystem:iotgateway</t>
-    </r>
-  </si>
-  <si>
-    <t>SELECT dataLayerTime,pressure as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124710b514794' 
-and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">获取Temperature_Sensor（)实时数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>按时间升序（captureTime ASC）排序</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Point(type='Temperature_Sensor',sourceId='')-&gt;Timeseries(captureTime)
-sourcesystem:iotgateway</t>
-    </r>
-  </si>
-  <si>
     <t>{
   Point(cond:"{_and:[{type: {_eq: \"Temperature_Sensor\"}},{sourceId: {_eq: \"24e124710b514794\"}}]}", authInfo:"", order:"")
   {
@@ -9537,10 +9416,6 @@
     <t>6a00e9a5db4a465091eb0062ad2963c9</t>
   </si>
   <si>
-    <t>SELECT dataLayerTime,temperature as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124710b514794' 
-and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
-  </si>
-  <si>
     <t>{
   Point(cond:"{_and:[{type: {_eq: \"TVOC_Sensor\"}},{sourceId: {_eq: \"24e124710b514794\"}}]}", authInfo:"", order:"")
   {
@@ -9575,37 +9450,6 @@
     }
   }
 }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">获取TVOC_Sensor（)实时数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>按时间升序（captureTime ASC）排序</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Point(type='TVOC_Sensor',sourceId='')-&gt;Timeseries(captureTime)
-sourcesystem:iotgateway</t>
-    </r>
-  </si>
-  <si>
-    <t>SELECT dataLayerTime,tvoc as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124710b514794' 
-and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
   </si>
   <si>
     <t>7d08b8c7001340de8843257ebc3bcba2</t>
@@ -13038,41 +12882,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">获取Luminance_Sensor（）实时数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">按时间升序（captureTime ASC）排序
-添加了分页功能：
-pageIndex:1
-pageSize:10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Point(type='Luminance_Sensor',sourceId='')-&gt;Timeseries(captureTime)
-sourcesystem:iotgateway</t>
-    </r>
-  </si>
-  <si>
-    <t>SELECT dataLayerTime,illumination as Value,devEUI as PropertyId,sourceSystem from AM100_Data ad where devEUI = '24e124710b514794' 
-and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC limit 10</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">获取Occupancy_Sensor（Room SSI People Count Sensor）实时数据
 </t>
     </r>
@@ -13099,33 +12908,6 @@
       </rPr>
       <t xml:space="preserve">
 Point(type='Occupancy_Sensor')-&gt;Timeseries(captureTime)
-sourcesystem:iotgateway</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">获取Occupancy_Status（)实时数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>按时间升序（captureTime ASC）排序</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Point(type='Occupancy_Status',sourceId='')-&gt;Timeseries(captureTime)
 sourcesystem:iotgateway</t>
     </r>
   </si>
@@ -13213,6 +12995,224 @@
 Point(type='TVOC_Sensor',sourceId='')-&gt;Timeseries(captureTime)
 sourcesystem:iotgateway</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取CO2_Sensor（Building F Floor 1 CO2 Sensor 2)实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='CO2_Sensor',sourceId='')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Humidity_Sensor（Building F Floor 1 Humidity Sensor 2）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按时间降序（captureTime DESC）排序
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Humidity_Sensor',sourceId='')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,humidity as Value,devEUI as PropertyId,sourceSystem from AM300_Data ad where devEUI = '24e124710b514794' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime DESC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Luminance_Sensor（Building F Floor 1 Luminance Sensor 2）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按时间升序（captureTime ASC）排序
+添加了分页功能：
+pageIndex:1
+pageSize:10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Luminance_Sensor',sourceId='')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,illumination as Value,devEUI as PropertyId,sourceSystem from AM300_Data ad where devEUI = '24e124710b514794' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC limit 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Occupancy_Status（Room A Occupancy Status)实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Occupancy_Status',sourceId='')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Pressure_Sensor（Building F Floor 1 Pressure Sensor 2)实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Pressure_Sensor',sourceId='')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,pressure as Value,devEUI as PropertyId,sourceSystem from AM300_Data ad where devEUI = '24e124710b514794' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Temperature_Sensor（Building F Floor 1 Temperature Sensor 2)实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Temperature_Sensor',sourceId='')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,temperature as Value,devEUI as PropertyId,sourceSystem from AM300_Data ad where devEUI = '24e124710b514794' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取TVOC_Sensor（Building F Floor 1 TVOC Sensor 2)实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='TVOC_Sensor',sourceId='')-&gt;Timeseries(captureTime)
+sourcesystem:iotgateway</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,tvoc as Value,devEUI as PropertyId,sourceSystem from AM300_Data ad where devEUI = '24e124710b514794' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
+  </si>
+  <si>
+    <t>SELECT dataLayerTime,co2 as Value,devEUI as PropertyId,sourceSystem from AM300_Data ad where devEUI = '24e124710b514794' 
+and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
   </si>
 </sst>
 </file>
@@ -16949,7 +16949,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="E2" s="12">
         <v>200</v>
@@ -16975,7 +16975,7 @@
         <v>231</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="E3" s="12">
         <v>200</v>
@@ -17001,7 +17001,7 @@
         <v>713</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="E4" s="12">
         <v>200</v>
@@ -17027,7 +17027,7 @@
         <v>234</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="E5" s="12">
         <v>200</v>
@@ -17053,7 +17053,7 @@
         <v>716</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="E6" s="12">
         <v>200</v>
@@ -17091,7 +17091,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17117,7 +17117,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17143,7 +17143,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17169,7 +17169,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17195,7 +17195,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17221,7 +17221,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17235,7 +17235,7 @@
         <v>733</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="E13" s="12">
         <v>200</v>
@@ -17247,7 +17247,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17261,7 +17261,7 @@
         <v>734</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="E14" s="12">
         <v>200</v>
@@ -17273,7 +17273,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17287,7 +17287,7 @@
         <v>736</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="E15" s="12">
         <v>200</v>
@@ -17299,7 +17299,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17325,7 +17325,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17351,7 +17351,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17377,7 +17377,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17403,7 +17403,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17417,7 +17417,7 @@
         <v>246</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="E20" s="12">
         <v>200</v>
@@ -17429,7 +17429,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17443,7 +17443,7 @@
         <v>745</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="E21" s="12">
         <v>200</v>
@@ -17455,7 +17455,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17469,7 +17469,7 @@
         <v>749</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="E22" s="12">
         <v>200</v>
@@ -17481,7 +17481,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17495,7 +17495,7 @@
         <v>750</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="E23" s="12">
         <v>200</v>
@@ -17507,7 +17507,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17533,7 +17533,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17559,7 +17559,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17567,13 +17567,13 @@
         <v>328</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="E26" s="12">
         <v>200</v>
@@ -17585,7 +17585,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17611,7 +17611,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17637,7 +17637,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17663,7 +17663,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17689,7 +17689,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17715,7 +17715,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17741,7 +17741,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17767,7 +17767,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17781,7 +17781,7 @@
         <v>267</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="E34" s="12">
         <v>200</v>
@@ -17793,7 +17793,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17807,7 +17807,7 @@
         <v>771</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="E35" s="12">
         <v>200</v>
@@ -17819,7 +17819,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17833,7 +17833,7 @@
         <v>773</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="E36" s="12">
         <v>200</v>
@@ -17845,7 +17845,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17859,7 +17859,7 @@
         <v>775</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="E37" s="12">
         <v>200</v>
@@ -17871,7 +17871,7 @@
         <v>10</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17885,7 +17885,7 @@
         <v>280</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="E38" s="12">
         <v>200</v>
@@ -17897,7 +17897,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17911,7 +17911,7 @@
         <v>777</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="E39" s="12">
         <v>200</v>
@@ -17923,7 +17923,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17937,19 +17937,19 @@
         <v>779</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="E40" s="12">
+        <v>200</v>
+      </c>
+      <c r="F40" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="10" t="s">
         <v>952</v>
-      </c>
-      <c r="E40" s="12">
-        <v>200</v>
-      </c>
-      <c r="F40" s="12">
-        <v>100000</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17963,7 +17963,7 @@
         <v>780</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="E41" s="12">
         <v>200</v>
@@ -17975,7 +17975,7 @@
         <v>10</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -17989,7 +17989,7 @@
         <v>775</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="E42" s="12">
         <v>200</v>
@@ -18001,7 +18001,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18261,7 +18261,7 @@
         <v>10</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18287,7 +18287,7 @@
         <v>10</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18313,7 +18313,7 @@
         <v>10</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18339,7 +18339,7 @@
         <v>10</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18573,7 +18573,7 @@
         <v>10</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18599,7 +18599,7 @@
         <v>10</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18625,7 +18625,7 @@
         <v>10</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18755,7 +18755,7 @@
         <v>10</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18781,7 +18781,7 @@
         <v>10</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18807,7 +18807,7 @@
         <v>10</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -18833,7 +18833,7 @@
         <v>10</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -18847,10 +18847,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2181B9E2-AEE2-4C11-98DD-ED06134DE024}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -18937,13 +18937,13 @@
         <v>197</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>664</v>
@@ -18952,7 +18952,7 @@
         <v>590</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="H3" s="12">
         <v>200</v>
@@ -18969,13 +18969,13 @@
         <v>198</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>666</v>
@@ -18984,7 +18984,7 @@
         <v>592</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="H4" s="12">
         <v>200</v>
@@ -19001,13 +19001,13 @@
         <v>199</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>669</v>
@@ -19016,7 +19016,7 @@
         <v>596</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="H5" s="12">
         <v>200</v>
@@ -19033,7 +19033,7 @@
         <v>200</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>129</v>
@@ -19065,7 +19065,7 @@
         <v>201</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>129</v>
@@ -19097,7 +19097,7 @@
         <v>202</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>129</v>
@@ -19161,13 +19161,13 @@
         <v>204</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>672</v>
@@ -19673,7 +19673,7 @@
         <v>645</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>129</v>
@@ -19705,7 +19705,7 @@
         <v>646</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>129</v>
@@ -19833,7 +19833,7 @@
         <v>650</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>153</v>
@@ -19865,22 +19865,22 @@
         <v>651</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>860</v>
+        <v>972</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>863</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>862</v>
-      </c>
       <c r="G32" s="10" t="s">
-        <v>864</v>
+        <v>984</v>
       </c>
       <c r="H32" s="12">
         <v>200</v>
@@ -19929,22 +19929,22 @@
         <v>653</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>865</v>
+        <v>973</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>868</v>
+        <v>974</v>
       </c>
       <c r="H34" s="12">
         <v>200</v>
@@ -19993,7 +19993,7 @@
         <v>655</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>153</v>
@@ -20008,7 +20008,7 @@
         <v>170</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="H36" s="12">
         <v>200</v>
@@ -20025,22 +20025,22 @@
         <v>656</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="H37" s="12">
         <v>200</v>
@@ -20057,13 +20057,13 @@
         <v>657</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>697</v>
@@ -20089,10 +20089,10 @@
         <v>658</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>579</v>
@@ -20121,13 +20121,13 @@
         <v>659</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>699</v>
@@ -20150,25 +20150,25 @@
     </row>
     <row r="41" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>873</v>
+        <v>978</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>874</v>
+        <v>979</v>
       </c>
       <c r="H41" s="12">
         <v>200</v>
@@ -20182,7 +20182,7 @@
     </row>
     <row r="42" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>588</v>
@@ -20214,25 +20214,25 @@
     </row>
     <row r="43" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>875</v>
+        <v>980</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>878</v>
+        <v>981</v>
       </c>
       <c r="H43" s="12">
         <v>200</v>
@@ -20246,25 +20246,25 @@
     </row>
     <row r="44" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>881</v>
+        <v>982</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>882</v>
+        <v>983</v>
       </c>
       <c r="H44" s="12">
         <v>200</v>
@@ -20278,16 +20278,16 @@
     </row>
     <row r="45" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>701</v>
@@ -20319,7 +20319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD40A695-640D-4069-93EC-24D7461E4F01}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA50AF62-AB1D-4CF1-B418-29BE0FAB624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E336324-69A1-49F8-9ECE-EF0AB6733620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="962">
   <si>
     <t>description</t>
   </si>
@@ -197,75 +197,6 @@
   <si>
     <t xml:space="preserve">{Analog(cond:"{Siid: {_invalid: 999999}}") {Analog_id Siid aliasName description deviceId}} 
     </t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_TRAINCONFIG</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_TRAINRESULT</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_PREDICTCONFIG</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_OPTIMALIZERESULT</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_OPTIMALIZECONFIG</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_SIMULATION</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_TOPOLOGY</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_OPTIMIZE_TARGET_TYPE</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_DASHBOARDCONFIG</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_METADATA</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_SECTIONALIZEDLINEARIZATION</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_PREDICTRESULT</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_TRAINCONFIG(cond:"",order:"id DESC") { createTime id optimize_target_type_id simu_id train_cfg_ANN_YN train_cfg_LR_YN train_cfg_RFR_YN train_cfg_SVR_YN train_cfg_SmpEndTime train_cfg_SmpStTime train_cfg_Tree_YN train_cfg_aDa_YN train_cfg_obj_PT train_cfg_obligate1 train_cfg_obligate2 train_cfg_obligate3 train_cfg_obligate4 train_cfg_obligate5 train_cfg_obligate6 train_cfg_predict train_cfg_sample_PT train_cfg_time train_cfg_timetrg_YN}}</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_TRAINRESULT(cond:"",order:"id ASC") { variables train_result_obligate4 train_result_obligate5 train_result_obligate2 train_result_obligate3 optimize_target_type_id simu_id train_result_obligate1 config_id train_result_obligate6 id runid }}</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_PREDICTCONFIG(cond:"",order:"id ASC") { predict_train_model createTime predict_train_obj_wgt_defval predict_cfg_obligate6 predict_cfg_obligate5 predict_cfg_obligate4 predict_cfg_obligate3 predict_cfg_obligate2 predict_cfg_obligate1 optimize_target_type_id simu_id predict_cfg_period predict_cfg_day predict_cfg_time id } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_PREDICTRESULT(cond:"",order:"config_id ASC") { Predict_result_time Predict_result_aDa Predict_result_ANN optimize_target_type_id Predict_result_SP5 Predict_result_Tree Predict_result_LR Predict_result_SVR runid id createTime variables predict_train_obj_wgt_defval Predict_result_obligate2 Predict_result_obligate1 Predict_result_RFR Predict_result_obligate6 simu_id Predict_result_obligate5 Predict_result_obligate4 Predict_result_obligate3 config_id Predict_result_AVG } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_OPTIMALIZECONFIG(cond:"",order:"id ASC") { isActive optimize_target_type_id optimalizeType opt_cfg_opt_starttime id opt_cfg_user_def opt_pred_model opt_cfg_obligate3 rollTasksId opt_cfg_obligate2 opt_cfg_obligate5 createTime opt_cfg_obligate4 opt_cfg_obligate6 opt_cfg_emi_frac opt_name dash_cfg_id simu_id opt_cfg_opt_day opt_cfg_opt_frequency isRTCOP opt_cfg_cost_frac opt_methods rollType opt_cfg_obligate1 } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_SIMULATION(cond:"",order:"id ASC") { updatatime historymap chartsetting createtime rtcountmap hiscountmap isTraining obligate1 obligate2 channels defcountmap user_id ispredict name id obligate5 obligate6 treefile obligate3 obligate4 } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_TOPOLOGY(cond:"",order:"id ASC") { create_time topo_name simu_id obligate1 obligate2 topo_xml update_time update_user parent_id id obligate5 obligate6 obligate3 obligate4 } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_OPTIMIZE_TARGET_TYPE(cond:"",order:"id ASC") { obligate1 obligate2 optimize_topo_selection optimize_type optimize_name id obligate5 optimize_data_type obligate3 obligate4 } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_DASHBOARDCONFIG(cond:"",order:"id ASC") { dashparam name id simu_id optimize_target_type_id } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_METADATA(cond:"",order:"id ASC") { obligate1 obligate2 name id obligate5 params category obligate3 obligate4 } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_SECTIONALIZEDLINEARIZATION(cond:"",order:"id ASC") { tensor_index_counts target obligate1 obligate2 device_name model_name param id obligate5 obligate3 obligate4 tensor_data } }</t>
   </si>
   <si>
     <t>Building</t>
@@ -13302,7 +13233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -13343,6 +13274,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13889,10 +13822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -14125,244 +14058,82 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="3">
-        <v>200</v>
-      </c>
-      <c r="E12" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="3">
-        <v>200</v>
-      </c>
-      <c r="E13" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3">
-        <v>200</v>
-      </c>
-      <c r="E14" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="3">
-        <v>200</v>
-      </c>
-      <c r="E15" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="3">
-        <v>200</v>
-      </c>
-      <c r="E16" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="3">
-        <v>200</v>
-      </c>
-      <c r="E17" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="3">
-        <v>200</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="3">
-        <v>200</v>
-      </c>
-      <c r="E19" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="3">
-        <v>200</v>
-      </c>
-      <c r="E20" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="3">
-        <v>200</v>
-      </c>
-      <c r="E21" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="3">
-        <v>200</v>
-      </c>
-      <c r="E22" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="3">
-        <v>200</v>
-      </c>
-      <c r="E23" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -14399,7 +14170,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>25</v>
@@ -14416,16 +14187,16 @@
     </row>
     <row r="2" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E2" s="12">
         <v>200</v>
@@ -14439,16 +14210,16 @@
     </row>
     <row r="3" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E3" s="12">
         <v>200</v>
@@ -14462,16 +14233,16 @@
     </row>
     <row r="4" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E4" s="12">
         <v>200</v>
@@ -14485,16 +14256,16 @@
     </row>
     <row r="5" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E5" s="12">
         <v>200</v>
@@ -14508,16 +14279,16 @@
     </row>
     <row r="6" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E6" s="12">
         <v>200</v>
@@ -14531,16 +14302,16 @@
     </row>
     <row r="7" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E7" s="12">
         <v>200</v>
@@ -14554,16 +14325,16 @@
     </row>
     <row r="8" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="E8" s="12">
         <v>200</v>
@@ -14577,16 +14348,16 @@
     </row>
     <row r="9" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="E9" s="12">
         <v>200</v>
@@ -14600,16 +14371,16 @@
     </row>
     <row r="10" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="E10" s="12">
         <v>200</v>
@@ -14623,16 +14394,16 @@
     </row>
     <row r="11" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E11" s="12">
         <v>200</v>
@@ -14646,16 +14417,16 @@
     </row>
     <row r="12" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E12" s="12">
         <v>200</v>
@@ -14669,16 +14440,16 @@
     </row>
     <row r="13" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E13" s="12">
         <v>200</v>
@@ -14692,16 +14463,16 @@
     </row>
     <row r="14" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E14" s="12">
         <v>200</v>
@@ -14715,16 +14486,16 @@
     </row>
     <row r="15" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="C15" s="10" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E15" s="12">
         <v>200</v>
@@ -14738,16 +14509,16 @@
     </row>
     <row r="16" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E16" s="12">
         <v>200</v>
@@ -14761,16 +14532,16 @@
     </row>
     <row r="17" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E17" s="12">
         <v>200</v>
@@ -14784,16 +14555,16 @@
     </row>
     <row r="18" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="E18" s="12">
         <v>200</v>
@@ -14807,16 +14578,16 @@
     </row>
     <row r="19" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="E19" s="12">
         <v>200</v>
@@ -14864,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>25</v>
@@ -14879,21 +14650,21 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E2" s="12">
         <v>200</v>
@@ -14905,21 +14676,21 @@
         <v>10</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="E3" s="12">
         <v>200</v>
@@ -14931,21 +14702,21 @@
         <v>10</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="E4" s="12">
         <v>200</v>
@@ -14957,21 +14728,21 @@
         <v>10</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="E5" s="12">
         <v>200</v>
@@ -14983,21 +14754,21 @@
         <v>10</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="E6" s="12">
         <v>200</v>
@@ -15009,21 +14780,21 @@
         <v>10</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E7" s="12">
         <v>200</v>
@@ -15035,21 +14806,21 @@
         <v>10</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="E8" s="12">
         <v>200</v>
@@ -15061,21 +14832,21 @@
         <v>10</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="E9" s="12">
         <v>200</v>
@@ -15087,21 +14858,21 @@
         <v>10</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="E10" s="12">
         <v>200</v>
@@ -15113,21 +14884,21 @@
         <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="E11" s="12">
         <v>200</v>
@@ -15139,21 +14910,21 @@
         <v>10</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="E12" s="12">
         <v>200</v>
@@ -15165,21 +14936,21 @@
         <v>10</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="E13" s="12">
         <v>200</v>
@@ -15191,21 +14962,21 @@
         <v>10</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="E14" s="12">
         <v>200</v>
@@ -15217,21 +14988,21 @@
         <v>10</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="E15" s="12">
         <v>200</v>
@@ -15243,21 +15014,21 @@
         <v>10</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="E16" s="12">
         <v>200</v>
@@ -15269,21 +15040,21 @@
         <v>10</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="E17" s="12">
         <v>200</v>
@@ -15295,21 +15066,21 @@
         <v>10</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="E18" s="12">
         <v>200</v>
@@ -15321,21 +15092,21 @@
         <v>10</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="E19" s="12">
         <v>200</v>
@@ -15347,21 +15118,21 @@
         <v>10</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="E20" s="12">
         <v>200</v>
@@ -15373,21 +15144,21 @@
         <v>10</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="E21" s="12">
         <v>200</v>
@@ -15399,21 +15170,21 @@
         <v>10</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="E22" s="12">
         <v>200</v>
@@ -15425,21 +15196,21 @@
         <v>10</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="E23" s="12">
         <v>200</v>
@@ -15451,21 +15222,21 @@
         <v>10</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="E24" s="12">
         <v>200</v>
@@ -15477,21 +15248,21 @@
         <v>10</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="E25" s="12">
         <v>200</v>
@@ -15503,21 +15274,21 @@
         <v>10</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="E26" s="12">
         <v>200</v>
@@ -15529,21 +15300,21 @@
         <v>10</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="E27" s="12">
         <v>200</v>
@@ -15555,21 +15326,21 @@
         <v>10</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="E28" s="12">
         <v>200</v>
@@ -15581,21 +15352,21 @@
         <v>10</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="E29" s="12">
         <v>200</v>
@@ -15607,21 +15378,21 @@
         <v>10</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>427</v>
-      </c>
       <c r="C30" s="11" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="E30" s="12">
         <v>200</v>
@@ -15633,21 +15404,21 @@
         <v>10</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="E31" s="12">
         <v>200</v>
@@ -15659,21 +15430,21 @@
         <v>10</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="E32" s="12">
         <v>200</v>
@@ -15685,21 +15456,21 @@
         <v>10</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="E33" s="12">
         <v>200</v>
@@ -15711,21 +15482,21 @@
         <v>10</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="E34" s="12">
         <v>200</v>
@@ -15737,21 +15508,21 @@
         <v>10</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="E35" s="12">
         <v>200</v>
@@ -15763,22 +15534,22 @@
         <v>10</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>433</v>
-      </c>
       <c r="E36" s="12">
         <v>200</v>
       </c>
@@ -15789,21 +15560,21 @@
         <v>10</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="E37" s="12">
         <v>200</v>
@@ -15815,21 +15586,21 @@
         <v>10</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="E38" s="12">
         <v>200</v>
@@ -15841,21 +15612,21 @@
         <v>10</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="E39" s="12">
         <v>200</v>
@@ -15867,21 +15638,21 @@
         <v>10</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="E40" s="12">
         <v>200</v>
@@ -15893,21 +15664,21 @@
         <v>10</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="E41" s="12">
         <v>200</v>
@@ -15919,21 +15690,21 @@
         <v>10</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="E42" s="12">
         <v>200</v>
@@ -15945,21 +15716,21 @@
         <v>10</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E43" s="12">
         <v>200</v>
@@ -15971,21 +15742,21 @@
         <v>10</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="E44" s="12">
         <v>200</v>
@@ -15997,21 +15768,21 @@
         <v>10</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="E45" s="12">
         <v>200</v>
@@ -16023,21 +15794,21 @@
         <v>10</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="E46" s="12">
         <v>200</v>
@@ -16049,21 +15820,21 @@
         <v>10</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="E47" s="12">
         <v>200</v>
@@ -16075,21 +15846,21 @@
         <v>10</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="E48" s="12">
         <v>200</v>
@@ -16101,21 +15872,21 @@
         <v>10</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="E49" s="12">
         <v>200</v>
@@ -16127,21 +15898,21 @@
         <v>10</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="E50" s="12">
         <v>200</v>
@@ -16153,21 +15924,21 @@
         <v>10</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="E51" s="12">
         <v>200</v>
@@ -16179,21 +15950,21 @@
         <v>10</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="E52" s="12">
         <v>200</v>
@@ -16205,21 +15976,21 @@
         <v>10</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="E53" s="12">
         <v>200</v>
@@ -16231,21 +16002,21 @@
         <v>10</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="E54" s="12">
         <v>200</v>
@@ -16257,21 +16028,21 @@
         <v>10</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="E55" s="12">
         <v>200</v>
@@ -16283,21 +16054,21 @@
         <v>10</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="E56" s="12">
         <v>200</v>
@@ -16309,21 +16080,21 @@
         <v>10</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="E57" s="12">
         <v>200</v>
@@ -16335,21 +16106,21 @@
         <v>10</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="E58" s="12">
         <v>200</v>
@@ -16361,21 +16132,21 @@
         <v>10</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="E59" s="12">
         <v>200</v>
@@ -16387,21 +16158,21 @@
         <v>10</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="E60" s="12">
         <v>200</v>
@@ -16413,21 +16184,21 @@
         <v>10</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="E61" s="12">
         <v>200</v>
@@ -16439,21 +16210,21 @@
         <v>10</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="E62" s="12">
         <v>200</v>
@@ -16465,21 +16236,21 @@
         <v>10</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="E63" s="12">
         <v>200</v>
@@ -16491,21 +16262,21 @@
         <v>10</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="E64" s="12">
         <v>200</v>
@@ -16517,21 +16288,21 @@
         <v>10</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="E65" s="12">
         <v>200</v>
@@ -16543,21 +16314,21 @@
         <v>10</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="E66" s="12">
         <v>200</v>
@@ -16569,21 +16340,21 @@
         <v>10</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E67" s="12">
         <v>200</v>
@@ -16595,21 +16366,21 @@
         <v>10</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="E68" s="12">
         <v>200</v>
@@ -16621,21 +16392,21 @@
         <v>10</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="E69" s="12">
         <v>200</v>
@@ -16647,21 +16418,21 @@
         <v>10</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="E70" s="12">
         <v>200</v>
@@ -16673,21 +16444,21 @@
         <v>10</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="E71" s="12">
         <v>200</v>
@@ -16699,21 +16470,21 @@
         <v>10</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="E72" s="12">
         <v>200</v>
@@ -16725,21 +16496,21 @@
         <v>10</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="E73" s="12">
         <v>200</v>
@@ -16751,21 +16522,21 @@
         <v>10</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="E74" s="12">
         <v>200</v>
@@ -16777,21 +16548,21 @@
         <v>10</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="E75" s="12">
         <v>200</v>
@@ -16803,21 +16574,21 @@
         <v>10</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="E76" s="12">
         <v>200</v>
@@ -16829,21 +16600,21 @@
         <v>10</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="E77" s="12">
         <v>200</v>
@@ -16855,21 +16626,21 @@
         <v>10</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="E78" s="12">
         <v>200</v>
@@ -16881,7 +16652,7 @@
         <v>10</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -16920,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>25</v>
@@ -16935,21 +16706,21 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>935</v>
+        <v>912</v>
       </c>
       <c r="E2" s="12">
         <v>200</v>
@@ -16961,21 +16732,21 @@
         <v>10</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>936</v>
+        <v>913</v>
       </c>
       <c r="E3" s="12">
         <v>200</v>
@@ -16987,21 +16758,21 @@
         <v>10</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>937</v>
+        <v>914</v>
       </c>
       <c r="E4" s="12">
         <v>200</v>
@@ -17013,21 +16784,21 @@
         <v>10</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>938</v>
+        <v>915</v>
       </c>
       <c r="E5" s="12">
         <v>200</v>
@@ -17039,21 +16810,21 @@
         <v>10</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>939</v>
+        <v>916</v>
       </c>
       <c r="E6" s="12">
         <v>200</v>
@@ -17065,21 +16836,21 @@
         <v>10</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="E7" s="12">
         <v>200</v>
@@ -17091,21 +16862,21 @@
         <v>10</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>888</v>
+        <v>865</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="E8" s="12">
         <v>200</v>
@@ -17117,21 +16888,21 @@
         <v>10</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="E9" s="12">
         <v>200</v>
@@ -17143,21 +16914,21 @@
         <v>10</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>726</v>
+        <v>703</v>
       </c>
       <c r="E10" s="12">
         <v>200</v>
@@ -17169,21 +16940,21 @@
         <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="E11" s="12">
         <v>200</v>
@@ -17195,21 +16966,21 @@
         <v>10</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="E12" s="12">
         <v>200</v>
@@ -17221,21 +16992,21 @@
         <v>10</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>912</v>
+        <v>889</v>
       </c>
       <c r="E13" s="12">
         <v>200</v>
@@ -17247,21 +17018,21 @@
         <v>10</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>911</v>
+        <v>888</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>732</v>
+        <v>709</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>913</v>
+        <v>890</v>
       </c>
       <c r="E14" s="12">
         <v>200</v>
@@ -17273,21 +17044,21 @@
         <v>10</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>736</v>
+        <v>713</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>914</v>
+        <v>891</v>
       </c>
       <c r="E15" s="12">
         <v>200</v>
@@ -17299,21 +17070,21 @@
         <v>10</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>916</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E16" s="12">
         <v>200</v>
@@ -17325,21 +17096,21 @@
         <v>10</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>890</v>
+        <v>867</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>738</v>
+        <v>715</v>
       </c>
       <c r="E17" s="12">
         <v>200</v>
@@ -17351,21 +17122,21 @@
         <v>10</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>891</v>
+        <v>868</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>739</v>
+        <v>716</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="E18" s="12">
         <v>200</v>
@@ -17377,21 +17148,21 @@
         <v>10</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>741</v>
+        <v>718</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>742</v>
+        <v>719</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>743</v>
+        <v>720</v>
       </c>
       <c r="E19" s="12">
         <v>200</v>
@@ -17403,21 +17174,21 @@
         <v>10</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
       <c r="E20" s="12">
         <v>200</v>
@@ -17429,21 +17200,21 @@
         <v>10</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>934</v>
+        <v>911</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>744</v>
+        <v>721</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>745</v>
+        <v>722</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
       <c r="E21" s="12">
         <v>200</v>
@@ -17455,21 +17226,21 @@
         <v>10</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="E22" s="12">
         <v>200</v>
@@ -17481,21 +17252,21 @@
         <v>10</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>933</v>
+        <v>910</v>
       </c>
       <c r="E23" s="12">
         <v>200</v>
@@ -17507,21 +17278,21 @@
         <v>10</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="E24" s="12">
         <v>200</v>
@@ -17533,21 +17304,21 @@
         <v>10</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>895</v>
+        <v>872</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="E25" s="12">
         <v>200</v>
@@ -17559,21 +17330,21 @@
         <v>10</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>896</v>
+        <v>873</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>908</v>
+        <v>885</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>909</v>
+        <v>886</v>
       </c>
       <c r="E26" s="12">
         <v>200</v>
@@ -17585,21 +17356,21 @@
         <v>10</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>910</v>
+        <v>887</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="E27" s="12">
         <v>200</v>
@@ -17611,21 +17382,21 @@
         <v>10</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="E28" s="12">
         <v>200</v>
@@ -17637,21 +17408,21 @@
         <v>10</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>898</v>
+        <v>875</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="E29" s="12">
         <v>200</v>
@@ -17663,21 +17434,21 @@
         <v>10</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>899</v>
+        <v>876</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="E30" s="12">
         <v>200</v>
@@ -17689,21 +17460,21 @@
         <v>10</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>900</v>
+        <v>877</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="E31" s="12">
         <v>200</v>
@@ -17715,21 +17486,21 @@
         <v>10</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>901</v>
+        <v>878</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="E32" s="12">
         <v>200</v>
@@ -17741,21 +17512,21 @@
         <v>10</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>902</v>
+        <v>879</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="E33" s="12">
         <v>200</v>
@@ -17767,21 +17538,21 @@
         <v>10</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>921</v>
+        <v>898</v>
       </c>
       <c r="E34" s="12">
         <v>200</v>
@@ -17793,21 +17564,21 @@
         <v>10</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>917</v>
+        <v>894</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>922</v>
+        <v>899</v>
       </c>
       <c r="E35" s="12">
         <v>200</v>
@@ -17819,21 +17590,21 @@
         <v>10</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>918</v>
+        <v>895</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="E36" s="12">
         <v>200</v>
@@ -17845,21 +17616,21 @@
         <v>10</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>919</v>
+        <v>896</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>924</v>
+        <v>901</v>
       </c>
       <c r="E37" s="12">
         <v>200</v>
@@ -17871,21 +17642,21 @@
         <v>10</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>920</v>
+        <v>897</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>940</v>
+        <v>917</v>
       </c>
       <c r="E38" s="12">
         <v>200</v>
@@ -17897,21 +17668,21 @@
         <v>10</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>904</v>
+        <v>881</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>941</v>
+        <v>918</v>
       </c>
       <c r="E39" s="12">
         <v>200</v>
@@ -17923,21 +17694,21 @@
         <v>10</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
       <c r="E40" s="12">
         <v>200</v>
@@ -17949,21 +17720,21 @@
         <v>10</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>952</v>
+        <v>929</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="E41" s="12">
         <v>200</v>
@@ -17975,21 +17746,21 @@
         <v>10</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>944</v>
+        <v>921</v>
       </c>
       <c r="E42" s="12">
         <v>200</v>
@@ -18001,21 +17772,21 @@
         <v>10</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="E43" s="12">
         <v>200</v>
@@ -18027,21 +17798,21 @@
         <v>10</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="E44" s="12">
         <v>200</v>
@@ -18053,21 +17824,21 @@
         <v>10</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="E45" s="12">
         <v>200</v>
@@ -18079,21 +17850,21 @@
         <v>10</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="E46" s="12">
         <v>200</v>
@@ -18105,21 +17876,21 @@
         <v>10</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="E47" s="12">
         <v>200</v>
@@ -18131,21 +17902,21 @@
         <v>10</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="E48" s="12">
         <v>200</v>
@@ -18157,21 +17928,21 @@
         <v>10</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="E49" s="12">
         <v>200</v>
@@ -18183,21 +17954,21 @@
         <v>10</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="E50" s="12">
         <v>200</v>
@@ -18209,21 +17980,21 @@
         <v>10</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="E51" s="12">
         <v>200</v>
@@ -18235,21 +18006,21 @@
         <v>10</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="E52" s="12">
         <v>200</v>
@@ -18261,21 +18032,21 @@
         <v>10</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>951</v>
+        <v>928</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="E53" s="12">
         <v>200</v>
@@ -18287,21 +18058,21 @@
         <v>10</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
       <c r="E54" s="12">
         <v>200</v>
@@ -18313,21 +18084,21 @@
         <v>10</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="E55" s="12">
         <v>200</v>
@@ -18339,21 +18110,21 @@
         <v>10</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>926</v>
+        <v>903</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>815</v>
+        <v>792</v>
       </c>
       <c r="E56" s="12">
         <v>200</v>
@@ -18365,21 +18136,21 @@
         <v>10</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>817</v>
+        <v>794</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E57" s="12">
         <v>200</v>
@@ -18391,21 +18162,21 @@
         <v>10</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
       <c r="E58" s="12">
         <v>200</v>
@@ -18417,21 +18188,21 @@
         <v>10</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="E59" s="12">
         <v>200</v>
@@ -18443,21 +18214,21 @@
         <v>10</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
       <c r="E60" s="12">
         <v>200</v>
@@ -18469,21 +18240,21 @@
         <v>10</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="E61" s="12">
         <v>200</v>
@@ -18495,21 +18266,21 @@
         <v>10</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="E62" s="12">
         <v>200</v>
@@ -18521,21 +18292,21 @@
         <v>10</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="E63" s="12">
         <v>200</v>
@@ -18547,21 +18318,21 @@
         <v>10</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="E64" s="12">
         <v>200</v>
@@ -18573,21 +18344,21 @@
         <v>10</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>905</v>
+        <v>882</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="E65" s="12">
         <v>200</v>
@@ -18599,21 +18370,21 @@
         <v>10</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>906</v>
+        <v>883</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
       <c r="E66" s="12">
         <v>200</v>
@@ -18625,21 +18396,21 @@
         <v>10</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>907</v>
+        <v>884</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="E67" s="12">
         <v>200</v>
@@ -18651,21 +18422,21 @@
         <v>10</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
       <c r="E68" s="12">
         <v>200</v>
@@ -18677,21 +18448,21 @@
         <v>10</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="E69" s="12">
         <v>200</v>
@@ -18703,21 +18474,21 @@
         <v>10</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>847</v>
+        <v>824</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
       <c r="E70" s="12">
         <v>200</v>
@@ -18729,21 +18500,21 @@
         <v>10</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="E71" s="12">
         <v>200</v>
@@ -18755,21 +18526,21 @@
         <v>10</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>925</v>
+        <v>902</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="E72" s="12">
         <v>200</v>
@@ -18781,21 +18552,21 @@
         <v>10</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="E73" s="12">
         <v>200</v>
@@ -18807,21 +18578,21 @@
         <v>10</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>928</v>
+        <v>905</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
       <c r="E74" s="12">
         <v>200</v>
@@ -18833,7 +18604,7 @@
         <v>10</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>929</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -18847,7 +18618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2181B9E2-AEE2-4C11-98DD-ED06134DE024}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
@@ -18876,19 +18647,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
@@ -18902,25 +18673,25 @@
     </row>
     <row r="2" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="H2" s="12">
         <v>200</v>
@@ -18934,25 +18705,25 @@
     </row>
     <row r="3" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="H3" s="12">
         <v>200</v>
@@ -18966,25 +18737,25 @@
     </row>
     <row r="4" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>957</v>
+        <v>934</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
       <c r="H4" s="12">
         <v>200</v>
@@ -18998,25 +18769,25 @@
     </row>
     <row r="5" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>960</v>
+        <v>937</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
       <c r="H5" s="12">
         <v>200</v>
@@ -19030,25 +18801,25 @@
     </row>
     <row r="6" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="H6" s="12">
         <v>200</v>
@@ -19062,25 +18833,25 @@
     </row>
     <row r="7" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="H7" s="12">
         <v>200</v>
@@ -19094,25 +18865,25 @@
     </row>
     <row r="8" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>965</v>
+        <v>942</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>670</v>
+        <v>647</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="H8" s="12">
         <v>200</v>
@@ -19126,25 +18897,25 @@
     </row>
     <row r="9" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="H9" s="12">
         <v>200</v>
@@ -19158,25 +18929,25 @@
     </row>
     <row r="10" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="H10" s="12">
         <v>200</v>
@@ -19190,25 +18961,25 @@
     </row>
     <row r="11" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>605</v>
-      </c>
       <c r="G11" s="10" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="H11" s="12">
         <v>200</v>
@@ -19222,25 +18993,25 @@
     </row>
     <row r="12" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="H12" s="12">
         <v>200</v>
@@ -19254,25 +19025,25 @@
     </row>
     <row r="13" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>675</v>
+        <v>652</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="H13" s="12">
         <v>200</v>
@@ -19286,25 +19057,25 @@
     </row>
     <row r="14" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>676</v>
+        <v>653</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="H14" s="12">
         <v>200</v>
@@ -19318,25 +19089,25 @@
     </row>
     <row r="15" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>677</v>
+        <v>654</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="H15" s="12">
         <v>200</v>
@@ -19350,25 +19121,25 @@
     </row>
     <row r="16" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="H16" s="12">
         <v>200</v>
@@ -19382,25 +19153,25 @@
     </row>
     <row r="17" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="H17" s="12">
         <v>200</v>
@@ -19414,25 +19185,25 @@
     </row>
     <row r="18" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>680</v>
+        <v>657</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="H18" s="12">
         <v>200</v>
@@ -19446,25 +19217,25 @@
     </row>
     <row r="19" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>704</v>
+        <v>681</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="H19" s="12">
         <v>200</v>
@@ -19478,25 +19249,25 @@
     </row>
     <row r="20" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>704</v>
+        <v>681</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="H20" s="12">
         <v>200</v>
@@ -19510,25 +19281,25 @@
     </row>
     <row r="21" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="H21" s="12">
         <v>200</v>
@@ -19542,25 +19313,25 @@
     </row>
     <row r="22" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>685</v>
+        <v>662</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="H22" s="12">
         <v>200</v>
@@ -19574,25 +19345,25 @@
     </row>
     <row r="23" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>684</v>
+        <v>661</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="H23" s="12">
         <v>200</v>
@@ -19606,25 +19377,25 @@
     </row>
     <row r="24" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="H24" s="12">
         <v>200</v>
@@ -19638,25 +19409,25 @@
     </row>
     <row r="25" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="H25" s="12">
         <v>200</v>
@@ -19670,25 +19441,25 @@
     </row>
     <row r="26" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>969</v>
+        <v>946</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="H26" s="12">
         <v>200</v>
@@ -19702,25 +19473,25 @@
     </row>
     <row r="27" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>969</v>
+        <v>946</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="H27" s="12">
         <v>200</v>
@@ -19734,25 +19505,25 @@
     </row>
     <row r="28" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="F28" s="10">
         <v>2</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="H28" s="12">
         <v>200</v>
@@ -19766,25 +19537,25 @@
     </row>
     <row r="29" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="F29" s="10">
         <v>1</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="H29" s="12">
         <v>200</v>
@@ -19798,25 +19569,25 @@
     </row>
     <row r="30" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="F30" s="10">
         <v>2</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="H30" s="12">
         <v>200</v>
@@ -19830,25 +19601,25 @@
     </row>
     <row r="31" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>967</v>
+        <v>944</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="F31" s="10">
         <v>2</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="H31" s="12">
         <v>200</v>
@@ -19862,25 +19633,25 @@
     </row>
     <row r="32" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>862</v>
+        <v>839</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>984</v>
+        <v>961</v>
       </c>
       <c r="H32" s="12">
         <v>200</v>
@@ -19894,25 +19665,25 @@
     </row>
     <row r="33" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H33" s="12">
         <v>200</v>
@@ -19926,25 +19697,25 @@
     </row>
     <row r="34" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>973</v>
+        <v>950</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>863</v>
+        <v>840</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="H34" s="12">
         <v>200</v>
@@ -19958,25 +19729,25 @@
     </row>
     <row r="35" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="H35" s="12">
         <v>200</v>
@@ -19990,25 +19761,25 @@
     </row>
     <row r="36" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>696</v>
+        <v>673</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
       <c r="H36" s="12">
         <v>200</v>
@@ -20022,25 +19793,25 @@
     </row>
     <row r="37" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>976</v>
+        <v>953</v>
       </c>
       <c r="H37" s="12">
         <v>200</v>
@@ -20054,25 +19825,25 @@
     </row>
     <row r="38" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>968</v>
+        <v>945</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>880</v>
+        <v>857</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>697</v>
+        <v>674</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="H38" s="12">
         <v>200</v>
@@ -20086,25 +19857,25 @@
     </row>
     <row r="39" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="H39" s="12">
         <v>200</v>
@@ -20118,25 +19889,25 @@
     </row>
     <row r="40" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>867</v>
+        <v>844</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="H40" s="12">
         <v>200</v>
@@ -20150,25 +19921,25 @@
     </row>
     <row r="41" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="H41" s="12">
         <v>200</v>
@@ -20182,25 +19953,25 @@
     </row>
     <row r="42" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>875</v>
+        <v>852</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="H42" s="12">
         <v>200</v>
@@ -20214,25 +19985,25 @@
     </row>
     <row r="43" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>876</v>
+        <v>853</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>869</v>
+        <v>846</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>981</v>
+        <v>958</v>
       </c>
       <c r="H43" s="12">
         <v>200</v>
@@ -20246,25 +20017,25 @@
     </row>
     <row r="44" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>877</v>
+        <v>854</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>871</v>
+        <v>848</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>873</v>
+        <v>850</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>983</v>
+        <v>960</v>
       </c>
       <c r="H44" s="12">
         <v>200</v>
@@ -20278,25 +20049,25 @@
     </row>
     <row r="45" spans="1:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>878</v>
+        <v>855</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>872</v>
+        <v>849</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="H45" s="12">
         <v>200</v>
@@ -20344,7 +20115,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>25</v>
@@ -20359,24 +20130,24 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="E2" s="16">
         <v>200</v>
@@ -20391,21 +20162,21 @@
         <v>0</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="E3" s="16">
         <v>200</v>
@@ -20420,21 +20191,21 @@
         <v>0</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="E4" s="16">
         <v>200</v>
@@ -20449,21 +20220,21 @@
         <v>0</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="E5" s="16">
         <v>200</v>
@@ -20478,21 +20249,21 @@
         <v>0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="E6" s="16">
         <v>200</v>
@@ -20507,21 +20278,21 @@
         <v>0</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E7" s="16">
         <v>200</v>
@@ -20536,21 +20307,21 @@
         <v>0</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="17" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="E8" s="16">
         <v>200</v>
@@ -20565,7 +20336,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E336324-69A1-49F8-9ECE-EF0AB6733620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EF4B8E-EB71-4793-89D8-98BD5BAAE6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="985">
   <si>
     <t>description</t>
   </si>
@@ -13144,6 +13144,75 @@
   <si>
     <t>SELECT dataLayerTime,co2 as Value,devEUI as PropertyId,sourceSystem from AM300_Data ad where devEUI = '24e124710b514794' 
 and dataLayerTime &gt;= $startTime AND dataLayerTime &lt;= $endTime order by dataLayerTime ASC</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_TRAINCONFIG</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_TRAINRESULT</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_PREDICTCONFIG</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_PREDICTRESULT</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_OPTIMALIZERESULT</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_OPTIMALIZECONFIG</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_SIMULATION</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_TOPOLOGY</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_OPTIMIZE_TARGET_TYPE</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_DASHBOARDCONFIG</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_METADATA</t>
+  </si>
+  <si>
+    <t>iems-config-CIMSOURCE_SECTIONALIZEDLINEARIZATION</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_TRAINCONFIG(cond:"",order:"") { createTime optimize_target_type_id simu_id train_cfg_ANN_YN train_cfg_LR_YN train_cfg_RFR_YN train_cfg_SVR_YN train_cfg_SmpEndTime train_cfg_SmpStTime train_cfg_Tree_YN train_cfg_aDa_YN train_cfg_obj_PT train_cfg_obligate1 train_cfg_obligate2 train_cfg_obligate3 train_cfg_obligate4 train_cfg_obligate5 train_cfg_obligate6 train_cfg_predict train_cfg_sample_PT train_cfg_time train_cfg_timetrg_YN}}</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_TRAINRESULT(cond:"",order:"") { variables train_result_obligate4 train_result_obligate5 train_result_obligate2 train_result_obligate3 optimize_target_type_id simu_id train_result_obligate1 config_id train_result_obligate6 runid }}</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_PREDICTRESULT(cond:"",order:"config_id ASC") { Predict_result_time Predict_result_aDa Predict_result_ANN optimize_target_type_id Predict_result_SP5 Predict_result_Tree Predict_result_LR Predict_result_SVR runid createTime variables predict_train_obj_wgt_defval Predict_result_obligate2 Predict_result_obligate1 Predict_result_RFR Predict_result_obligate6 simu_id Predict_result_obligate5 Predict_result_obligate4 Predict_result_obligate3 config_id Predict_result_AVG } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_OPTIMALIZECONFIG(cond:"",order:"") { isActive optimize_target_type_id optimalizeType opt_cfg_opt_starttime opt_cfg_user_def opt_pred_model opt_cfg_obligate3 rollTasksId opt_cfg_obligate2 opt_cfg_obligate5 createTime opt_cfg_obligate4 opt_cfg_obligate6 opt_cfg_emi_frac opt_name dash_cfg_id simu_id opt_cfg_opt_day opt_cfg_opt_frequency isRTCOP opt_cfg_cost_frac opt_methods rollType opt_cfg_obligate1 } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_SIMULATION(cond:"",order:"") { updatatime historymap chartsetting createtime rtcountmap hiscountmap isTraining obligate1 obligate2 channels defcountmap user_id ispredict name obligate5 obligate6 treefile obligate3 obligate4 } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_TOPOLOGY(cond:"",order:"") { create_time topo_name simu_id obligate1 obligate2 topo_xml update_time update_user parent_id obligate5 obligate6 obligate3 obligate4 } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_OPTIMIZE_TARGET_TYPE(cond:"",order:"") { obligate1 obligate2 optimize_topo_selection optimize_type optimize_name obligate5 optimize_data_type obligate3 obligate4 } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_DASHBOARDCONFIG(cond:"",order:"") { dashparam name simu_id optimize_target_type_id } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_METADATA(cond:"",order:"") { obligate1 obligate2 name obligate5 params category obligate3 obligate4 } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_SECTIONALIZEDLINEARIZATION(cond:"",order:"") { tensor_index_counts target obligate1 obligate2 device_name model_name param obligate5 obligate3 obligate4 tensor_data } }</t>
+  </si>
+  <si>
+    <t>{CIMSOURCE_PREDICTCONFIG(cond:"",order:"") { predict_train_model createTime predict_train_obj_wgt_defval predict_cfg_obligate6 predict_cfg_obligate5 predict_cfg_obligate4 predict_cfg_obligate3 predict_cfg_obligate2 predict_cfg_obligate1 optimize_target_type_id simu_id predict_cfg_period predict_cfg_day predict_cfg_time } }</t>
   </si>
 </sst>
 </file>
@@ -13825,7 +13894,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -14058,78 +14127,246 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="18" t="s">
+        <v>962</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>974</v>
+      </c>
+      <c r="D12" s="18">
+        <v>200</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="D13" s="18">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>984</v>
+      </c>
+      <c r="D14" s="18">
+        <v>200</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="D15" s="18">
+        <v>200</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="D16" s="18">
+        <v>200</v>
+      </c>
+      <c r="E16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="D17" s="18">
+        <v>200</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>978</v>
+      </c>
+      <c r="D18" s="18">
+        <v>200</v>
+      </c>
+      <c r="E18" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>979</v>
+      </c>
+      <c r="D19" s="18">
+        <v>200</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>970</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>980</v>
+      </c>
+      <c r="D20" s="18">
+        <v>200</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>981</v>
+      </c>
+      <c r="D21" s="18">
+        <v>200</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>982</v>
+      </c>
+      <c r="D22" s="18">
+        <v>200</v>
+      </c>
+      <c r="E22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>983</v>
+      </c>
+      <c r="D23" s="18">
+        <v>200</v>
+      </c>
+      <c r="E23" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>

--- a/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EF4B8E-EB71-4793-89D8-98BD5BAAE6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AD07F6-7956-4AE2-A7EA-441CB2156B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="676" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13891,15 +13891,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A24" sqref="A24:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.6640625" style="6" customWidth="1"/>
     <col min="4" max="6" width="12.6640625" style="1" customWidth="1"/>
@@ -14365,12 +14365,6 @@
       <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
